--- a/stock_historical_data/1d/ICICIGI.NS.xlsx
+++ b/stock_historical_data/1d/ICICIGI.NS.xlsx
@@ -92365,7 +92365,9 @@
       <c r="Q1641" t="n">
         <v>0</v>
       </c>
-      <c r="R1641" t="inlineStr"/>
+      <c r="R1641" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ICICIGI.NS.xlsx
+++ b/stock_historical_data/1d/ICICIGI.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1643"/>
+  <dimension ref="A1:R1645"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92477,7 +92477,117 @@
       <c r="Q1643" t="n">
         <v>0</v>
       </c>
-      <c r="R1643" t="inlineStr"/>
+      <c r="R1643" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" s="2" t="n">
+        <v>45440</v>
+      </c>
+      <c r="B1644" t="n">
+        <v>1625</v>
+      </c>
+      <c r="C1644" t="n">
+        <v>1643.550048828125</v>
+      </c>
+      <c r="D1644" t="n">
+        <v>1612</v>
+      </c>
+      <c r="E1644" t="n">
+        <v>1635.150024414062</v>
+      </c>
+      <c r="F1644" t="n">
+        <v>1635.150024414062</v>
+      </c>
+      <c r="G1644" t="n">
+        <v>527439</v>
+      </c>
+      <c r="H1644" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1644" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1644" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1644" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1644" t="inlineStr"/>
+    </row>
+    <row r="1645">
+      <c r="A1645" s="2" t="n">
+        <v>45441</v>
+      </c>
+      <c r="B1645" t="n">
+        <v>1639.949951171875</v>
+      </c>
+      <c r="C1645" t="n">
+        <v>1640.25</v>
+      </c>
+      <c r="D1645" t="n">
+        <v>1588.349975585938</v>
+      </c>
+      <c r="E1645" t="n">
+        <v>1596.849975585938</v>
+      </c>
+      <c r="F1645" t="n">
+        <v>1596.849975585938</v>
+      </c>
+      <c r="G1645" t="n">
+        <v>556782</v>
+      </c>
+      <c r="H1645" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1645" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1645" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1645" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1645" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ICICIGI.NS.xlsx
+++ b/stock_historical_data/1d/ICICIGI.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1646"/>
+  <dimension ref="A1:R1647"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92645,7 +92645,63 @@
       <c r="Q1646" t="n">
         <v>0</v>
       </c>
-      <c r="R1646" t="inlineStr"/>
+      <c r="R1646" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="B1647" t="n">
+        <v>1585.349975585938</v>
+      </c>
+      <c r="C1647" t="n">
+        <v>1598.25</v>
+      </c>
+      <c r="D1647" t="n">
+        <v>1567.25</v>
+      </c>
+      <c r="E1647" t="n">
+        <v>1580.75</v>
+      </c>
+      <c r="F1647" t="n">
+        <v>1580.75</v>
+      </c>
+      <c r="G1647" t="n">
+        <v>2548274</v>
+      </c>
+      <c r="H1647" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1647" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1647" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1647" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1647" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ICICIGI.NS.xlsx
+++ b/stock_historical_data/1d/ICICIGI.NS.xlsx
@@ -92701,7 +92701,9 @@
       <c r="Q1647" t="n">
         <v>0</v>
       </c>
-      <c r="R1647" t="inlineStr"/>
+      <c r="R1647" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ICICIGI.NS.xlsx
+++ b/stock_historical_data/1d/ICICIGI.NS.xlsx
@@ -93037,7 +93037,9 @@
       <c r="Q1653" t="n">
         <v>0</v>
       </c>
-      <c r="R1653" t="inlineStr"/>
+      <c r="R1653" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1654">
       <c r="A1654" s="2" t="n">
@@ -93091,7 +93093,9 @@
       <c r="Q1654" t="n">
         <v>0</v>
       </c>
-      <c r="R1654" t="inlineStr"/>
+      <c r="R1654" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1655">
       <c r="A1655" s="2" t="n">
@@ -93145,7 +93149,9 @@
       <c r="Q1655" t="n">
         <v>0</v>
       </c>
-      <c r="R1655" t="inlineStr"/>
+      <c r="R1655" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1656">
       <c r="A1656" s="2" t="n">
@@ -93199,7 +93205,9 @@
       <c r="Q1656" t="n">
         <v>0</v>
       </c>
-      <c r="R1656" t="inlineStr"/>
+      <c r="R1656" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1657">
       <c r="A1657" s="2" t="n">
@@ -93253,7 +93261,9 @@
       <c r="Q1657" t="n">
         <v>0</v>
       </c>
-      <c r="R1657" t="inlineStr"/>
+      <c r="R1657" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ICICIGI.NS.xlsx
+++ b/stock_historical_data/1d/ICICIGI.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1657"/>
+  <dimension ref="A1:R1658"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93265,6 +93265,60 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1658">
+      <c r="A1658" s="2" t="n">
+        <v>45461</v>
+      </c>
+      <c r="B1658" t="n">
+        <v>1731</v>
+      </c>
+      <c r="C1658" t="n">
+        <v>1784</v>
+      </c>
+      <c r="D1658" t="n">
+        <v>1729.949951171875</v>
+      </c>
+      <c r="E1658" t="n">
+        <v>1745.25</v>
+      </c>
+      <c r="F1658" t="n">
+        <v>1745.25</v>
+      </c>
+      <c r="G1658" t="n">
+        <v>3501737</v>
+      </c>
+      <c r="H1658" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1658" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1658" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1658" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1658" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/ICICIGI.NS.xlsx
+++ b/stock_historical_data/1d/ICICIGI.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1658"/>
+  <dimension ref="A1:R1659"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92805,7 +92805,7 @@
         <v>23</v>
       </c>
       <c r="O1649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1649" t="n">
         <v>0</v>
@@ -93317,7 +93317,63 @@
       <c r="Q1658" t="n">
         <v>0</v>
       </c>
-      <c r="R1658" t="inlineStr"/>
+      <c r="R1658" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" s="2" t="n">
+        <v>45462</v>
+      </c>
+      <c r="B1659" t="n">
+        <v>1753</v>
+      </c>
+      <c r="C1659" t="n">
+        <v>1782</v>
+      </c>
+      <c r="D1659" t="n">
+        <v>1742</v>
+      </c>
+      <c r="E1659" t="n">
+        <v>1759.75</v>
+      </c>
+      <c r="F1659" t="n">
+        <v>1759.75</v>
+      </c>
+      <c r="G1659" t="n">
+        <v>2946413</v>
+      </c>
+      <c r="H1659" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1659" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1659" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1659" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1659" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ICICIGI.NS.xlsx
+++ b/stock_historical_data/1d/ICICIGI.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1659"/>
+  <dimension ref="A1:R1666"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93373,7 +93373,387 @@
       <c r="Q1659" t="n">
         <v>0</v>
       </c>
-      <c r="R1659" t="inlineStr"/>
+      <c r="R1659" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660" s="2" t="n">
+        <v>45463</v>
+      </c>
+      <c r="B1660" t="n">
+        <v>1760.75</v>
+      </c>
+      <c r="C1660" t="n">
+        <v>1760.75</v>
+      </c>
+      <c r="D1660" t="n">
+        <v>1709.949951171875</v>
+      </c>
+      <c r="E1660" t="n">
+        <v>1748.300048828125</v>
+      </c>
+      <c r="F1660" t="n">
+        <v>1748.300048828125</v>
+      </c>
+      <c r="G1660" t="n">
+        <v>1459465</v>
+      </c>
+      <c r="H1660" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1660" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1660" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1660" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1660" t="inlineStr"/>
+    </row>
+    <row r="1661">
+      <c r="A1661" s="2" t="n">
+        <v>45464</v>
+      </c>
+      <c r="B1661" t="n">
+        <v>1745</v>
+      </c>
+      <c r="C1661" t="n">
+        <v>1778</v>
+      </c>
+      <c r="D1661" t="n">
+        <v>1741.599975585938</v>
+      </c>
+      <c r="E1661" t="n">
+        <v>1756.849975585938</v>
+      </c>
+      <c r="F1661" t="n">
+        <v>1756.849975585938</v>
+      </c>
+      <c r="G1661" t="n">
+        <v>1163546</v>
+      </c>
+      <c r="H1661" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1661" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1661" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1661" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1661" t="inlineStr"/>
+    </row>
+    <row r="1662">
+      <c r="A1662" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1662" t="n">
+        <v>1754.75</v>
+      </c>
+      <c r="C1662" t="n">
+        <v>1786.849975585938</v>
+      </c>
+      <c r="D1662" t="n">
+        <v>1731.849975585938</v>
+      </c>
+      <c r="E1662" t="n">
+        <v>1771.5</v>
+      </c>
+      <c r="F1662" t="n">
+        <v>1771.5</v>
+      </c>
+      <c r="G1662" t="n">
+        <v>893193</v>
+      </c>
+      <c r="H1662" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1662" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1662" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1662" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1662" t="inlineStr"/>
+    </row>
+    <row r="1663">
+      <c r="A1663" s="2" t="n">
+        <v>45468</v>
+      </c>
+      <c r="B1663" t="n">
+        <v>1776</v>
+      </c>
+      <c r="C1663" t="n">
+        <v>1785.800048828125</v>
+      </c>
+      <c r="D1663" t="n">
+        <v>1745.050048828125</v>
+      </c>
+      <c r="E1663" t="n">
+        <v>1780.300048828125</v>
+      </c>
+      <c r="F1663" t="n">
+        <v>1780.300048828125</v>
+      </c>
+      <c r="G1663" t="n">
+        <v>802613</v>
+      </c>
+      <c r="H1663" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1663" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1663" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1663" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1663" t="inlineStr"/>
+    </row>
+    <row r="1664">
+      <c r="A1664" s="2" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B1664" t="n">
+        <v>1780</v>
+      </c>
+      <c r="C1664" t="n">
+        <v>1803.849975585938</v>
+      </c>
+      <c r="D1664" t="n">
+        <v>1764.849975585938</v>
+      </c>
+      <c r="E1664" t="n">
+        <v>1786.900024414062</v>
+      </c>
+      <c r="F1664" t="n">
+        <v>1786.900024414062</v>
+      </c>
+      <c r="G1664" t="n">
+        <v>910690</v>
+      </c>
+      <c r="H1664" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1664" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1664" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1664" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1664" t="inlineStr"/>
+    </row>
+    <row r="1665">
+      <c r="A1665" s="2" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B1665" t="n">
+        <v>1790</v>
+      </c>
+      <c r="C1665" t="n">
+        <v>1814</v>
+      </c>
+      <c r="D1665" t="n">
+        <v>1773.199951171875</v>
+      </c>
+      <c r="E1665" t="n">
+        <v>1793.449951171875</v>
+      </c>
+      <c r="F1665" t="n">
+        <v>1793.449951171875</v>
+      </c>
+      <c r="G1665" t="n">
+        <v>1303155</v>
+      </c>
+      <c r="H1665" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1665" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1665" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1665" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1665" t="inlineStr"/>
+    </row>
+    <row r="1666">
+      <c r="A1666" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B1666" t="n">
+        <v>1793</v>
+      </c>
+      <c r="C1666" t="n">
+        <v>1808.699951171875</v>
+      </c>
+      <c r="D1666" t="n">
+        <v>1785.199951171875</v>
+      </c>
+      <c r="E1666" t="n">
+        <v>1789.550048828125</v>
+      </c>
+      <c r="F1666" t="n">
+        <v>1789.550048828125</v>
+      </c>
+      <c r="G1666" t="n">
+        <v>414897</v>
+      </c>
+      <c r="H1666" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1666" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1666" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1666" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1666" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ICICIGI.NS.xlsx
+++ b/stock_historical_data/1d/ICICIGI.NS.xlsx
@@ -93429,7 +93429,9 @@
       <c r="Q1660" t="n">
         <v>0</v>
       </c>
-      <c r="R1660" t="inlineStr"/>
+      <c r="R1660" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1661">
       <c r="A1661" s="2" t="n">
@@ -93483,7 +93485,9 @@
       <c r="Q1661" t="n">
         <v>0</v>
       </c>
-      <c r="R1661" t="inlineStr"/>
+      <c r="R1661" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1662">
       <c r="A1662" s="2" t="n">
@@ -93537,7 +93541,9 @@
       <c r="Q1662" t="n">
         <v>0</v>
       </c>
-      <c r="R1662" t="inlineStr"/>
+      <c r="R1662" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1663">
       <c r="A1663" s="2" t="n">
@@ -93591,7 +93597,9 @@
       <c r="Q1663" t="n">
         <v>0</v>
       </c>
-      <c r="R1663" t="inlineStr"/>
+      <c r="R1663" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1664">
       <c r="A1664" s="2" t="n">
@@ -93645,7 +93653,9 @@
       <c r="Q1664" t="n">
         <v>0</v>
       </c>
-      <c r="R1664" t="inlineStr"/>
+      <c r="R1664" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1665">
       <c r="A1665" s="2" t="n">
@@ -93699,7 +93709,9 @@
       <c r="Q1665" t="n">
         <v>0</v>
       </c>
-      <c r="R1665" t="inlineStr"/>
+      <c r="R1665" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1666">
       <c r="A1666" s="2" t="n">
@@ -93753,7 +93765,9 @@
       <c r="Q1666" t="n">
         <v>0</v>
       </c>
-      <c r="R1666" t="inlineStr"/>
+      <c r="R1666" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ICICIGI.NS.xlsx
+++ b/stock_historical_data/1d/ICICIGI.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1666"/>
+  <dimension ref="A1:R1671"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93769,6 +93769,276 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1667">
+      <c r="A1667" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1667" t="n">
+        <v>1787</v>
+      </c>
+      <c r="C1667" t="n">
+        <v>1833</v>
+      </c>
+      <c r="D1667" t="n">
+        <v>1782.150024414062</v>
+      </c>
+      <c r="E1667" t="n">
+        <v>1807.099975585938</v>
+      </c>
+      <c r="F1667" t="n">
+        <v>1807.099975585938</v>
+      </c>
+      <c r="G1667" t="n">
+        <v>514895</v>
+      </c>
+      <c r="H1667" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1667" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1667" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1667" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1667" t="inlineStr"/>
+    </row>
+    <row r="1668">
+      <c r="A1668" s="2" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B1668" t="n">
+        <v>1824.949951171875</v>
+      </c>
+      <c r="C1668" t="n">
+        <v>1848</v>
+      </c>
+      <c r="D1668" t="n">
+        <v>1800</v>
+      </c>
+      <c r="E1668" t="n">
+        <v>1807.800048828125</v>
+      </c>
+      <c r="F1668" t="n">
+        <v>1807.800048828125</v>
+      </c>
+      <c r="G1668" t="n">
+        <v>924021</v>
+      </c>
+      <c r="H1668" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1668" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1668" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1668" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1668" t="inlineStr"/>
+    </row>
+    <row r="1669">
+      <c r="A1669" s="2" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B1669" t="n">
+        <v>1840</v>
+      </c>
+      <c r="C1669" t="n">
+        <v>1863.900024414062</v>
+      </c>
+      <c r="D1669" t="n">
+        <v>1820.199951171875</v>
+      </c>
+      <c r="E1669" t="n">
+        <v>1853.25</v>
+      </c>
+      <c r="F1669" t="n">
+        <v>1853.25</v>
+      </c>
+      <c r="G1669" t="n">
+        <v>1447840</v>
+      </c>
+      <c r="H1669" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1669" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1669" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1669" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1669" t="inlineStr"/>
+    </row>
+    <row r="1670">
+      <c r="A1670" s="2" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B1670" t="n">
+        <v>1859</v>
+      </c>
+      <c r="C1670" t="n">
+        <v>1861.949951171875</v>
+      </c>
+      <c r="D1670" t="n">
+        <v>1821.050048828125</v>
+      </c>
+      <c r="E1670" t="n">
+        <v>1827.650024414062</v>
+      </c>
+      <c r="F1670" t="n">
+        <v>1827.650024414062</v>
+      </c>
+      <c r="G1670" t="n">
+        <v>404757</v>
+      </c>
+      <c r="H1670" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1670" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1670" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1670" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1670" t="inlineStr"/>
+    </row>
+    <row r="1671">
+      <c r="A1671" s="2" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B1671" t="n">
+        <v>1826.949951171875</v>
+      </c>
+      <c r="C1671" t="n">
+        <v>1877.400024414062</v>
+      </c>
+      <c r="D1671" t="n">
+        <v>1826.550048828125</v>
+      </c>
+      <c r="E1671" t="n">
+        <v>1865.050048828125</v>
+      </c>
+      <c r="F1671" t="n">
+        <v>1865.050048828125</v>
+      </c>
+      <c r="G1671" t="n">
+        <v>599564</v>
+      </c>
+      <c r="H1671" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1671" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1671" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1671" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1671" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/ICICIGI.NS.xlsx
+++ b/stock_historical_data/1d/ICICIGI.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1671"/>
+  <dimension ref="A1:R1681"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7971,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="Q134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R134" t="n">
         <v>0</v>
@@ -89963,25 +89963,25 @@
     </row>
     <row r="1599">
       <c r="A1599" s="2" t="n">
-        <v>45369</v>
+        <v>45366</v>
       </c>
       <c r="B1599" t="n">
-        <v>1646</v>
+        <v>1633.050048828125</v>
       </c>
       <c r="C1599" t="n">
-        <v>1662.400024414062</v>
+        <v>1688.75</v>
       </c>
       <c r="D1599" t="n">
-        <v>1643.699951171875</v>
+        <v>1633.050048828125</v>
       </c>
       <c r="E1599" t="n">
-        <v>1656.349975585938</v>
+        <v>1651.349975585938</v>
       </c>
       <c r="F1599" t="n">
-        <v>1650.307861328125</v>
+        <v>1645.326049804688</v>
       </c>
       <c r="G1599" t="n">
-        <v>1258890</v>
+        <v>484001</v>
       </c>
       <c r="H1599" t="n">
         <v>2024</v>
@@ -89990,7 +89990,7 @@
         <v>3</v>
       </c>
       <c r="J1599" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K1599" t="n">
         <v>0</v>
@@ -90002,7 +90002,7 @@
         <v>0</v>
       </c>
       <c r="N1599" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O1599" t="n">
         <v>0</v>
@@ -90013,31 +90013,29 @@
       <c r="Q1599" t="n">
         <v>0</v>
       </c>
-      <c r="R1599" t="n">
-        <v>0</v>
-      </c>
+      <c r="R1599" t="inlineStr"/>
     </row>
     <row r="1600">
       <c r="A1600" s="2" t="n">
-        <v>45370</v>
+        <v>45369</v>
       </c>
       <c r="B1600" t="n">
-        <v>1660</v>
+        <v>1646</v>
       </c>
       <c r="C1600" t="n">
-        <v>1667.949951171875</v>
+        <v>1662.400024414062</v>
       </c>
       <c r="D1600" t="n">
-        <v>1643.199951171875</v>
+        <v>1643.699951171875</v>
       </c>
       <c r="E1600" t="n">
-        <v>1657</v>
+        <v>1656.349975585938</v>
       </c>
       <c r="F1600" t="n">
-        <v>1650.955444335938</v>
+        <v>1650.307861328125</v>
       </c>
       <c r="G1600" t="n">
-        <v>661062</v>
+        <v>1258890</v>
       </c>
       <c r="H1600" t="n">
         <v>2024</v>
@@ -90046,7 +90044,7 @@
         <v>3</v>
       </c>
       <c r="J1600" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K1600" t="n">
         <v>0</v>
@@ -90075,25 +90073,25 @@
     </row>
     <row r="1601">
       <c r="A1601" s="2" t="n">
-        <v>45371</v>
+        <v>45370</v>
       </c>
       <c r="B1601" t="n">
-        <v>1653.449951171875</v>
+        <v>1660</v>
       </c>
       <c r="C1601" t="n">
-        <v>1665.75</v>
+        <v>1667.949951171875</v>
       </c>
       <c r="D1601" t="n">
-        <v>1621.050048828125</v>
+        <v>1643.199951171875</v>
       </c>
       <c r="E1601" t="n">
-        <v>1640.400024414062</v>
+        <v>1657</v>
       </c>
       <c r="F1601" t="n">
-        <v>1634.416015625</v>
+        <v>1650.955444335938</v>
       </c>
       <c r="G1601" t="n">
-        <v>404017</v>
+        <v>661062</v>
       </c>
       <c r="H1601" t="n">
         <v>2024</v>
@@ -90102,7 +90100,7 @@
         <v>3</v>
       </c>
       <c r="J1601" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K1601" t="n">
         <v>0</v>
@@ -90131,25 +90129,25 @@
     </row>
     <row r="1602">
       <c r="A1602" s="2" t="n">
-        <v>45372</v>
+        <v>45371</v>
       </c>
       <c r="B1602" t="n">
-        <v>1650</v>
+        <v>1653.449951171875</v>
       </c>
       <c r="C1602" t="n">
-        <v>1677.050048828125</v>
+        <v>1665.75</v>
       </c>
       <c r="D1602" t="n">
-        <v>1636.150024414062</v>
+        <v>1621.050048828125</v>
       </c>
       <c r="E1602" t="n">
-        <v>1673.050048828125</v>
+        <v>1640.400024414062</v>
       </c>
       <c r="F1602" t="n">
-        <v>1666.947021484375</v>
+        <v>1634.416015625</v>
       </c>
       <c r="G1602" t="n">
-        <v>382800</v>
+        <v>404017</v>
       </c>
       <c r="H1602" t="n">
         <v>2024</v>
@@ -90158,7 +90156,7 @@
         <v>3</v>
       </c>
       <c r="J1602" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K1602" t="n">
         <v>0</v>
@@ -90187,25 +90185,25 @@
     </row>
     <row r="1603">
       <c r="A1603" s="2" t="n">
-        <v>45373</v>
+        <v>45372</v>
       </c>
       <c r="B1603" t="n">
-        <v>1674.699951171875</v>
+        <v>1650</v>
       </c>
       <c r="C1603" t="n">
-        <v>1681.400024414062</v>
+        <v>1677.050048828125</v>
       </c>
       <c r="D1603" t="n">
-        <v>1657</v>
+        <v>1636.150024414062</v>
       </c>
       <c r="E1603" t="n">
-        <v>1669.849975585938</v>
+        <v>1673.050048828125</v>
       </c>
       <c r="F1603" t="n">
-        <v>1663.758544921875</v>
+        <v>1666.947021484375</v>
       </c>
       <c r="G1603" t="n">
-        <v>363547</v>
+        <v>382800</v>
       </c>
       <c r="H1603" t="n">
         <v>2024</v>
@@ -90214,7 +90212,7 @@
         <v>3</v>
       </c>
       <c r="J1603" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K1603" t="n">
         <v>0</v>
@@ -90243,25 +90241,25 @@
     </row>
     <row r="1604">
       <c r="A1604" s="2" t="n">
-        <v>45377</v>
+        <v>45373</v>
       </c>
       <c r="B1604" t="n">
+        <v>1674.699951171875</v>
+      </c>
+      <c r="C1604" t="n">
+        <v>1681.400024414062</v>
+      </c>
+      <c r="D1604" t="n">
+        <v>1657</v>
+      </c>
+      <c r="E1604" t="n">
         <v>1669.849975585938</v>
       </c>
-      <c r="C1604" t="n">
-        <v>1671</v>
-      </c>
-      <c r="D1604" t="n">
-        <v>1622</v>
-      </c>
-      <c r="E1604" t="n">
-        <v>1648.25</v>
-      </c>
       <c r="F1604" t="n">
-        <v>1642.237426757812</v>
+        <v>1663.758544921875</v>
       </c>
       <c r="G1604" t="n">
-        <v>1816648</v>
+        <v>363547</v>
       </c>
       <c r="H1604" t="n">
         <v>2024</v>
@@ -90270,7 +90268,7 @@
         <v>3</v>
       </c>
       <c r="J1604" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K1604" t="n">
         <v>0</v>
@@ -90282,7 +90280,7 @@
         <v>0</v>
       </c>
       <c r="N1604" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O1604" t="n">
         <v>0</v>
@@ -90299,25 +90297,25 @@
     </row>
     <row r="1605">
       <c r="A1605" s="2" t="n">
-        <v>45378</v>
+        <v>45377</v>
       </c>
       <c r="B1605" t="n">
-        <v>1660</v>
+        <v>1669.849975585938</v>
       </c>
       <c r="C1605" t="n">
-        <v>1669.900024414062</v>
+        <v>1671</v>
       </c>
       <c r="D1605" t="n">
-        <v>1651.050048828125</v>
+        <v>1622</v>
       </c>
       <c r="E1605" t="n">
-        <v>1662.650024414062</v>
+        <v>1648.25</v>
       </c>
       <c r="F1605" t="n">
-        <v>1656.5849609375</v>
+        <v>1642.237426757812</v>
       </c>
       <c r="G1605" t="n">
-        <v>209280</v>
+        <v>1816648</v>
       </c>
       <c r="H1605" t="n">
         <v>2024</v>
@@ -90326,7 +90324,7 @@
         <v>3</v>
       </c>
       <c r="J1605" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K1605" t="n">
         <v>0</v>
@@ -90355,25 +90353,25 @@
     </row>
     <row r="1606">
       <c r="A1606" s="2" t="n">
-        <v>45379</v>
+        <v>45378</v>
       </c>
       <c r="B1606" t="n">
-        <v>1652.550048828125</v>
+        <v>1660</v>
       </c>
       <c r="C1606" t="n">
-        <v>1693</v>
+        <v>1669.900024414062</v>
       </c>
       <c r="D1606" t="n">
-        <v>1652.550048828125</v>
+        <v>1651.050048828125</v>
       </c>
       <c r="E1606" t="n">
-        <v>1684.5</v>
+        <v>1662.650024414062</v>
       </c>
       <c r="F1606" t="n">
-        <v>1678.355224609375</v>
+        <v>1656.5849609375</v>
       </c>
       <c r="G1606" t="n">
-        <v>687954</v>
+        <v>209280</v>
       </c>
       <c r="H1606" t="n">
         <v>2024</v>
@@ -90382,7 +90380,7 @@
         <v>3</v>
       </c>
       <c r="J1606" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K1606" t="n">
         <v>0</v>
@@ -90411,34 +90409,34 @@
     </row>
     <row r="1607">
       <c r="A1607" s="2" t="n">
-        <v>45383</v>
+        <v>45379</v>
       </c>
       <c r="B1607" t="n">
-        <v>1709</v>
+        <v>1652.550048828125</v>
       </c>
       <c r="C1607" t="n">
-        <v>1717.150024414062</v>
+        <v>1693</v>
       </c>
       <c r="D1607" t="n">
-        <v>1690.300048828125</v>
+        <v>1652.550048828125</v>
       </c>
       <c r="E1607" t="n">
-        <v>1697.849975585938</v>
+        <v>1684.5</v>
       </c>
       <c r="F1607" t="n">
-        <v>1691.656494140625</v>
+        <v>1678.355224609375</v>
       </c>
       <c r="G1607" t="n">
-        <v>296627</v>
+        <v>687954</v>
       </c>
       <c r="H1607" t="n">
         <v>2024</v>
       </c>
       <c r="I1607" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J1607" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="K1607" t="n">
         <v>0</v>
@@ -90450,7 +90448,7 @@
         <v>0</v>
       </c>
       <c r="N1607" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O1607" t="n">
         <v>0</v>
@@ -90467,25 +90465,25 @@
     </row>
     <row r="1608">
       <c r="A1608" s="2" t="n">
-        <v>45384</v>
+        <v>45383</v>
       </c>
       <c r="B1608" t="n">
-        <v>1700</v>
+        <v>1709</v>
       </c>
       <c r="C1608" t="n">
-        <v>1711.849975585938</v>
+        <v>1717.150024414062</v>
       </c>
       <c r="D1608" t="n">
-        <v>1680.150024414062</v>
+        <v>1690.300048828125</v>
       </c>
       <c r="E1608" t="n">
-        <v>1688.900024414062</v>
+        <v>1697.849975585938</v>
       </c>
       <c r="F1608" t="n">
-        <v>1682.739135742188</v>
+        <v>1691.656494140625</v>
       </c>
       <c r="G1608" t="n">
-        <v>334235</v>
+        <v>296627</v>
       </c>
       <c r="H1608" t="n">
         <v>2024</v>
@@ -90494,7 +90492,7 @@
         <v>4</v>
       </c>
       <c r="J1608" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K1608" t="n">
         <v>0</v>
@@ -90523,25 +90521,25 @@
     </row>
     <row r="1609">
       <c r="A1609" s="2" t="n">
-        <v>45385</v>
+        <v>45384</v>
       </c>
       <c r="B1609" t="n">
         <v>1700</v>
       </c>
       <c r="C1609" t="n">
-        <v>1709.949951171875</v>
+        <v>1711.849975585938</v>
       </c>
       <c r="D1609" t="n">
-        <v>1690</v>
+        <v>1680.150024414062</v>
       </c>
       <c r="E1609" t="n">
-        <v>1692.699951171875</v>
+        <v>1688.900024414062</v>
       </c>
       <c r="F1609" t="n">
-        <v>1686.525268554688</v>
+        <v>1682.739135742188</v>
       </c>
       <c r="G1609" t="n">
-        <v>635748</v>
+        <v>334235</v>
       </c>
       <c r="H1609" t="n">
         <v>2024</v>
@@ -90550,7 +90548,7 @@
         <v>4</v>
       </c>
       <c r="J1609" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K1609" t="n">
         <v>0</v>
@@ -90579,25 +90577,25 @@
     </row>
     <row r="1610">
       <c r="A1610" s="2" t="n">
-        <v>45386</v>
+        <v>45385</v>
       </c>
       <c r="B1610" t="n">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="C1610" t="n">
-        <v>1702.199951171875</v>
+        <v>1709.949951171875</v>
       </c>
       <c r="D1610" t="n">
-        <v>1632.550048828125</v>
+        <v>1690</v>
       </c>
       <c r="E1610" t="n">
-        <v>1638.300048828125</v>
+        <v>1692.699951171875</v>
       </c>
       <c r="F1610" t="n">
-        <v>1632.32373046875</v>
+        <v>1686.525268554688</v>
       </c>
       <c r="G1610" t="n">
-        <v>665511</v>
+        <v>635748</v>
       </c>
       <c r="H1610" t="n">
         <v>2024</v>
@@ -90606,7 +90604,7 @@
         <v>4</v>
       </c>
       <c r="J1610" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K1610" t="n">
         <v>0</v>
@@ -90635,25 +90633,25 @@
     </row>
     <row r="1611">
       <c r="A1611" s="2" t="n">
-        <v>45387</v>
+        <v>45386</v>
       </c>
       <c r="B1611" t="n">
-        <v>1647</v>
+        <v>1702</v>
       </c>
       <c r="C1611" t="n">
-        <v>1728</v>
+        <v>1702.199951171875</v>
       </c>
       <c r="D1611" t="n">
-        <v>1647</v>
+        <v>1632.550048828125</v>
       </c>
       <c r="E1611" t="n">
-        <v>1717.800048828125</v>
+        <v>1638.300048828125</v>
       </c>
       <c r="F1611" t="n">
-        <v>1711.53369140625</v>
+        <v>1632.32373046875</v>
       </c>
       <c r="G1611" t="n">
-        <v>1085353</v>
+        <v>665511</v>
       </c>
       <c r="H1611" t="n">
         <v>2024</v>
@@ -90662,7 +90660,7 @@
         <v>4</v>
       </c>
       <c r="J1611" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K1611" t="n">
         <v>0</v>
@@ -90691,25 +90689,25 @@
     </row>
     <row r="1612">
       <c r="A1612" s="2" t="n">
-        <v>45390</v>
+        <v>45387</v>
       </c>
       <c r="B1612" t="n">
-        <v>1728</v>
+        <v>1647</v>
       </c>
       <c r="C1612" t="n">
         <v>1728</v>
       </c>
       <c r="D1612" t="n">
-        <v>1703.599975585938</v>
+        <v>1647</v>
       </c>
       <c r="E1612" t="n">
-        <v>1710.699951171875</v>
+        <v>1717.800048828125</v>
       </c>
       <c r="F1612" t="n">
-        <v>1704.459594726562</v>
+        <v>1711.53369140625</v>
       </c>
       <c r="G1612" t="n">
-        <v>378044</v>
+        <v>1085353</v>
       </c>
       <c r="H1612" t="n">
         <v>2024</v>
@@ -90718,7 +90716,7 @@
         <v>4</v>
       </c>
       <c r="J1612" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K1612" t="n">
         <v>0</v>
@@ -90730,7 +90728,7 @@
         <v>0</v>
       </c>
       <c r="N1612" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O1612" t="n">
         <v>0</v>
@@ -90747,25 +90745,25 @@
     </row>
     <row r="1613">
       <c r="A1613" s="2" t="n">
-        <v>45391</v>
+        <v>45390</v>
       </c>
       <c r="B1613" t="n">
-        <v>1725</v>
+        <v>1728</v>
       </c>
       <c r="C1613" t="n">
         <v>1728</v>
       </c>
       <c r="D1613" t="n">
-        <v>1678.050048828125</v>
+        <v>1703.599975585938</v>
       </c>
       <c r="E1613" t="n">
-        <v>1702.300048828125</v>
+        <v>1710.699951171875</v>
       </c>
       <c r="F1613" t="n">
-        <v>1696.09033203125</v>
+        <v>1704.459594726562</v>
       </c>
       <c r="G1613" t="n">
-        <v>626217</v>
+        <v>378044</v>
       </c>
       <c r="H1613" t="n">
         <v>2024</v>
@@ -90774,7 +90772,7 @@
         <v>4</v>
       </c>
       <c r="J1613" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K1613" t="n">
         <v>0</v>
@@ -90803,25 +90801,25 @@
     </row>
     <row r="1614">
       <c r="A1614" s="2" t="n">
-        <v>45392</v>
+        <v>45391</v>
       </c>
       <c r="B1614" t="n">
-        <v>1710</v>
+        <v>1725</v>
       </c>
       <c r="C1614" t="n">
-        <v>1720</v>
+        <v>1728</v>
       </c>
       <c r="D1614" t="n">
-        <v>1681</v>
+        <v>1678.050048828125</v>
       </c>
       <c r="E1614" t="n">
-        <v>1686.849975585938</v>
+        <v>1702.300048828125</v>
       </c>
       <c r="F1614" t="n">
-        <v>1680.696533203125</v>
+        <v>1696.09033203125</v>
       </c>
       <c r="G1614" t="n">
-        <v>148122</v>
+        <v>626217</v>
       </c>
       <c r="H1614" t="n">
         <v>2024</v>
@@ -90830,7 +90828,7 @@
         <v>4</v>
       </c>
       <c r="J1614" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K1614" t="n">
         <v>0</v>
@@ -90859,25 +90857,25 @@
     </row>
     <row r="1615">
       <c r="A1615" s="2" t="n">
-        <v>45394</v>
+        <v>45392</v>
       </c>
       <c r="B1615" t="n">
-        <v>1691</v>
+        <v>1710</v>
       </c>
       <c r="C1615" t="n">
-        <v>1696.400024414062</v>
+        <v>1720</v>
       </c>
       <c r="D1615" t="n">
-        <v>1655.550048828125</v>
+        <v>1681</v>
       </c>
       <c r="E1615" t="n">
-        <v>1667.199951171875</v>
+        <v>1686.849975585938</v>
       </c>
       <c r="F1615" t="n">
-        <v>1661.118286132812</v>
+        <v>1680.696533203125</v>
       </c>
       <c r="G1615" t="n">
-        <v>311722</v>
+        <v>148122</v>
       </c>
       <c r="H1615" t="n">
         <v>2024</v>
@@ -90886,7 +90884,7 @@
         <v>4</v>
       </c>
       <c r="J1615" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K1615" t="n">
         <v>0</v>
@@ -90915,25 +90913,25 @@
     </row>
     <row r="1616">
       <c r="A1616" s="2" t="n">
-        <v>45397</v>
+        <v>45394</v>
       </c>
       <c r="B1616" t="n">
-        <v>1647.199951171875</v>
+        <v>1691</v>
       </c>
       <c r="C1616" t="n">
-        <v>1658</v>
+        <v>1696.400024414062</v>
       </c>
       <c r="D1616" t="n">
-        <v>1611.5</v>
+        <v>1655.550048828125</v>
       </c>
       <c r="E1616" t="n">
-        <v>1630.300048828125</v>
+        <v>1667.199951171875</v>
       </c>
       <c r="F1616" t="n">
-        <v>1624.352905273438</v>
+        <v>1661.118286132812</v>
       </c>
       <c r="G1616" t="n">
-        <v>385070</v>
+        <v>311722</v>
       </c>
       <c r="H1616" t="n">
         <v>2024</v>
@@ -90942,22 +90940,22 @@
         <v>4</v>
       </c>
       <c r="J1616" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1616" t="n">
         <v>15</v>
       </c>
-      <c r="K1616" t="n">
-        <v>0</v>
-      </c>
-      <c r="L1616" t="n">
-        <v>0</v>
-      </c>
-      <c r="M1616" t="n">
-        <v>0</v>
-      </c>
-      <c r="N1616" t="n">
-        <v>16</v>
-      </c>
       <c r="O1616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P1616" t="n">
         <v>0</v>
@@ -90971,25 +90969,25 @@
     </row>
     <row r="1617">
       <c r="A1617" s="2" t="n">
-        <v>45398</v>
+        <v>45397</v>
       </c>
       <c r="B1617" t="n">
-        <v>1617.199951171875</v>
+        <v>1647.199951171875</v>
       </c>
       <c r="C1617" t="n">
-        <v>1693.699951171875</v>
+        <v>1658</v>
       </c>
       <c r="D1617" t="n">
-        <v>1617.199951171875</v>
+        <v>1611.5</v>
       </c>
       <c r="E1617" t="n">
-        <v>1648.650024414062</v>
+        <v>1630.300048828125</v>
       </c>
       <c r="F1617" t="n">
-        <v>1642.635986328125</v>
+        <v>1624.352905273438</v>
       </c>
       <c r="G1617" t="n">
-        <v>1708675</v>
+        <v>385070</v>
       </c>
       <c r="H1617" t="n">
         <v>2024</v>
@@ -90998,7 +90996,7 @@
         <v>4</v>
       </c>
       <c r="J1617" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K1617" t="n">
         <v>0</v>
@@ -91013,7 +91011,7 @@
         <v>16</v>
       </c>
       <c r="O1617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1617" t="n">
         <v>0</v>
@@ -91027,25 +91025,25 @@
     </row>
     <row r="1618">
       <c r="A1618" s="2" t="n">
-        <v>45400</v>
+        <v>45398</v>
       </c>
       <c r="B1618" t="n">
-        <v>1710</v>
+        <v>1617.199951171875</v>
       </c>
       <c r="C1618" t="n">
-        <v>1747</v>
+        <v>1693.699951171875</v>
       </c>
       <c r="D1618" t="n">
-        <v>1671.349975585938</v>
+        <v>1617.199951171875</v>
       </c>
       <c r="E1618" t="n">
-        <v>1710.099975585938</v>
+        <v>1648.650024414062</v>
       </c>
       <c r="F1618" t="n">
-        <v>1703.86181640625</v>
+        <v>1642.635986328125</v>
       </c>
       <c r="G1618" t="n">
-        <v>4921694</v>
+        <v>1708675</v>
       </c>
       <c r="H1618" t="n">
         <v>2024</v>
@@ -91054,7 +91052,7 @@
         <v>4</v>
       </c>
       <c r="J1618" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K1618" t="n">
         <v>0</v>
@@ -91069,7 +91067,7 @@
         <v>16</v>
       </c>
       <c r="O1618" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P1618" t="n">
         <v>0</v>
@@ -91083,25 +91081,25 @@
     </row>
     <row r="1619">
       <c r="A1619" s="2" t="n">
-        <v>45401</v>
+        <v>45400</v>
       </c>
       <c r="B1619" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C1619" t="n">
+        <v>1747</v>
+      </c>
+      <c r="D1619" t="n">
+        <v>1671.349975585938</v>
+      </c>
+      <c r="E1619" t="n">
         <v>1710.099975585938</v>
       </c>
-      <c r="C1619" t="n">
-        <v>1739.199951171875</v>
-      </c>
-      <c r="D1619" t="n">
-        <v>1674.599975585938</v>
-      </c>
-      <c r="E1619" t="n">
-        <v>1689.75</v>
-      </c>
       <c r="F1619" t="n">
-        <v>1683.586059570312</v>
+        <v>1703.86181640625</v>
       </c>
       <c r="G1619" t="n">
-        <v>896851</v>
+        <v>4921694</v>
       </c>
       <c r="H1619" t="n">
         <v>2024</v>
@@ -91110,7 +91108,7 @@
         <v>4</v>
       </c>
       <c r="J1619" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K1619" t="n">
         <v>0</v>
@@ -91125,7 +91123,7 @@
         <v>16</v>
       </c>
       <c r="O1619" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1619" t="n">
         <v>0</v>
@@ -91139,25 +91137,25 @@
     </row>
     <row r="1620">
       <c r="A1620" s="2" t="n">
-        <v>45404</v>
+        <v>45401</v>
       </c>
       <c r="B1620" t="n">
-        <v>1692.449951171875</v>
+        <v>1710.099975585938</v>
       </c>
       <c r="C1620" t="n">
-        <v>1705.900024414062</v>
+        <v>1739.199951171875</v>
       </c>
       <c r="D1620" t="n">
-        <v>1677.5</v>
+        <v>1674.599975585938</v>
       </c>
       <c r="E1620" t="n">
-        <v>1686</v>
+        <v>1689.75</v>
       </c>
       <c r="F1620" t="n">
-        <v>1679.849731445312</v>
+        <v>1683.586059570312</v>
       </c>
       <c r="G1620" t="n">
-        <v>539679</v>
+        <v>896851</v>
       </c>
       <c r="H1620" t="n">
         <v>2024</v>
@@ -91166,7 +91164,7 @@
         <v>4</v>
       </c>
       <c r="J1620" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K1620" t="n">
         <v>0</v>
@@ -91178,7 +91176,7 @@
         <v>0</v>
       </c>
       <c r="N1620" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O1620" t="n">
         <v>0</v>
@@ -91195,25 +91193,25 @@
     </row>
     <row r="1621">
       <c r="A1621" s="2" t="n">
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="B1621" t="n">
+        <v>1692.449951171875</v>
+      </c>
+      <c r="C1621" t="n">
+        <v>1705.900024414062</v>
+      </c>
+      <c r="D1621" t="n">
+        <v>1677.5</v>
+      </c>
+      <c r="E1621" t="n">
         <v>1686</v>
       </c>
-      <c r="C1621" t="n">
-        <v>1705</v>
-      </c>
-      <c r="D1621" t="n">
-        <v>1672</v>
-      </c>
-      <c r="E1621" t="n">
-        <v>1695.800048828125</v>
-      </c>
       <c r="F1621" t="n">
-        <v>1689.614013671875</v>
+        <v>1679.849731445312</v>
       </c>
       <c r="G1621" t="n">
-        <v>635621</v>
+        <v>539679</v>
       </c>
       <c r="H1621" t="n">
         <v>2024</v>
@@ -91222,7 +91220,7 @@
         <v>4</v>
       </c>
       <c r="J1621" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K1621" t="n">
         <v>0</v>
@@ -91251,25 +91249,25 @@
     </row>
     <row r="1622">
       <c r="A1622" s="2" t="n">
-        <v>45406</v>
+        <v>45405</v>
       </c>
       <c r="B1622" t="n">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="C1622" t="n">
-        <v>1723.949951171875</v>
+        <v>1705</v>
       </c>
       <c r="D1622" t="n">
-        <v>1688</v>
+        <v>1672</v>
       </c>
       <c r="E1622" t="n">
-        <v>1700.599975585938</v>
+        <v>1695.800048828125</v>
       </c>
       <c r="F1622" t="n">
-        <v>1694.396362304688</v>
+        <v>1689.614013671875</v>
       </c>
       <c r="G1622" t="n">
-        <v>597042</v>
+        <v>635621</v>
       </c>
       <c r="H1622" t="n">
         <v>2024</v>
@@ -91278,7 +91276,7 @@
         <v>4</v>
       </c>
       <c r="J1622" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K1622" t="n">
         <v>0</v>
@@ -91307,25 +91305,25 @@
     </row>
     <row r="1623">
       <c r="A1623" s="2" t="n">
-        <v>45407</v>
+        <v>45406</v>
       </c>
       <c r="B1623" t="n">
-        <v>1714.300048828125</v>
+        <v>1696</v>
       </c>
       <c r="C1623" t="n">
-        <v>1714.300048828125</v>
+        <v>1723.949951171875</v>
       </c>
       <c r="D1623" t="n">
-        <v>1682.300048828125</v>
+        <v>1688</v>
       </c>
       <c r="E1623" t="n">
-        <v>1706.800048828125</v>
+        <v>1700.599975585938</v>
       </c>
       <c r="F1623" t="n">
-        <v>1700.573852539062</v>
+        <v>1694.396362304688</v>
       </c>
       <c r="G1623" t="n">
-        <v>632326</v>
+        <v>597042</v>
       </c>
       <c r="H1623" t="n">
         <v>2024</v>
@@ -91334,7 +91332,7 @@
         <v>4</v>
       </c>
       <c r="J1623" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K1623" t="n">
         <v>0</v>
@@ -91363,25 +91361,25 @@
     </row>
     <row r="1624">
       <c r="A1624" s="2" t="n">
-        <v>45408</v>
+        <v>45407</v>
       </c>
       <c r="B1624" t="n">
-        <v>1671</v>
+        <v>1714.300048828125</v>
       </c>
       <c r="C1624" t="n">
-        <v>1719.349975585938</v>
+        <v>1714.300048828125</v>
       </c>
       <c r="D1624" t="n">
-        <v>1671</v>
+        <v>1682.300048828125</v>
       </c>
       <c r="E1624" t="n">
-        <v>1692.650024414062</v>
+        <v>1706.800048828125</v>
       </c>
       <c r="F1624" t="n">
-        <v>1686.475463867188</v>
+        <v>1700.573852539062</v>
       </c>
       <c r="G1624" t="n">
-        <v>299903</v>
+        <v>632326</v>
       </c>
       <c r="H1624" t="n">
         <v>2024</v>
@@ -91390,7 +91388,7 @@
         <v>4</v>
       </c>
       <c r="J1624" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K1624" t="n">
         <v>0</v>
@@ -91419,25 +91417,25 @@
     </row>
     <row r="1625">
       <c r="A1625" s="2" t="n">
-        <v>45411</v>
+        <v>45408</v>
       </c>
       <c r="B1625" t="n">
+        <v>1671</v>
+      </c>
+      <c r="C1625" t="n">
+        <v>1719.349975585938</v>
+      </c>
+      <c r="D1625" t="n">
+        <v>1671</v>
+      </c>
+      <c r="E1625" t="n">
         <v>1692.650024414062</v>
       </c>
-      <c r="C1625" t="n">
-        <v>1710.550048828125</v>
-      </c>
-      <c r="D1625" t="n">
-        <v>1674.300048828125</v>
-      </c>
-      <c r="E1625" t="n">
-        <v>1705.650024414062</v>
-      </c>
       <c r="F1625" t="n">
-        <v>1699.428100585938</v>
+        <v>1686.475463867188</v>
       </c>
       <c r="G1625" t="n">
-        <v>564034</v>
+        <v>299903</v>
       </c>
       <c r="H1625" t="n">
         <v>2024</v>
@@ -91446,7 +91444,7 @@
         <v>4</v>
       </c>
       <c r="J1625" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K1625" t="n">
         <v>0</v>
@@ -91458,7 +91456,7 @@
         <v>0</v>
       </c>
       <c r="N1625" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O1625" t="n">
         <v>0</v>
@@ -91475,25 +91473,25 @@
     </row>
     <row r="1626">
       <c r="A1626" s="2" t="n">
-        <v>45412</v>
+        <v>45411</v>
       </c>
       <c r="B1626" t="n">
-        <v>1714.75</v>
+        <v>1692.650024414062</v>
       </c>
       <c r="C1626" t="n">
-        <v>1729.449951171875</v>
+        <v>1710.550048828125</v>
       </c>
       <c r="D1626" t="n">
-        <v>1693.099975585938</v>
+        <v>1674.300048828125</v>
       </c>
       <c r="E1626" t="n">
-        <v>1710.650024414062</v>
+        <v>1705.650024414062</v>
       </c>
       <c r="F1626" t="n">
-        <v>1704.409790039062</v>
+        <v>1699.428100585938</v>
       </c>
       <c r="G1626" t="n">
-        <v>1438902</v>
+        <v>564034</v>
       </c>
       <c r="H1626" t="n">
         <v>2024</v>
@@ -91502,7 +91500,7 @@
         <v>4</v>
       </c>
       <c r="J1626" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K1626" t="n">
         <v>0</v>
@@ -91531,34 +91529,34 @@
     </row>
     <row r="1627">
       <c r="A1627" s="2" t="n">
-        <v>45414</v>
+        <v>45412</v>
       </c>
       <c r="B1627" t="n">
-        <v>1710.449951171875</v>
+        <v>1714.75</v>
       </c>
       <c r="C1627" t="n">
-        <v>1735.300048828125</v>
+        <v>1729.449951171875</v>
       </c>
       <c r="D1627" t="n">
-        <v>1695.150024414062</v>
+        <v>1693.099975585938</v>
       </c>
       <c r="E1627" t="n">
-        <v>1699.849975585938</v>
+        <v>1710.650024414062</v>
       </c>
       <c r="F1627" t="n">
-        <v>1693.649169921875</v>
+        <v>1704.409790039062</v>
       </c>
       <c r="G1627" t="n">
-        <v>320184</v>
+        <v>1438902</v>
       </c>
       <c r="H1627" t="n">
         <v>2024</v>
       </c>
       <c r="I1627" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J1627" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="K1627" t="n">
         <v>0</v>
@@ -91576,36 +91574,36 @@
         <v>0</v>
       </c>
       <c r="P1627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q1627" t="n">
         <v>0</v>
       </c>
       <c r="R1627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1628">
       <c r="A1628" s="2" t="n">
-        <v>45415</v>
+        <v>45414</v>
       </c>
       <c r="B1628" t="n">
-        <v>1707.699951171875</v>
+        <v>1710.449951171875</v>
       </c>
       <c r="C1628" t="n">
-        <v>1707.699951171875</v>
+        <v>1735.300048828125</v>
       </c>
       <c r="D1628" t="n">
-        <v>1641.449951171875</v>
+        <v>1695.150024414062</v>
       </c>
       <c r="E1628" t="n">
-        <v>1673.400024414062</v>
+        <v>1699.849975585938</v>
       </c>
       <c r="F1628" t="n">
-        <v>1667.295654296875</v>
+        <v>1693.649169921875</v>
       </c>
       <c r="G1628" t="n">
-        <v>774101</v>
+        <v>320184</v>
       </c>
       <c r="H1628" t="n">
         <v>2024</v>
@@ -91614,7 +91612,7 @@
         <v>5</v>
       </c>
       <c r="J1628" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K1628" t="n">
         <v>0</v>
@@ -91629,39 +91627,39 @@
         <v>18</v>
       </c>
       <c r="O1628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P1628" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q1628" t="n">
         <v>0</v>
       </c>
       <c r="R1628" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1629">
       <c r="A1629" s="2" t="n">
-        <v>45418</v>
+        <v>45415</v>
       </c>
       <c r="B1629" t="n">
-        <v>1674.800048828125</v>
+        <v>1707.699951171875</v>
       </c>
       <c r="C1629" t="n">
-        <v>1687.849975585938</v>
+        <v>1707.699951171875</v>
       </c>
       <c r="D1629" t="n">
-        <v>1652.25</v>
+        <v>1641.449951171875</v>
       </c>
       <c r="E1629" t="n">
-        <v>1681.349975585938</v>
+        <v>1673.400024414062</v>
       </c>
       <c r="F1629" t="n">
-        <v>1675.216674804688</v>
+        <v>1667.295654296875</v>
       </c>
       <c r="G1629" t="n">
-        <v>847317</v>
+        <v>774101</v>
       </c>
       <c r="H1629" t="n">
         <v>2024</v>
@@ -91670,7 +91668,7 @@
         <v>5</v>
       </c>
       <c r="J1629" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K1629" t="n">
         <v>0</v>
@@ -91682,42 +91680,42 @@
         <v>0</v>
       </c>
       <c r="N1629" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O1629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q1629" t="n">
         <v>0</v>
       </c>
       <c r="R1629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1630">
       <c r="A1630" s="2" t="n">
-        <v>45419</v>
+        <v>45418</v>
       </c>
       <c r="B1630" t="n">
-        <v>1682.699951171875</v>
+        <v>1674.800048828125</v>
       </c>
       <c r="C1630" t="n">
-        <v>1719.949951171875</v>
+        <v>1687.849975585938</v>
       </c>
       <c r="D1630" t="n">
-        <v>1666.75</v>
+        <v>1652.25</v>
       </c>
       <c r="E1630" t="n">
-        <v>1685.050048828125</v>
+        <v>1681.349975585938</v>
       </c>
       <c r="F1630" t="n">
-        <v>1678.903198242188</v>
+        <v>1675.216674804688</v>
       </c>
       <c r="G1630" t="n">
-        <v>962627</v>
+        <v>847317</v>
       </c>
       <c r="H1630" t="n">
         <v>2024</v>
@@ -91726,7 +91724,7 @@
         <v>5</v>
       </c>
       <c r="J1630" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K1630" t="n">
         <v>0</v>
@@ -91744,36 +91742,36 @@
         <v>0</v>
       </c>
       <c r="P1630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q1630" t="n">
         <v>0</v>
       </c>
       <c r="R1630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1631">
       <c r="A1631" s="2" t="n">
-        <v>45420</v>
+        <v>45419</v>
       </c>
       <c r="B1631" t="n">
-        <v>1675.25</v>
+        <v>1682.699951171875</v>
       </c>
       <c r="C1631" t="n">
-        <v>1727.849975585938</v>
+        <v>1719.949951171875</v>
       </c>
       <c r="D1631" t="n">
-        <v>1670</v>
+        <v>1666.75</v>
       </c>
       <c r="E1631" t="n">
-        <v>1722.5</v>
+        <v>1685.050048828125</v>
       </c>
       <c r="F1631" t="n">
-        <v>1716.216552734375</v>
+        <v>1678.903198242188</v>
       </c>
       <c r="G1631" t="n">
-        <v>819541</v>
+        <v>962627</v>
       </c>
       <c r="H1631" t="n">
         <v>2024</v>
@@ -91782,7 +91780,7 @@
         <v>5</v>
       </c>
       <c r="J1631" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K1631" t="n">
         <v>0</v>
@@ -91811,25 +91809,25 @@
     </row>
     <row r="1632">
       <c r="A1632" s="2" t="n">
-        <v>45421</v>
+        <v>45420</v>
       </c>
       <c r="B1632" t="n">
-        <v>1727.599975585938</v>
+        <v>1675.25</v>
       </c>
       <c r="C1632" t="n">
-        <v>1731</v>
+        <v>1727.849975585938</v>
       </c>
       <c r="D1632" t="n">
-        <v>1644.849975585938</v>
+        <v>1670</v>
       </c>
       <c r="E1632" t="n">
-        <v>1651.550048828125</v>
+        <v>1722.5</v>
       </c>
       <c r="F1632" t="n">
-        <v>1645.525390625</v>
+        <v>1716.216552734375</v>
       </c>
       <c r="G1632" t="n">
-        <v>548189</v>
+        <v>819541</v>
       </c>
       <c r="H1632" t="n">
         <v>2024</v>
@@ -91838,7 +91836,7 @@
         <v>5</v>
       </c>
       <c r="J1632" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K1632" t="n">
         <v>0</v>
@@ -91867,25 +91865,25 @@
     </row>
     <row r="1633">
       <c r="A1633" s="2" t="n">
-        <v>45422</v>
+        <v>45421</v>
       </c>
       <c r="B1633" t="n">
-        <v>1664</v>
+        <v>1727.599975585938</v>
       </c>
       <c r="C1633" t="n">
-        <v>1695.449951171875</v>
+        <v>1731</v>
       </c>
       <c r="D1633" t="n">
-        <v>1647.050048828125</v>
+        <v>1644.849975585938</v>
       </c>
       <c r="E1633" t="n">
-        <v>1661.5</v>
+        <v>1651.550048828125</v>
       </c>
       <c r="F1633" t="n">
-        <v>1655.439086914062</v>
+        <v>1645.525390625</v>
       </c>
       <c r="G1633" t="n">
-        <v>478772</v>
+        <v>548189</v>
       </c>
       <c r="H1633" t="n">
         <v>2024</v>
@@ -91894,7 +91892,7 @@
         <v>5</v>
       </c>
       <c r="J1633" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K1633" t="n">
         <v>0</v>
@@ -91923,25 +91921,25 @@
     </row>
     <row r="1634">
       <c r="A1634" s="2" t="n">
-        <v>45425</v>
+        <v>45422</v>
       </c>
       <c r="B1634" t="n">
-        <v>1667.949951171875</v>
+        <v>1664</v>
       </c>
       <c r="C1634" t="n">
-        <v>1688.550048828125</v>
+        <v>1695.449951171875</v>
       </c>
       <c r="D1634" t="n">
-        <v>1646.400024414062</v>
+        <v>1647.050048828125</v>
       </c>
       <c r="E1634" t="n">
-        <v>1684.150024414062</v>
+        <v>1661.5</v>
       </c>
       <c r="F1634" t="n">
-        <v>1678.006469726562</v>
+        <v>1655.439086914062</v>
       </c>
       <c r="G1634" t="n">
-        <v>379122</v>
+        <v>478772</v>
       </c>
       <c r="H1634" t="n">
         <v>2024</v>
@@ -91950,7 +91948,7 @@
         <v>5</v>
       </c>
       <c r="J1634" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K1634" t="n">
         <v>0</v>
@@ -91962,7 +91960,7 @@
         <v>0</v>
       </c>
       <c r="N1634" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O1634" t="n">
         <v>0</v>
@@ -91979,25 +91977,25 @@
     </row>
     <row r="1635">
       <c r="A1635" s="2" t="n">
-        <v>45426</v>
+        <v>45425</v>
       </c>
       <c r="B1635" t="n">
-        <v>1683.949951171875</v>
+        <v>1667.949951171875</v>
       </c>
       <c r="C1635" t="n">
-        <v>1700.25</v>
+        <v>1688.550048828125</v>
       </c>
       <c r="D1635" t="n">
-        <v>1669.400024414062</v>
+        <v>1646.400024414062</v>
       </c>
       <c r="E1635" t="n">
-        <v>1683.800048828125</v>
+        <v>1684.150024414062</v>
       </c>
       <c r="F1635" t="n">
-        <v>1677.65771484375</v>
+        <v>1678.006469726562</v>
       </c>
       <c r="G1635" t="n">
-        <v>326910</v>
+        <v>379122</v>
       </c>
       <c r="H1635" t="n">
         <v>2024</v>
@@ -92006,7 +92004,7 @@
         <v>5</v>
       </c>
       <c r="J1635" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K1635" t="n">
         <v>0</v>
@@ -92035,25 +92033,25 @@
     </row>
     <row r="1636">
       <c r="A1636" s="2" t="n">
-        <v>45427</v>
+        <v>45426</v>
       </c>
       <c r="B1636" t="n">
-        <v>1678.949951171875</v>
+        <v>1683.949951171875</v>
       </c>
       <c r="C1636" t="n">
-        <v>1684.849975585938</v>
+        <v>1700.25</v>
       </c>
       <c r="D1636" t="n">
-        <v>1649.949951171875</v>
+        <v>1669.400024414062</v>
       </c>
       <c r="E1636" t="n">
-        <v>1652.900024414062</v>
+        <v>1683.800048828125</v>
       </c>
       <c r="F1636" t="n">
-        <v>1646.870483398438</v>
+        <v>1677.65771484375</v>
       </c>
       <c r="G1636" t="n">
-        <v>327336</v>
+        <v>326910</v>
       </c>
       <c r="H1636" t="n">
         <v>2024</v>
@@ -92062,7 +92060,7 @@
         <v>5</v>
       </c>
       <c r="J1636" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K1636" t="n">
         <v>0</v>
@@ -92091,25 +92089,25 @@
     </row>
     <row r="1637">
       <c r="A1637" s="2" t="n">
-        <v>45428</v>
+        <v>45427</v>
       </c>
       <c r="B1637" t="n">
-        <v>1654.949951171875</v>
+        <v>1678.949951171875</v>
       </c>
       <c r="C1637" t="n">
-        <v>1680</v>
+        <v>1684.849975585938</v>
       </c>
       <c r="D1637" t="n">
-        <v>1651.099975585938</v>
+        <v>1649.949951171875</v>
       </c>
       <c r="E1637" t="n">
-        <v>1676.800048828125</v>
+        <v>1652.900024414062</v>
       </c>
       <c r="F1637" t="n">
-        <v>1670.683349609375</v>
+        <v>1646.870483398438</v>
       </c>
       <c r="G1637" t="n">
-        <v>389375</v>
+        <v>327336</v>
       </c>
       <c r="H1637" t="n">
         <v>2024</v>
@@ -92118,7 +92116,7 @@
         <v>5</v>
       </c>
       <c r="J1637" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K1637" t="n">
         <v>0</v>
@@ -92147,25 +92145,25 @@
     </row>
     <row r="1638">
       <c r="A1638" s="2" t="n">
-        <v>45429</v>
+        <v>45428</v>
       </c>
       <c r="B1638" t="n">
+        <v>1654.949951171875</v>
+      </c>
+      <c r="C1638" t="n">
+        <v>1680</v>
+      </c>
+      <c r="D1638" t="n">
+        <v>1651.099975585938</v>
+      </c>
+      <c r="E1638" t="n">
         <v>1676.800048828125</v>
       </c>
-      <c r="C1638" t="n">
-        <v>1683.150024414062</v>
-      </c>
-      <c r="D1638" t="n">
-        <v>1661.599975585938</v>
-      </c>
-      <c r="E1638" t="n">
-        <v>1669.550048828125</v>
-      </c>
       <c r="F1638" t="n">
-        <v>1663.459716796875</v>
+        <v>1670.683349609375</v>
       </c>
       <c r="G1638" t="n">
-        <v>400085</v>
+        <v>389375</v>
       </c>
       <c r="H1638" t="n">
         <v>2024</v>
@@ -92174,7 +92172,7 @@
         <v>5</v>
       </c>
       <c r="J1638" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K1638" t="n">
         <v>0</v>
@@ -92203,25 +92201,25 @@
     </row>
     <row r="1639">
       <c r="A1639" s="2" t="n">
-        <v>45433</v>
+        <v>45429</v>
       </c>
       <c r="B1639" t="n">
-        <v>1674.25</v>
+        <v>1676.800048828125</v>
       </c>
       <c r="C1639" t="n">
-        <v>1675.900024414062</v>
+        <v>1683.150024414062</v>
       </c>
       <c r="D1639" t="n">
-        <v>1625</v>
+        <v>1661.599975585938</v>
       </c>
       <c r="E1639" t="n">
-        <v>1647.849975585938</v>
+        <v>1669.550048828125</v>
       </c>
       <c r="F1639" t="n">
-        <v>1641.8388671875</v>
+        <v>1663.459716796875</v>
       </c>
       <c r="G1639" t="n">
-        <v>547370</v>
+        <v>400085</v>
       </c>
       <c r="H1639" t="n">
         <v>2024</v>
@@ -92230,7 +92228,7 @@
         <v>5</v>
       </c>
       <c r="J1639" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K1639" t="n">
         <v>0</v>
@@ -92242,42 +92240,42 @@
         <v>0</v>
       </c>
       <c r="N1639" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O1639" t="n">
         <v>0</v>
       </c>
       <c r="P1639" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q1639" t="n">
         <v>0</v>
       </c>
       <c r="R1639" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1640">
       <c r="A1640" s="2" t="n">
-        <v>45434</v>
+        <v>45433</v>
       </c>
       <c r="B1640" t="n">
-        <v>1641.199951171875</v>
+        <v>1674.25</v>
       </c>
       <c r="C1640" t="n">
-        <v>1651.349975585938</v>
+        <v>1675.900024414062</v>
       </c>
       <c r="D1640" t="n">
-        <v>1637.849975585938</v>
+        <v>1625</v>
       </c>
       <c r="E1640" t="n">
-        <v>1647.699951171875</v>
+        <v>1647.849975585938</v>
       </c>
       <c r="F1640" t="n">
-        <v>1641.689331054688</v>
+        <v>1641.8388671875</v>
       </c>
       <c r="G1640" t="n">
-        <v>457808</v>
+        <v>547370</v>
       </c>
       <c r="H1640" t="n">
         <v>2024</v>
@@ -92286,7 +92284,7 @@
         <v>5</v>
       </c>
       <c r="J1640" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K1640" t="n">
         <v>0</v>
@@ -92304,36 +92302,36 @@
         <v>0</v>
       </c>
       <c r="P1640" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q1640" t="n">
         <v>0</v>
       </c>
       <c r="R1640" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1641">
       <c r="A1641" s="2" t="n">
-        <v>45435</v>
+        <v>45434</v>
       </c>
       <c r="B1641" t="n">
-        <v>1649</v>
+        <v>1641.199951171875</v>
       </c>
       <c r="C1641" t="n">
-        <v>1664.949951171875</v>
+        <v>1651.349975585938</v>
       </c>
       <c r="D1641" t="n">
-        <v>1637.050048828125</v>
+        <v>1637.849975585938</v>
       </c>
       <c r="E1641" t="n">
-        <v>1661.400024414062</v>
+        <v>1647.699951171875</v>
       </c>
       <c r="F1641" t="n">
-        <v>1655.339477539062</v>
+        <v>1641.689331054688</v>
       </c>
       <c r="G1641" t="n">
-        <v>235391</v>
+        <v>457808</v>
       </c>
       <c r="H1641" t="n">
         <v>2024</v>
@@ -92342,7 +92340,7 @@
         <v>5</v>
       </c>
       <c r="J1641" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K1641" t="n">
         <v>0</v>
@@ -92371,25 +92369,25 @@
     </row>
     <row r="1642">
       <c r="A1642" s="2" t="n">
-        <v>45436</v>
+        <v>45435</v>
       </c>
       <c r="B1642" t="n">
+        <v>1649</v>
+      </c>
+      <c r="C1642" t="n">
+        <v>1664.949951171875</v>
+      </c>
+      <c r="D1642" t="n">
+        <v>1637.050048828125</v>
+      </c>
+      <c r="E1642" t="n">
         <v>1661.400024414062</v>
       </c>
-      <c r="C1642" t="n">
-        <v>1673.099975585938</v>
-      </c>
-      <c r="D1642" t="n">
-        <v>1646.75</v>
-      </c>
-      <c r="E1642" t="n">
-        <v>1659.900024414062</v>
-      </c>
       <c r="F1642" t="n">
-        <v>1653.844970703125</v>
+        <v>1655.339477539062</v>
       </c>
       <c r="G1642" t="n">
-        <v>745275</v>
+        <v>235391</v>
       </c>
       <c r="H1642" t="n">
         <v>2024</v>
@@ -92398,7 +92396,7 @@
         <v>5</v>
       </c>
       <c r="J1642" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K1642" t="n">
         <v>0</v>
@@ -92427,25 +92425,25 @@
     </row>
     <row r="1643">
       <c r="A1643" s="2" t="n">
-        <v>45439</v>
+        <v>45436</v>
       </c>
       <c r="B1643" t="n">
-        <v>1650.099975585938</v>
+        <v>1661.400024414062</v>
       </c>
       <c r="C1643" t="n">
-        <v>1666.949951171875</v>
+        <v>1673.099975585938</v>
       </c>
       <c r="D1643" t="n">
-        <v>1615</v>
+        <v>1646.75</v>
       </c>
       <c r="E1643" t="n">
-        <v>1623.550048828125</v>
+        <v>1659.900024414062</v>
       </c>
       <c r="F1643" t="n">
-        <v>1617.627563476562</v>
+        <v>1653.844970703125</v>
       </c>
       <c r="G1643" t="n">
-        <v>692685</v>
+        <v>745275</v>
       </c>
       <c r="H1643" t="n">
         <v>2024</v>
@@ -92454,7 +92452,7 @@
         <v>5</v>
       </c>
       <c r="J1643" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K1643" t="n">
         <v>0</v>
@@ -92466,7 +92464,7 @@
         <v>0</v>
       </c>
       <c r="N1643" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O1643" t="n">
         <v>0</v>
@@ -92483,25 +92481,25 @@
     </row>
     <row r="1644">
       <c r="A1644" s="2" t="n">
-        <v>45440</v>
+        <v>45439</v>
       </c>
       <c r="B1644" t="n">
-        <v>1625</v>
+        <v>1650.099975585938</v>
       </c>
       <c r="C1644" t="n">
-        <v>1643.550048828125</v>
+        <v>1666.949951171875</v>
       </c>
       <c r="D1644" t="n">
-        <v>1612</v>
+        <v>1615</v>
       </c>
       <c r="E1644" t="n">
-        <v>1635.150024414062</v>
+        <v>1623.550048828125</v>
       </c>
       <c r="F1644" t="n">
-        <v>1629.185180664062</v>
+        <v>1617.627563476562</v>
       </c>
       <c r="G1644" t="n">
-        <v>527439</v>
+        <v>692685</v>
       </c>
       <c r="H1644" t="n">
         <v>2024</v>
@@ -92510,7 +92508,7 @@
         <v>5</v>
       </c>
       <c r="J1644" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K1644" t="n">
         <v>0</v>
@@ -92539,25 +92537,25 @@
     </row>
     <row r="1645">
       <c r="A1645" s="2" t="n">
-        <v>45441</v>
+        <v>45440</v>
       </c>
       <c r="B1645" t="n">
-        <v>1639.949951171875</v>
+        <v>1625</v>
       </c>
       <c r="C1645" t="n">
-        <v>1640.25</v>
+        <v>1643.550048828125</v>
       </c>
       <c r="D1645" t="n">
-        <v>1588.349975585938</v>
+        <v>1612</v>
       </c>
       <c r="E1645" t="n">
-        <v>1596.849975585938</v>
+        <v>1635.150024414062</v>
       </c>
       <c r="F1645" t="n">
-        <v>1591.02490234375</v>
+        <v>1629.185180664062</v>
       </c>
       <c r="G1645" t="n">
-        <v>556931</v>
+        <v>527439</v>
       </c>
       <c r="H1645" t="n">
         <v>2024</v>
@@ -92566,7 +92564,7 @@
         <v>5</v>
       </c>
       <c r="J1645" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K1645" t="n">
         <v>0</v>
@@ -92595,25 +92593,25 @@
     </row>
     <row r="1646">
       <c r="A1646" s="2" t="n">
-        <v>45442</v>
+        <v>45441</v>
       </c>
       <c r="B1646" t="n">
-        <v>1594.800048828125</v>
+        <v>1639.949951171875</v>
       </c>
       <c r="C1646" t="n">
-        <v>1608.900024414062</v>
+        <v>1640.25</v>
       </c>
       <c r="D1646" t="n">
-        <v>1579.5</v>
+        <v>1588.349975585938</v>
       </c>
       <c r="E1646" t="n">
-        <v>1586.150024414062</v>
+        <v>1596.849975585938</v>
       </c>
       <c r="F1646" t="n">
-        <v>1580.364013671875</v>
+        <v>1591.02490234375</v>
       </c>
       <c r="G1646" t="n">
-        <v>218899</v>
+        <v>556931</v>
       </c>
       <c r="H1646" t="n">
         <v>2024</v>
@@ -92622,7 +92620,7 @@
         <v>5</v>
       </c>
       <c r="J1646" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K1646" t="n">
         <v>0</v>
@@ -92651,25 +92649,25 @@
     </row>
     <row r="1647">
       <c r="A1647" s="2" t="n">
-        <v>45443</v>
+        <v>45442</v>
       </c>
       <c r="B1647" t="n">
-        <v>1585.349975585938</v>
+        <v>1594.800048828125</v>
       </c>
       <c r="C1647" t="n">
-        <v>1598.25</v>
+        <v>1608.900024414062</v>
       </c>
       <c r="D1647" t="n">
-        <v>1567.25</v>
+        <v>1579.5</v>
       </c>
       <c r="E1647" t="n">
-        <v>1580.75</v>
+        <v>1586.150024414062</v>
       </c>
       <c r="F1647" t="n">
-        <v>1574.983642578125</v>
+        <v>1580.364013671875</v>
       </c>
       <c r="G1647" t="n">
-        <v>2548278</v>
+        <v>218899</v>
       </c>
       <c r="H1647" t="n">
         <v>2024</v>
@@ -92678,7 +92676,7 @@
         <v>5</v>
       </c>
       <c r="J1647" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K1647" t="n">
         <v>0</v>
@@ -92707,34 +92705,34 @@
     </row>
     <row r="1648">
       <c r="A1648" s="2" t="n">
-        <v>45446</v>
+        <v>45443</v>
       </c>
       <c r="B1648" t="n">
-        <v>1630</v>
+        <v>1585.349975585938</v>
       </c>
       <c r="C1648" t="n">
-        <v>1630</v>
+        <v>1598.25</v>
       </c>
       <c r="D1648" t="n">
-        <v>1588.050048828125</v>
+        <v>1567.25</v>
       </c>
       <c r="E1648" t="n">
-        <v>1600.650024414062</v>
+        <v>1580.75</v>
       </c>
       <c r="F1648" t="n">
-        <v>1594.81103515625</v>
+        <v>1574.983642578125</v>
       </c>
       <c r="G1648" t="n">
-        <v>817180</v>
+        <v>2548278</v>
       </c>
       <c r="H1648" t="n">
         <v>2024</v>
       </c>
       <c r="I1648" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J1648" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="K1648" t="n">
         <v>0</v>
@@ -92746,7 +92744,7 @@
         <v>0</v>
       </c>
       <c r="N1648" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O1648" t="n">
         <v>0</v>
@@ -92763,25 +92761,25 @@
     </row>
     <row r="1649">
       <c r="A1649" s="2" t="n">
-        <v>45447</v>
+        <v>45446</v>
       </c>
       <c r="B1649" t="n">
-        <v>1595</v>
+        <v>1630</v>
       </c>
       <c r="C1649" t="n">
-        <v>1610.650024414062</v>
+        <v>1630</v>
       </c>
       <c r="D1649" t="n">
-        <v>1480.5</v>
+        <v>1588.050048828125</v>
       </c>
       <c r="E1649" t="n">
-        <v>1536.25</v>
+        <v>1600.650024414062</v>
       </c>
       <c r="F1649" t="n">
-        <v>1530.64599609375</v>
+        <v>1594.81103515625</v>
       </c>
       <c r="G1649" t="n">
-        <v>1917683</v>
+        <v>817180</v>
       </c>
       <c r="H1649" t="n">
         <v>2024</v>
@@ -92790,7 +92788,7 @@
         <v>6</v>
       </c>
       <c r="J1649" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K1649" t="n">
         <v>0</v>
@@ -92805,7 +92803,7 @@
         <v>23</v>
       </c>
       <c r="O1649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P1649" t="n">
         <v>0</v>
@@ -92819,25 +92817,25 @@
     </row>
     <row r="1650">
       <c r="A1650" s="2" t="n">
-        <v>45448</v>
+        <v>45447</v>
       </c>
       <c r="B1650" t="n">
-        <v>1530.449951171875</v>
+        <v>1595</v>
       </c>
       <c r="C1650" t="n">
-        <v>1634.550048828125</v>
+        <v>1610.650024414062</v>
       </c>
       <c r="D1650" t="n">
-        <v>1530.449951171875</v>
+        <v>1480.5</v>
       </c>
       <c r="E1650" t="n">
-        <v>1630.449951171875</v>
+        <v>1536.25</v>
       </c>
       <c r="F1650" t="n">
-        <v>1624.502319335938</v>
+        <v>1530.64599609375</v>
       </c>
       <c r="G1650" t="n">
-        <v>847914</v>
+        <v>1917683</v>
       </c>
       <c r="H1650" t="n">
         <v>2024</v>
@@ -92846,7 +92844,7 @@
         <v>6</v>
       </c>
       <c r="J1650" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K1650" t="n">
         <v>0</v>
@@ -92861,7 +92859,7 @@
         <v>23</v>
       </c>
       <c r="O1650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1650" t="n">
         <v>0</v>
@@ -92875,25 +92873,25 @@
     </row>
     <row r="1651">
       <c r="A1651" s="2" t="n">
-        <v>45449</v>
+        <v>45448</v>
       </c>
       <c r="B1651" t="n">
-        <v>1630.150024414062</v>
+        <v>1530.449951171875</v>
       </c>
       <c r="C1651" t="n">
-        <v>1649.75</v>
+        <v>1634.550048828125</v>
       </c>
       <c r="D1651" t="n">
-        <v>1615.599975585938</v>
+        <v>1530.449951171875</v>
       </c>
       <c r="E1651" t="n">
-        <v>1644.800048828125</v>
+        <v>1630.449951171875</v>
       </c>
       <c r="F1651" t="n">
-        <v>1638.800048828125</v>
+        <v>1624.502319335938</v>
       </c>
       <c r="G1651" t="n">
-        <v>716813</v>
+        <v>847914</v>
       </c>
       <c r="H1651" t="n">
         <v>2024</v>
@@ -92902,7 +92900,7 @@
         <v>6</v>
       </c>
       <c r="J1651" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K1651" t="n">
         <v>0</v>
@@ -92931,25 +92929,25 @@
     </row>
     <row r="1652">
       <c r="A1652" s="2" t="n">
-        <v>45450</v>
+        <v>45449</v>
       </c>
       <c r="B1652" t="n">
-        <v>1642.599975585938</v>
+        <v>1630.150024414062</v>
       </c>
       <c r="C1652" t="n">
-        <v>1660.25</v>
+        <v>1649.75</v>
       </c>
       <c r="D1652" t="n">
-        <v>1630.349975585938</v>
+        <v>1615.599975585938</v>
       </c>
       <c r="E1652" t="n">
-        <v>1655.150024414062</v>
+        <v>1644.800048828125</v>
       </c>
       <c r="F1652" t="n">
-        <v>1655.150024414062</v>
+        <v>1638.800048828125</v>
       </c>
       <c r="G1652" t="n">
-        <v>363749</v>
+        <v>716813</v>
       </c>
       <c r="H1652" t="n">
         <v>2024</v>
@@ -92958,7 +92956,7 @@
         <v>6</v>
       </c>
       <c r="J1652" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K1652" t="n">
         <v>0</v>
@@ -92987,25 +92985,25 @@
     </row>
     <row r="1653">
       <c r="A1653" s="2" t="n">
-        <v>45453</v>
+        <v>45450</v>
       </c>
       <c r="B1653" t="n">
+        <v>1642.599975585938</v>
+      </c>
+      <c r="C1653" t="n">
+        <v>1660.25</v>
+      </c>
+      <c r="D1653" t="n">
+        <v>1630.349975585938</v>
+      </c>
+      <c r="E1653" t="n">
         <v>1655.150024414062</v>
       </c>
-      <c r="C1653" t="n">
-        <v>1689.949951171875</v>
-      </c>
-      <c r="D1653" t="n">
-        <v>1645.150024414062</v>
-      </c>
-      <c r="E1653" t="n">
-        <v>1680.099975585938</v>
-      </c>
       <c r="F1653" t="n">
-        <v>1680.099975585938</v>
+        <v>1655.150024414062</v>
       </c>
       <c r="G1653" t="n">
-        <v>278537</v>
+        <v>363749</v>
       </c>
       <c r="H1653" t="n">
         <v>2024</v>
@@ -93014,7 +93012,7 @@
         <v>6</v>
       </c>
       <c r="J1653" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K1653" t="n">
         <v>0</v>
@@ -93026,7 +93024,7 @@
         <v>0</v>
       </c>
       <c r="N1653" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O1653" t="n">
         <v>0</v>
@@ -93043,25 +93041,25 @@
     </row>
     <row r="1654">
       <c r="A1654" s="2" t="n">
-        <v>45454</v>
+        <v>45453</v>
       </c>
       <c r="B1654" t="n">
-        <v>1680</v>
+        <v>1655.150024414062</v>
       </c>
       <c r="C1654" t="n">
-        <v>1680.199951171875</v>
+        <v>1689.949951171875</v>
       </c>
       <c r="D1654" t="n">
-        <v>1641</v>
+        <v>1645.150024414062</v>
       </c>
       <c r="E1654" t="n">
-        <v>1645.349975585938</v>
+        <v>1680.099975585938</v>
       </c>
       <c r="F1654" t="n">
-        <v>1645.349975585938</v>
+        <v>1680.099975585938</v>
       </c>
       <c r="G1654" t="n">
-        <v>622014</v>
+        <v>278537</v>
       </c>
       <c r="H1654" t="n">
         <v>2024</v>
@@ -93070,7 +93068,7 @@
         <v>6</v>
       </c>
       <c r="J1654" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K1654" t="n">
         <v>0</v>
@@ -93099,25 +93097,25 @@
     </row>
     <row r="1655">
       <c r="A1655" s="2" t="n">
-        <v>45455</v>
+        <v>45454</v>
       </c>
       <c r="B1655" t="n">
-        <v>1654.900024414062</v>
+        <v>1680</v>
       </c>
       <c r="C1655" t="n">
-        <v>1668.800048828125</v>
+        <v>1680.199951171875</v>
       </c>
       <c r="D1655" t="n">
-        <v>1645.150024414062</v>
+        <v>1641</v>
       </c>
       <c r="E1655" t="n">
-        <v>1655</v>
+        <v>1645.349975585938</v>
       </c>
       <c r="F1655" t="n">
-        <v>1655</v>
+        <v>1645.349975585938</v>
       </c>
       <c r="G1655" t="n">
-        <v>281407</v>
+        <v>622014</v>
       </c>
       <c r="H1655" t="n">
         <v>2024</v>
@@ -93126,7 +93124,7 @@
         <v>6</v>
       </c>
       <c r="J1655" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K1655" t="n">
         <v>0</v>
@@ -93155,25 +93153,25 @@
     </row>
     <row r="1656">
       <c r="A1656" s="2" t="n">
-        <v>45456</v>
+        <v>45455</v>
       </c>
       <c r="B1656" t="n">
-        <v>1665</v>
+        <v>1654.900024414062</v>
       </c>
       <c r="C1656" t="n">
-        <v>1674.949951171875</v>
+        <v>1668.800048828125</v>
       </c>
       <c r="D1656" t="n">
-        <v>1651</v>
+        <v>1645.150024414062</v>
       </c>
       <c r="E1656" t="n">
-        <v>1662.699951171875</v>
+        <v>1655</v>
       </c>
       <c r="F1656" t="n">
-        <v>1662.699951171875</v>
+        <v>1655</v>
       </c>
       <c r="G1656" t="n">
-        <v>206868</v>
+        <v>281407</v>
       </c>
       <c r="H1656" t="n">
         <v>2024</v>
@@ -93182,7 +93180,7 @@
         <v>6</v>
       </c>
       <c r="J1656" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K1656" t="n">
         <v>0</v>
@@ -93211,25 +93209,25 @@
     </row>
     <row r="1657">
       <c r="A1657" s="2" t="n">
-        <v>45457</v>
+        <v>45456</v>
       </c>
       <c r="B1657" t="n">
-        <v>1689</v>
+        <v>1665</v>
       </c>
       <c r="C1657" t="n">
-        <v>1766.949951171875</v>
+        <v>1674.949951171875</v>
       </c>
       <c r="D1657" t="n">
-        <v>1641</v>
+        <v>1651</v>
       </c>
       <c r="E1657" t="n">
-        <v>1730.900024414062</v>
+        <v>1662.699951171875</v>
       </c>
       <c r="F1657" t="n">
-        <v>1730.900024414062</v>
+        <v>1662.699951171875</v>
       </c>
       <c r="G1657" t="n">
-        <v>5530471</v>
+        <v>206868</v>
       </c>
       <c r="H1657" t="n">
         <v>2024</v>
@@ -93238,7 +93236,7 @@
         <v>6</v>
       </c>
       <c r="J1657" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K1657" t="n">
         <v>0</v>
@@ -93267,25 +93265,25 @@
     </row>
     <row r="1658">
       <c r="A1658" s="2" t="n">
-        <v>45461</v>
+        <v>45457</v>
       </c>
       <c r="B1658" t="n">
-        <v>1731</v>
+        <v>1689</v>
       </c>
       <c r="C1658" t="n">
-        <v>1784</v>
+        <v>1766.949951171875</v>
       </c>
       <c r="D1658" t="n">
-        <v>1729.949951171875</v>
+        <v>1641</v>
       </c>
       <c r="E1658" t="n">
-        <v>1745.25</v>
+        <v>1730.900024414062</v>
       </c>
       <c r="F1658" t="n">
-        <v>1745.25</v>
+        <v>1730.900024414062</v>
       </c>
       <c r="G1658" t="n">
-        <v>3501737</v>
+        <v>5530471</v>
       </c>
       <c r="H1658" t="n">
         <v>2024</v>
@@ -93294,7 +93292,7 @@
         <v>6</v>
       </c>
       <c r="J1658" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K1658" t="n">
         <v>0</v>
@@ -93306,7 +93304,7 @@
         <v>0</v>
       </c>
       <c r="N1658" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O1658" t="n">
         <v>0</v>
@@ -93323,25 +93321,25 @@
     </row>
     <row r="1659">
       <c r="A1659" s="2" t="n">
-        <v>45462</v>
+        <v>45461</v>
       </c>
       <c r="B1659" t="n">
-        <v>1753</v>
+        <v>1731</v>
       </c>
       <c r="C1659" t="n">
-        <v>1782</v>
+        <v>1784</v>
       </c>
       <c r="D1659" t="n">
-        <v>1742</v>
+        <v>1729.949951171875</v>
       </c>
       <c r="E1659" t="n">
-        <v>1759.75</v>
+        <v>1745.25</v>
       </c>
       <c r="F1659" t="n">
-        <v>1759.75</v>
+        <v>1745.25</v>
       </c>
       <c r="G1659" t="n">
-        <v>2946413</v>
+        <v>3501737</v>
       </c>
       <c r="H1659" t="n">
         <v>2024</v>
@@ -93350,7 +93348,7 @@
         <v>6</v>
       </c>
       <c r="J1659" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K1659" t="n">
         <v>0</v>
@@ -93379,25 +93377,25 @@
     </row>
     <row r="1660">
       <c r="A1660" s="2" t="n">
-        <v>45463</v>
+        <v>45462</v>
       </c>
       <c r="B1660" t="n">
-        <v>1760.75</v>
+        <v>1753</v>
       </c>
       <c r="C1660" t="n">
-        <v>1760.75</v>
+        <v>1782</v>
       </c>
       <c r="D1660" t="n">
-        <v>1709.949951171875</v>
+        <v>1742</v>
       </c>
       <c r="E1660" t="n">
-        <v>1748.300048828125</v>
+        <v>1759.75</v>
       </c>
       <c r="F1660" t="n">
-        <v>1748.300048828125</v>
+        <v>1759.75</v>
       </c>
       <c r="G1660" t="n">
-        <v>1459465</v>
+        <v>2946413</v>
       </c>
       <c r="H1660" t="n">
         <v>2024</v>
@@ -93406,7 +93404,7 @@
         <v>6</v>
       </c>
       <c r="J1660" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K1660" t="n">
         <v>0</v>
@@ -93435,25 +93433,25 @@
     </row>
     <row r="1661">
       <c r="A1661" s="2" t="n">
-        <v>45464</v>
+        <v>45463</v>
       </c>
       <c r="B1661" t="n">
-        <v>1745</v>
+        <v>1760.75</v>
       </c>
       <c r="C1661" t="n">
-        <v>1778</v>
+        <v>1760.75</v>
       </c>
       <c r="D1661" t="n">
-        <v>1741.599975585938</v>
+        <v>1709.949951171875</v>
       </c>
       <c r="E1661" t="n">
-        <v>1756.849975585938</v>
+        <v>1748.300048828125</v>
       </c>
       <c r="F1661" t="n">
-        <v>1756.849975585938</v>
+        <v>1748.300048828125</v>
       </c>
       <c r="G1661" t="n">
-        <v>1163546</v>
+        <v>1459465</v>
       </c>
       <c r="H1661" t="n">
         <v>2024</v>
@@ -93462,7 +93460,7 @@
         <v>6</v>
       </c>
       <c r="J1661" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K1661" t="n">
         <v>0</v>
@@ -93491,25 +93489,25 @@
     </row>
     <row r="1662">
       <c r="A1662" s="2" t="n">
-        <v>45467</v>
+        <v>45464</v>
       </c>
       <c r="B1662" t="n">
-        <v>1754.75</v>
+        <v>1745</v>
       </c>
       <c r="C1662" t="n">
-        <v>1786.849975585938</v>
+        <v>1778</v>
       </c>
       <c r="D1662" t="n">
-        <v>1731.849975585938</v>
+        <v>1741.599975585938</v>
       </c>
       <c r="E1662" t="n">
-        <v>1771.5</v>
+        <v>1756.849975585938</v>
       </c>
       <c r="F1662" t="n">
-        <v>1771.5</v>
+        <v>1756.849975585938</v>
       </c>
       <c r="G1662" t="n">
-        <v>893193</v>
+        <v>1163546</v>
       </c>
       <c r="H1662" t="n">
         <v>2024</v>
@@ -93518,7 +93516,7 @@
         <v>6</v>
       </c>
       <c r="J1662" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K1662" t="n">
         <v>0</v>
@@ -93530,7 +93528,7 @@
         <v>0</v>
       </c>
       <c r="N1662" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O1662" t="n">
         <v>0</v>
@@ -93547,25 +93545,25 @@
     </row>
     <row r="1663">
       <c r="A1663" s="2" t="n">
-        <v>45468</v>
+        <v>45467</v>
       </c>
       <c r="B1663" t="n">
-        <v>1776</v>
+        <v>1754.75</v>
       </c>
       <c r="C1663" t="n">
-        <v>1785.800048828125</v>
+        <v>1786.849975585938</v>
       </c>
       <c r="D1663" t="n">
-        <v>1745.050048828125</v>
+        <v>1731.849975585938</v>
       </c>
       <c r="E1663" t="n">
-        <v>1780.300048828125</v>
+        <v>1771.5</v>
       </c>
       <c r="F1663" t="n">
-        <v>1780.300048828125</v>
+        <v>1771.5</v>
       </c>
       <c r="G1663" t="n">
-        <v>802613</v>
+        <v>893193</v>
       </c>
       <c r="H1663" t="n">
         <v>2024</v>
@@ -93574,7 +93572,7 @@
         <v>6</v>
       </c>
       <c r="J1663" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K1663" t="n">
         <v>0</v>
@@ -93603,25 +93601,25 @@
     </row>
     <row r="1664">
       <c r="A1664" s="2" t="n">
-        <v>45469</v>
+        <v>45468</v>
       </c>
       <c r="B1664" t="n">
-        <v>1780</v>
+        <v>1776</v>
       </c>
       <c r="C1664" t="n">
-        <v>1803.849975585938</v>
+        <v>1785.800048828125</v>
       </c>
       <c r="D1664" t="n">
-        <v>1764.849975585938</v>
+        <v>1745.050048828125</v>
       </c>
       <c r="E1664" t="n">
-        <v>1786.900024414062</v>
+        <v>1780.300048828125</v>
       </c>
       <c r="F1664" t="n">
-        <v>1786.900024414062</v>
+        <v>1780.300048828125</v>
       </c>
       <c r="G1664" t="n">
-        <v>910690</v>
+        <v>802613</v>
       </c>
       <c r="H1664" t="n">
         <v>2024</v>
@@ -93630,7 +93628,7 @@
         <v>6</v>
       </c>
       <c r="J1664" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K1664" t="n">
         <v>0</v>
@@ -93659,25 +93657,25 @@
     </row>
     <row r="1665">
       <c r="A1665" s="2" t="n">
-        <v>45470</v>
+        <v>45469</v>
       </c>
       <c r="B1665" t="n">
-        <v>1790</v>
+        <v>1780</v>
       </c>
       <c r="C1665" t="n">
-        <v>1814</v>
+        <v>1803.849975585938</v>
       </c>
       <c r="D1665" t="n">
-        <v>1773.199951171875</v>
+        <v>1764.849975585938</v>
       </c>
       <c r="E1665" t="n">
-        <v>1793.449951171875</v>
+        <v>1786.900024414062</v>
       </c>
       <c r="F1665" t="n">
-        <v>1793.449951171875</v>
+        <v>1786.900024414062</v>
       </c>
       <c r="G1665" t="n">
-        <v>1303155</v>
+        <v>910690</v>
       </c>
       <c r="H1665" t="n">
         <v>2024</v>
@@ -93686,7 +93684,7 @@
         <v>6</v>
       </c>
       <c r="J1665" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K1665" t="n">
         <v>0</v>
@@ -93715,25 +93713,25 @@
     </row>
     <row r="1666">
       <c r="A1666" s="2" t="n">
-        <v>45471</v>
+        <v>45470</v>
       </c>
       <c r="B1666" t="n">
-        <v>1793</v>
+        <v>1790</v>
       </c>
       <c r="C1666" t="n">
-        <v>1808.699951171875</v>
+        <v>1814</v>
       </c>
       <c r="D1666" t="n">
-        <v>1785.199951171875</v>
+        <v>1773.199951171875</v>
       </c>
       <c r="E1666" t="n">
-        <v>1789.550048828125</v>
+        <v>1793.449951171875</v>
       </c>
       <c r="F1666" t="n">
-        <v>1789.550048828125</v>
+        <v>1793.449951171875</v>
       </c>
       <c r="G1666" t="n">
-        <v>414897</v>
+        <v>1303155</v>
       </c>
       <c r="H1666" t="n">
         <v>2024</v>
@@ -93742,7 +93740,7 @@
         <v>6</v>
       </c>
       <c r="J1666" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K1666" t="n">
         <v>0</v>
@@ -93771,34 +93769,34 @@
     </row>
     <row r="1667">
       <c r="A1667" s="2" t="n">
-        <v>45474</v>
+        <v>45471</v>
       </c>
       <c r="B1667" t="n">
-        <v>1787</v>
+        <v>1793</v>
       </c>
       <c r="C1667" t="n">
-        <v>1833</v>
+        <v>1808.699951171875</v>
       </c>
       <c r="D1667" t="n">
-        <v>1782.150024414062</v>
+        <v>1785.199951171875</v>
       </c>
       <c r="E1667" t="n">
-        <v>1807.099975585938</v>
+        <v>1789.550048828125</v>
       </c>
       <c r="F1667" t="n">
-        <v>1807.099975585938</v>
+        <v>1789.550048828125</v>
       </c>
       <c r="G1667" t="n">
-        <v>514895</v>
+        <v>414897</v>
       </c>
       <c r="H1667" t="n">
         <v>2024</v>
       </c>
       <c r="I1667" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J1667" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="K1667" t="n">
         <v>0</v>
@@ -93810,7 +93808,7 @@
         <v>0</v>
       </c>
       <c r="N1667" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O1667" t="n">
         <v>0</v>
@@ -93821,29 +93819,31 @@
       <c r="Q1667" t="n">
         <v>0</v>
       </c>
-      <c r="R1667" t="inlineStr"/>
+      <c r="R1667" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1668">
       <c r="A1668" s="2" t="n">
-        <v>45475</v>
+        <v>45474</v>
       </c>
       <c r="B1668" t="n">
-        <v>1824.949951171875</v>
+        <v>1787</v>
       </c>
       <c r="C1668" t="n">
-        <v>1848</v>
+        <v>1833</v>
       </c>
       <c r="D1668" t="n">
-        <v>1800</v>
+        <v>1782.150024414062</v>
       </c>
       <c r="E1668" t="n">
-        <v>1807.800048828125</v>
+        <v>1807.099975585938</v>
       </c>
       <c r="F1668" t="n">
-        <v>1807.800048828125</v>
+        <v>1807.099975585938</v>
       </c>
       <c r="G1668" t="n">
-        <v>924021</v>
+        <v>514895</v>
       </c>
       <c r="H1668" t="n">
         <v>2024</v>
@@ -93852,7 +93852,7 @@
         <v>7</v>
       </c>
       <c r="J1668" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K1668" t="n">
         <v>0</v>
@@ -93875,29 +93875,31 @@
       <c r="Q1668" t="n">
         <v>0</v>
       </c>
-      <c r="R1668" t="inlineStr"/>
+      <c r="R1668" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1669">
       <c r="A1669" s="2" t="n">
-        <v>45476</v>
+        <v>45475</v>
       </c>
       <c r="B1669" t="n">
-        <v>1840</v>
+        <v>1824.949951171875</v>
       </c>
       <c r="C1669" t="n">
-        <v>1863.900024414062</v>
+        <v>1848</v>
       </c>
       <c r="D1669" t="n">
-        <v>1820.199951171875</v>
+        <v>1800</v>
       </c>
       <c r="E1669" t="n">
-        <v>1853.25</v>
+        <v>1807.800048828125</v>
       </c>
       <c r="F1669" t="n">
-        <v>1853.25</v>
+        <v>1807.800048828125</v>
       </c>
       <c r="G1669" t="n">
-        <v>1447840</v>
+        <v>924021</v>
       </c>
       <c r="H1669" t="n">
         <v>2024</v>
@@ -93906,7 +93908,7 @@
         <v>7</v>
       </c>
       <c r="J1669" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K1669" t="n">
         <v>0</v>
@@ -93929,29 +93931,31 @@
       <c r="Q1669" t="n">
         <v>0</v>
       </c>
-      <c r="R1669" t="inlineStr"/>
+      <c r="R1669" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1670">
       <c r="A1670" s="2" t="n">
-        <v>45477</v>
+        <v>45476</v>
       </c>
       <c r="B1670" t="n">
-        <v>1859</v>
+        <v>1840</v>
       </c>
       <c r="C1670" t="n">
-        <v>1861.949951171875</v>
+        <v>1863.900024414062</v>
       </c>
       <c r="D1670" t="n">
-        <v>1821.050048828125</v>
+        <v>1820.199951171875</v>
       </c>
       <c r="E1670" t="n">
-        <v>1827.650024414062</v>
+        <v>1853.25</v>
       </c>
       <c r="F1670" t="n">
-        <v>1827.650024414062</v>
+        <v>1853.25</v>
       </c>
       <c r="G1670" t="n">
-        <v>404757</v>
+        <v>1447840</v>
       </c>
       <c r="H1670" t="n">
         <v>2024</v>
@@ -93960,7 +93964,7 @@
         <v>7</v>
       </c>
       <c r="J1670" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K1670" t="n">
         <v>0</v>
@@ -93983,29 +93987,31 @@
       <c r="Q1670" t="n">
         <v>0</v>
       </c>
-      <c r="R1670" t="inlineStr"/>
+      <c r="R1670" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1671">
       <c r="A1671" s="2" t="n">
-        <v>45478</v>
+        <v>45477</v>
       </c>
       <c r="B1671" t="n">
-        <v>1826.949951171875</v>
+        <v>1859</v>
       </c>
       <c r="C1671" t="n">
-        <v>1877.400024414062</v>
+        <v>1861.949951171875</v>
       </c>
       <c r="D1671" t="n">
-        <v>1826.550048828125</v>
+        <v>1821.050048828125</v>
       </c>
       <c r="E1671" t="n">
-        <v>1865.050048828125</v>
+        <v>1827.650024414062</v>
       </c>
       <c r="F1671" t="n">
-        <v>1865.050048828125</v>
+        <v>1827.650024414062</v>
       </c>
       <c r="G1671" t="n">
-        <v>599564</v>
+        <v>404757</v>
       </c>
       <c r="H1671" t="n">
         <v>2024</v>
@@ -94014,7 +94020,7 @@
         <v>7</v>
       </c>
       <c r="J1671" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K1671" t="n">
         <v>0</v>
@@ -94037,7 +94043,551 @@
       <c r="Q1671" t="n">
         <v>0</v>
       </c>
-      <c r="R1671" t="inlineStr"/>
+      <c r="R1671" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1672">
+      <c r="A1672" s="2" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B1672" t="n">
+        <v>1826.949951171875</v>
+      </c>
+      <c r="C1672" t="n">
+        <v>1877.400024414062</v>
+      </c>
+      <c r="D1672" t="n">
+        <v>1826.550048828125</v>
+      </c>
+      <c r="E1672" t="n">
+        <v>1865.050048828125</v>
+      </c>
+      <c r="F1672" t="n">
+        <v>1865.050048828125</v>
+      </c>
+      <c r="G1672" t="n">
+        <v>599564</v>
+      </c>
+      <c r="H1672" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1672" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1672" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1672" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1672" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1673">
+      <c r="A1673" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1673" t="n">
+        <v>1865.050048828125</v>
+      </c>
+      <c r="C1673" t="n">
+        <v>1871.699951171875</v>
+      </c>
+      <c r="D1673" t="n">
+        <v>1831.5</v>
+      </c>
+      <c r="E1673" t="n">
+        <v>1838.949951171875</v>
+      </c>
+      <c r="F1673" t="n">
+        <v>1838.949951171875</v>
+      </c>
+      <c r="G1673" t="n">
+        <v>534239</v>
+      </c>
+      <c r="H1673" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1673" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1673" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1673" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1673" t="inlineStr"/>
+    </row>
+    <row r="1674">
+      <c r="A1674" s="2" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B1674" t="n">
+        <v>1839</v>
+      </c>
+      <c r="C1674" t="n">
+        <v>1876.099975585938</v>
+      </c>
+      <c r="D1674" t="n">
+        <v>1839</v>
+      </c>
+      <c r="E1674" t="n">
+        <v>1857.25</v>
+      </c>
+      <c r="F1674" t="n">
+        <v>1857.25</v>
+      </c>
+      <c r="G1674" t="n">
+        <v>699638</v>
+      </c>
+      <c r="H1674" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1674" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1674" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1674" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1674" t="inlineStr"/>
+    </row>
+    <row r="1675">
+      <c r="A1675" s="2" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B1675" t="n">
+        <v>1861.949951171875</v>
+      </c>
+      <c r="C1675" t="n">
+        <v>1884.550048828125</v>
+      </c>
+      <c r="D1675" t="n">
+        <v>1822</v>
+      </c>
+      <c r="E1675" t="n">
+        <v>1877.75</v>
+      </c>
+      <c r="F1675" t="n">
+        <v>1877.75</v>
+      </c>
+      <c r="G1675" t="n">
+        <v>928915</v>
+      </c>
+      <c r="H1675" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1675" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1675" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1675" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1675" t="inlineStr"/>
+    </row>
+    <row r="1676">
+      <c r="A1676" s="2" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B1676" t="n">
+        <v>1878.800048828125</v>
+      </c>
+      <c r="C1676" t="n">
+        <v>1886.199951171875</v>
+      </c>
+      <c r="D1676" t="n">
+        <v>1864</v>
+      </c>
+      <c r="E1676" t="n">
+        <v>1874.199951171875</v>
+      </c>
+      <c r="F1676" t="n">
+        <v>1874.199951171875</v>
+      </c>
+      <c r="G1676" t="n">
+        <v>400733</v>
+      </c>
+      <c r="H1676" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1676" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1676" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1676" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1676" t="inlineStr"/>
+    </row>
+    <row r="1677">
+      <c r="A1677" s="2" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B1677" t="n">
+        <v>1874.199951171875</v>
+      </c>
+      <c r="C1677" t="n">
+        <v>1878.300048828125</v>
+      </c>
+      <c r="D1677" t="n">
+        <v>1858.25</v>
+      </c>
+      <c r="E1677" t="n">
+        <v>1865.300048828125</v>
+      </c>
+      <c r="F1677" t="n">
+        <v>1865.300048828125</v>
+      </c>
+      <c r="G1677" t="n">
+        <v>126088</v>
+      </c>
+      <c r="H1677" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1677" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1677" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1677" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1677" t="inlineStr"/>
+    </row>
+    <row r="1678">
+      <c r="A1678" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1678" t="n">
+        <v>1867.150024414062</v>
+      </c>
+      <c r="C1678" t="n">
+        <v>1880.949951171875</v>
+      </c>
+      <c r="D1678" t="n">
+        <v>1853.550048828125</v>
+      </c>
+      <c r="E1678" t="n">
+        <v>1876.699951171875</v>
+      </c>
+      <c r="F1678" t="n">
+        <v>1876.699951171875</v>
+      </c>
+      <c r="G1678" t="n">
+        <v>181341</v>
+      </c>
+      <c r="H1678" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1678" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1678" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1678" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1678" t="inlineStr"/>
+    </row>
+    <row r="1679">
+      <c r="A1679" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B1679" t="n">
+        <v>1865</v>
+      </c>
+      <c r="C1679" t="n">
+        <v>1903.300048828125</v>
+      </c>
+      <c r="D1679" t="n">
+        <v>1862.550048828125</v>
+      </c>
+      <c r="E1679" t="n">
+        <v>1873.099975585938</v>
+      </c>
+      <c r="F1679" t="n">
+        <v>1873.099975585938</v>
+      </c>
+      <c r="G1679" t="n">
+        <v>981612</v>
+      </c>
+      <c r="H1679" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1679" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1679" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1679" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1679" t="inlineStr"/>
+    </row>
+    <row r="1680">
+      <c r="A1680" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B1680" t="n">
+        <v>1875.599975585938</v>
+      </c>
+      <c r="C1680" t="n">
+        <v>1916</v>
+      </c>
+      <c r="D1680" t="n">
+        <v>1863.900024414062</v>
+      </c>
+      <c r="E1680" t="n">
+        <v>1910.550048828125</v>
+      </c>
+      <c r="F1680" t="n">
+        <v>1910.550048828125</v>
+      </c>
+      <c r="G1680" t="n">
+        <v>1156392</v>
+      </c>
+      <c r="H1680" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1680" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1680" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1680" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1680" t="inlineStr"/>
+    </row>
+    <row r="1681">
+      <c r="A1681" s="2" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B1681" t="n">
+        <v>1900.050048828125</v>
+      </c>
+      <c r="C1681" t="n">
+        <v>1914.449951171875</v>
+      </c>
+      <c r="D1681" t="n">
+        <v>1868.199951171875</v>
+      </c>
+      <c r="E1681" t="n">
+        <v>1881.400024414062</v>
+      </c>
+      <c r="F1681" t="n">
+        <v>1881.400024414062</v>
+      </c>
+      <c r="G1681" t="n">
+        <v>648486</v>
+      </c>
+      <c r="H1681" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1681" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1681" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1681" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1681" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ICICIGI.NS.xlsx
+++ b/stock_historical_data/1d/ICICIGI.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1681"/>
+  <dimension ref="A1:R1691"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90013,7 +90013,9 @@
       <c r="Q1599" t="n">
         <v>0</v>
       </c>
-      <c r="R1599" t="inlineStr"/>
+      <c r="R1599" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1600">
       <c r="A1600" s="2" t="n">
@@ -94155,7 +94157,9 @@
       <c r="Q1673" t="n">
         <v>0</v>
       </c>
-      <c r="R1673" t="inlineStr"/>
+      <c r="R1673" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1674">
       <c r="A1674" s="2" t="n">
@@ -94209,7 +94213,9 @@
       <c r="Q1674" t="n">
         <v>0</v>
       </c>
-      <c r="R1674" t="inlineStr"/>
+      <c r="R1674" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1675">
       <c r="A1675" s="2" t="n">
@@ -94263,7 +94269,9 @@
       <c r="Q1675" t="n">
         <v>0</v>
       </c>
-      <c r="R1675" t="inlineStr"/>
+      <c r="R1675" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1676">
       <c r="A1676" s="2" t="n">
@@ -94317,7 +94325,9 @@
       <c r="Q1676" t="n">
         <v>0</v>
       </c>
-      <c r="R1676" t="inlineStr"/>
+      <c r="R1676" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1677">
       <c r="A1677" s="2" t="n">
@@ -94371,7 +94381,9 @@
       <c r="Q1677" t="n">
         <v>0</v>
       </c>
-      <c r="R1677" t="inlineStr"/>
+      <c r="R1677" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1678">
       <c r="A1678" s="2" t="n">
@@ -94425,7 +94437,9 @@
       <c r="Q1678" t="n">
         <v>0</v>
       </c>
-      <c r="R1678" t="inlineStr"/>
+      <c r="R1678" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1679">
       <c r="A1679" s="2" t="n">
@@ -94479,7 +94493,9 @@
       <c r="Q1679" t="n">
         <v>0</v>
       </c>
-      <c r="R1679" t="inlineStr"/>
+      <c r="R1679" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1680">
       <c r="A1680" s="2" t="n">
@@ -94533,7 +94549,9 @@
       <c r="Q1680" t="n">
         <v>0</v>
       </c>
-      <c r="R1680" t="inlineStr"/>
+      <c r="R1680" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1681">
       <c r="A1681" s="2" t="n">
@@ -94587,7 +94605,549 @@
       <c r="Q1681" t="n">
         <v>0</v>
       </c>
-      <c r="R1681" t="inlineStr"/>
+      <c r="R1681" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1682">
+      <c r="A1682" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1682" t="n">
+        <v>1893</v>
+      </c>
+      <c r="C1682" t="n">
+        <v>1914</v>
+      </c>
+      <c r="D1682" t="n">
+        <v>1861.5</v>
+      </c>
+      <c r="E1682" t="n">
+        <v>1896.300048828125</v>
+      </c>
+      <c r="F1682" t="n">
+        <v>1896.300048828125</v>
+      </c>
+      <c r="G1682" t="n">
+        <v>1590295</v>
+      </c>
+      <c r="H1682" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1682" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1682" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1682" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1682" t="inlineStr"/>
+    </row>
+    <row r="1683">
+      <c r="A1683" s="2" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B1683" t="n">
+        <v>1920</v>
+      </c>
+      <c r="C1683" t="n">
+        <v>1925</v>
+      </c>
+      <c r="D1683" t="n">
+        <v>1856.849975585938</v>
+      </c>
+      <c r="E1683" t="n">
+        <v>1880.349975585938</v>
+      </c>
+      <c r="F1683" t="n">
+        <v>1880.349975585938</v>
+      </c>
+      <c r="G1683" t="n">
+        <v>1213581</v>
+      </c>
+      <c r="H1683" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1683" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1683" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1683" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1683" t="inlineStr"/>
+    </row>
+    <row r="1684">
+      <c r="A1684" s="2" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B1684" t="n">
+        <v>1880.349975585938</v>
+      </c>
+      <c r="C1684" t="n">
+        <v>1922.550048828125</v>
+      </c>
+      <c r="D1684" t="n">
+        <v>1877.050048828125</v>
+      </c>
+      <c r="E1684" t="n">
+        <v>1909.650024414062</v>
+      </c>
+      <c r="F1684" t="n">
+        <v>1909.650024414062</v>
+      </c>
+      <c r="G1684" t="n">
+        <v>947140</v>
+      </c>
+      <c r="H1684" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1684" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1684" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1684" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1684" t="inlineStr"/>
+    </row>
+    <row r="1685">
+      <c r="A1685" s="2" t="n">
+        <v>45498</v>
+      </c>
+      <c r="B1685" t="n">
+        <v>1902</v>
+      </c>
+      <c r="C1685" t="n">
+        <v>1965</v>
+      </c>
+      <c r="D1685" t="n">
+        <v>1886.699951171875</v>
+      </c>
+      <c r="E1685" t="n">
+        <v>1960.5</v>
+      </c>
+      <c r="F1685" t="n">
+        <v>1960.5</v>
+      </c>
+      <c r="G1685" t="n">
+        <v>1248295</v>
+      </c>
+      <c r="H1685" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1685" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1685" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1685" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1685" t="inlineStr"/>
+    </row>
+    <row r="1686">
+      <c r="A1686" s="2" t="n">
+        <v>45499</v>
+      </c>
+      <c r="B1686" t="n">
+        <v>1958</v>
+      </c>
+      <c r="C1686" t="n">
+        <v>1980.050048828125</v>
+      </c>
+      <c r="D1686" t="n">
+        <v>1952.199951171875</v>
+      </c>
+      <c r="E1686" t="n">
+        <v>1967.300048828125</v>
+      </c>
+      <c r="F1686" t="n">
+        <v>1967.300048828125</v>
+      </c>
+      <c r="G1686" t="n">
+        <v>796946</v>
+      </c>
+      <c r="H1686" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1686" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1686" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1686" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1686" t="inlineStr"/>
+    </row>
+    <row r="1687">
+      <c r="A1687" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1687" t="n">
+        <v>1969</v>
+      </c>
+      <c r="C1687" t="n">
+        <v>2003</v>
+      </c>
+      <c r="D1687" t="n">
+        <v>1957.849975585938</v>
+      </c>
+      <c r="E1687" t="n">
+        <v>1968</v>
+      </c>
+      <c r="F1687" t="n">
+        <v>1968</v>
+      </c>
+      <c r="G1687" t="n">
+        <v>1376808</v>
+      </c>
+      <c r="H1687" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1687" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1687" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1687" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1687" t="inlineStr"/>
+    </row>
+    <row r="1688">
+      <c r="A1688" s="2" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B1688" t="n">
+        <v>1963.400024414062</v>
+      </c>
+      <c r="C1688" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D1688" t="n">
+        <v>1922.849975585938</v>
+      </c>
+      <c r="E1688" t="n">
+        <v>1967.550048828125</v>
+      </c>
+      <c r="F1688" t="n">
+        <v>1967.550048828125</v>
+      </c>
+      <c r="G1688" t="n">
+        <v>1466306</v>
+      </c>
+      <c r="H1688" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1688" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1688" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1688" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1688" t="inlineStr"/>
+    </row>
+    <row r="1689">
+      <c r="A1689" s="2" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B1689" t="n">
+        <v>1960</v>
+      </c>
+      <c r="C1689" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D1689" t="n">
+        <v>1959.5</v>
+      </c>
+      <c r="E1689" t="n">
+        <v>2007.800048828125</v>
+      </c>
+      <c r="F1689" t="n">
+        <v>2007.800048828125</v>
+      </c>
+      <c r="G1689" t="n">
+        <v>956425</v>
+      </c>
+      <c r="H1689" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1689" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1689" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1689" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1689" t="inlineStr"/>
+    </row>
+    <row r="1690">
+      <c r="A1690" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B1690" t="n">
+        <v>2024.650024414062</v>
+      </c>
+      <c r="C1690" t="n">
+        <v>2031</v>
+      </c>
+      <c r="D1690" t="n">
+        <v>1993.550048828125</v>
+      </c>
+      <c r="E1690" t="n">
+        <v>2004.349975585938</v>
+      </c>
+      <c r="F1690" t="n">
+        <v>2004.349975585938</v>
+      </c>
+      <c r="G1690" t="n">
+        <v>397222</v>
+      </c>
+      <c r="H1690" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1690" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1690" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1690" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1690" t="inlineStr"/>
+    </row>
+    <row r="1691">
+      <c r="A1691" s="2" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B1691" t="n">
+        <v>1984</v>
+      </c>
+      <c r="C1691" t="n">
+        <v>2007.800048828125</v>
+      </c>
+      <c r="D1691" t="n">
+        <v>1977</v>
+      </c>
+      <c r="E1691" t="n">
+        <v>1983.300048828125</v>
+      </c>
+      <c r="F1691" t="n">
+        <v>1983.300048828125</v>
+      </c>
+      <c r="G1691" t="n">
+        <v>238800</v>
+      </c>
+      <c r="H1691" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1691" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1691" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1691" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1691" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ICICIGI.NS.xlsx
+++ b/stock_historical_data/1d/ICICIGI.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1691"/>
+  <dimension ref="A1:R1696"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7971,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="Q134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R134" t="n">
         <v>0</v>
@@ -94661,7 +94661,9 @@
       <c r="Q1682" t="n">
         <v>0</v>
       </c>
-      <c r="R1682" t="inlineStr"/>
+      <c r="R1682" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1683">
       <c r="A1683" s="2" t="n">
@@ -94715,7 +94717,9 @@
       <c r="Q1683" t="n">
         <v>0</v>
       </c>
-      <c r="R1683" t="inlineStr"/>
+      <c r="R1683" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1684">
       <c r="A1684" s="2" t="n">
@@ -94769,7 +94773,9 @@
       <c r="Q1684" t="n">
         <v>0</v>
       </c>
-      <c r="R1684" t="inlineStr"/>
+      <c r="R1684" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1685">
       <c r="A1685" s="2" t="n">
@@ -94823,7 +94829,9 @@
       <c r="Q1685" t="n">
         <v>0</v>
       </c>
-      <c r="R1685" t="inlineStr"/>
+      <c r="R1685" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1686">
       <c r="A1686" s="2" t="n">
@@ -94877,7 +94885,9 @@
       <c r="Q1686" t="n">
         <v>0</v>
       </c>
-      <c r="R1686" t="inlineStr"/>
+      <c r="R1686" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1687">
       <c r="A1687" s="2" t="n">
@@ -94931,7 +94941,9 @@
       <c r="Q1687" t="n">
         <v>0</v>
       </c>
-      <c r="R1687" t="inlineStr"/>
+      <c r="R1687" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1688">
       <c r="A1688" s="2" t="n">
@@ -94985,7 +94997,9 @@
       <c r="Q1688" t="n">
         <v>0</v>
       </c>
-      <c r="R1688" t="inlineStr"/>
+      <c r="R1688" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1689">
       <c r="A1689" s="2" t="n">
@@ -95039,7 +95053,9 @@
       <c r="Q1689" t="n">
         <v>0</v>
       </c>
-      <c r="R1689" t="inlineStr"/>
+      <c r="R1689" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1690">
       <c r="A1690" s="2" t="n">
@@ -95093,7 +95109,9 @@
       <c r="Q1690" t="n">
         <v>0</v>
       </c>
-      <c r="R1690" t="inlineStr"/>
+      <c r="R1690" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1691">
       <c r="A1691" s="2" t="n">
@@ -95147,7 +95165,279 @@
       <c r="Q1691" t="n">
         <v>0</v>
       </c>
-      <c r="R1691" t="inlineStr"/>
+      <c r="R1691" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1692">
+      <c r="A1692" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1692" t="n">
+        <v>1959.5</v>
+      </c>
+      <c r="C1692" t="n">
+        <v>1996.449951171875</v>
+      </c>
+      <c r="D1692" t="n">
+        <v>1915.050048828125</v>
+      </c>
+      <c r="E1692" t="n">
+        <v>1939.199951171875</v>
+      </c>
+      <c r="F1692" t="n">
+        <v>1939.199951171875</v>
+      </c>
+      <c r="G1692" t="n">
+        <v>505232</v>
+      </c>
+      <c r="H1692" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1692" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1692" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1692" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1692" t="inlineStr"/>
+    </row>
+    <row r="1693">
+      <c r="A1693" s="2" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B1693" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C1693" t="n">
+        <v>1978.849975585938</v>
+      </c>
+      <c r="D1693" t="n">
+        <v>1905.050048828125</v>
+      </c>
+      <c r="E1693" t="n">
+        <v>1913.25</v>
+      </c>
+      <c r="F1693" t="n">
+        <v>1913.25</v>
+      </c>
+      <c r="G1693" t="n">
+        <v>493145</v>
+      </c>
+      <c r="H1693" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1693" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1693" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1693" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1693" t="inlineStr"/>
+    </row>
+    <row r="1694">
+      <c r="A1694" s="2" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B1694" t="n">
+        <v>1934</v>
+      </c>
+      <c r="C1694" t="n">
+        <v>1952.75</v>
+      </c>
+      <c r="D1694" t="n">
+        <v>1929</v>
+      </c>
+      <c r="E1694" t="n">
+        <v>1935.050048828125</v>
+      </c>
+      <c r="F1694" t="n">
+        <v>1935.050048828125</v>
+      </c>
+      <c r="G1694" t="n">
+        <v>667189</v>
+      </c>
+      <c r="H1694" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1694" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1694" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1694" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1694" t="inlineStr"/>
+    </row>
+    <row r="1695">
+      <c r="A1695" s="2" t="n">
+        <v>45512</v>
+      </c>
+      <c r="B1695" t="n">
+        <v>1937</v>
+      </c>
+      <c r="C1695" t="n">
+        <v>1981.949951171875</v>
+      </c>
+      <c r="D1695" t="n">
+        <v>1936</v>
+      </c>
+      <c r="E1695" t="n">
+        <v>1970</v>
+      </c>
+      <c r="F1695" t="n">
+        <v>1970</v>
+      </c>
+      <c r="G1695" t="n">
+        <v>993016</v>
+      </c>
+      <c r="H1695" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1695" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1695" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1695" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1695" t="inlineStr"/>
+    </row>
+    <row r="1696">
+      <c r="A1696" s="2" t="n">
+        <v>45513</v>
+      </c>
+      <c r="B1696" t="n">
+        <v>1980</v>
+      </c>
+      <c r="C1696" t="n">
+        <v>1989.949951171875</v>
+      </c>
+      <c r="D1696" t="n">
+        <v>1960.75</v>
+      </c>
+      <c r="E1696" t="n">
+        <v>1965.949951171875</v>
+      </c>
+      <c r="F1696" t="n">
+        <v>1965.949951171875</v>
+      </c>
+      <c r="G1696" t="n">
+        <v>721536</v>
+      </c>
+      <c r="H1696" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1696" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1696" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1696" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1696" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ICICIGI.NS.xlsx
+++ b/stock_historical_data/1d/ICICIGI.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1696"/>
+  <dimension ref="A1:R1700"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95221,7 +95221,9 @@
       <c r="Q1692" t="n">
         <v>0</v>
       </c>
-      <c r="R1692" t="inlineStr"/>
+      <c r="R1692" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1693">
       <c r="A1693" s="2" t="n">
@@ -95275,7 +95277,9 @@
       <c r="Q1693" t="n">
         <v>0</v>
       </c>
-      <c r="R1693" t="inlineStr"/>
+      <c r="R1693" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1694">
       <c r="A1694" s="2" t="n">
@@ -95329,7 +95333,9 @@
       <c r="Q1694" t="n">
         <v>0</v>
       </c>
-      <c r="R1694" t="inlineStr"/>
+      <c r="R1694" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1695">
       <c r="A1695" s="2" t="n">
@@ -95383,7 +95389,9 @@
       <c r="Q1695" t="n">
         <v>0</v>
       </c>
-      <c r="R1695" t="inlineStr"/>
+      <c r="R1695" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1696">
       <c r="A1696" s="2" t="n">
@@ -95437,7 +95445,225 @@
       <c r="Q1696" t="n">
         <v>0</v>
       </c>
-      <c r="R1696" t="inlineStr"/>
+      <c r="R1696" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1697" t="n">
+        <v>1973.300048828125</v>
+      </c>
+      <c r="C1697" t="n">
+        <v>1985</v>
+      </c>
+      <c r="D1697" t="n">
+        <v>1943</v>
+      </c>
+      <c r="E1697" t="n">
+        <v>1951.449951171875</v>
+      </c>
+      <c r="F1697" t="n">
+        <v>1951.449951171875</v>
+      </c>
+      <c r="G1697" t="n">
+        <v>611318</v>
+      </c>
+      <c r="H1697" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1697" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1697" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1697" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1697" t="inlineStr"/>
+    </row>
+    <row r="1698">
+      <c r="A1698" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B1698" t="n">
+        <v>1956.900024414062</v>
+      </c>
+      <c r="C1698" t="n">
+        <v>1991.349975585938</v>
+      </c>
+      <c r="D1698" t="n">
+        <v>1930</v>
+      </c>
+      <c r="E1698" t="n">
+        <v>1947.25</v>
+      </c>
+      <c r="F1698" t="n">
+        <v>1947.25</v>
+      </c>
+      <c r="G1698" t="n">
+        <v>974239</v>
+      </c>
+      <c r="H1698" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1698" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1698" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1698" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1698" t="inlineStr"/>
+    </row>
+    <row r="1699">
+      <c r="A1699" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B1699" t="n">
+        <v>1947</v>
+      </c>
+      <c r="C1699" t="n">
+        <v>1980</v>
+      </c>
+      <c r="D1699" t="n">
+        <v>1940.050048828125</v>
+      </c>
+      <c r="E1699" t="n">
+        <v>1977.949951171875</v>
+      </c>
+      <c r="F1699" t="n">
+        <v>1977.949951171875</v>
+      </c>
+      <c r="G1699" t="n">
+        <v>749866</v>
+      </c>
+      <c r="H1699" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1699" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1699" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1699" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1699" t="inlineStr"/>
+    </row>
+    <row r="1700">
+      <c r="A1700" s="2" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B1700" t="n">
+        <v>2003.25</v>
+      </c>
+      <c r="C1700" t="n">
+        <v>2046.800048828125</v>
+      </c>
+      <c r="D1700" t="n">
+        <v>1976.949951171875</v>
+      </c>
+      <c r="E1700" t="n">
+        <v>2036.699951171875</v>
+      </c>
+      <c r="F1700" t="n">
+        <v>2036.699951171875</v>
+      </c>
+      <c r="G1700" t="n">
+        <v>1194092</v>
+      </c>
+      <c r="H1700" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1700" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1700" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1700" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1700" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ICICIGI.NS.xlsx
+++ b/stock_historical_data/1d/ICICIGI.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1700"/>
+  <dimension ref="A1:R1705"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7974,7 +7974,7 @@
         <v>1</v>
       </c>
       <c r="R134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -10550,7 +10550,7 @@
         <v>2</v>
       </c>
       <c r="R180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181">
@@ -11334,7 +11334,7 @@
         <v>2</v>
       </c>
       <c r="R194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195">
@@ -13854,7 +13854,7 @@
         <v>1</v>
       </c>
       <c r="R239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -15254,7 +15254,7 @@
         <v>1</v>
       </c>
       <c r="R264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -17270,7 +17270,7 @@
         <v>1</v>
       </c>
       <c r="R300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
@@ -17886,7 +17886,7 @@
         <v>0</v>
       </c>
       <c r="R311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
@@ -18390,7 +18390,7 @@
         <v>1</v>
       </c>
       <c r="R320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="R410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
@@ -25782,7 +25782,7 @@
         <v>0</v>
       </c>
       <c r="R452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453">
@@ -27350,7 +27350,7 @@
         <v>0</v>
       </c>
       <c r="R480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481">
@@ -28190,7 +28190,7 @@
         <v>1</v>
       </c>
       <c r="R495" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496">
@@ -28470,7 +28470,7 @@
         <v>2</v>
       </c>
       <c r="R500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501">
@@ -29814,7 +29814,7 @@
         <v>2</v>
       </c>
       <c r="R524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525">
@@ -33510,7 +33510,7 @@
         <v>0</v>
       </c>
       <c r="R590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591">
@@ -33734,7 +33734,7 @@
         <v>0</v>
       </c>
       <c r="R594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595">
@@ -40622,7 +40622,7 @@
         <v>2</v>
       </c>
       <c r="R717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718">
@@ -42022,7 +42022,7 @@
         <v>2</v>
       </c>
       <c r="R742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="743">
@@ -46446,7 +46446,7 @@
         <v>2</v>
       </c>
       <c r="R821" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="822">
@@ -47398,7 +47398,7 @@
         <v>1</v>
       </c>
       <c r="R838" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="839">
@@ -48070,7 +48070,7 @@
         <v>2</v>
       </c>
       <c r="R850" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="851">
@@ -48798,7 +48798,7 @@
         <v>0</v>
       </c>
       <c r="R863" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864">
@@ -49918,7 +49918,7 @@
         <v>0</v>
       </c>
       <c r="R883" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884">
@@ -55518,7 +55518,7 @@
         <v>2</v>
       </c>
       <c r="R983" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="984">
@@ -56246,7 +56246,7 @@
         <v>2</v>
       </c>
       <c r="R996" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="997">
@@ -58318,7 +58318,7 @@
         <v>2</v>
       </c>
       <c r="R1033" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1034">
@@ -60446,7 +60446,7 @@
         <v>2</v>
       </c>
       <c r="R1071" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1072">
@@ -62574,7 +62574,7 @@
         <v>0</v>
       </c>
       <c r="R1109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1110">
@@ -64254,7 +64254,7 @@
         <v>2</v>
       </c>
       <c r="R1139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1140">
@@ -72150,7 +72150,7 @@
         <v>0</v>
       </c>
       <c r="R1280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1281">
@@ -73662,7 +73662,7 @@
         <v>0</v>
       </c>
       <c r="R1307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1308">
@@ -76910,7 +76910,7 @@
         <v>1</v>
       </c>
       <c r="R1365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1366">
@@ -78142,7 +78142,7 @@
         <v>0</v>
       </c>
       <c r="R1387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1388">
@@ -82286,7 +82286,7 @@
         <v>0</v>
       </c>
       <c r="R1461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1462">
@@ -83238,7 +83238,7 @@
         <v>1</v>
       </c>
       <c r="R1478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1479">
@@ -83350,7 +83350,7 @@
         <v>0</v>
       </c>
       <c r="R1480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1481">
@@ -84302,7 +84302,7 @@
         <v>1</v>
       </c>
       <c r="R1497" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1498">
@@ -86654,7 +86654,7 @@
         <v>2</v>
       </c>
       <c r="R1539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1540">
@@ -91638,7 +91638,7 @@
         <v>0</v>
       </c>
       <c r="R1628" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1629">
@@ -91750,7 +91750,7 @@
         <v>0</v>
       </c>
       <c r="R1630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1631">
@@ -92310,7 +92310,7 @@
         <v>0</v>
       </c>
       <c r="R1640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1641">
@@ -95501,7 +95501,9 @@
       <c r="Q1697" t="n">
         <v>0</v>
       </c>
-      <c r="R1697" t="inlineStr"/>
+      <c r="R1697" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1698">
       <c r="A1698" s="2" t="n">
@@ -95555,7 +95557,9 @@
       <c r="Q1698" t="n">
         <v>0</v>
       </c>
-      <c r="R1698" t="inlineStr"/>
+      <c r="R1698" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1699">
       <c r="A1699" s="2" t="n">
@@ -95609,7 +95613,9 @@
       <c r="Q1699" t="n">
         <v>0</v>
       </c>
-      <c r="R1699" t="inlineStr"/>
+      <c r="R1699" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1700">
       <c r="A1700" s="2" t="n">
@@ -95663,7 +95669,279 @@
       <c r="Q1700" t="n">
         <v>0</v>
       </c>
-      <c r="R1700" t="inlineStr"/>
+      <c r="R1700" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1701" t="n">
+        <v>2043.449951171875</v>
+      </c>
+      <c r="C1701" t="n">
+        <v>2050</v>
+      </c>
+      <c r="D1701" t="n">
+        <v>1993.050048828125</v>
+      </c>
+      <c r="E1701" t="n">
+        <v>2014.050048828125</v>
+      </c>
+      <c r="F1701" t="n">
+        <v>2014.050048828125</v>
+      </c>
+      <c r="G1701" t="n">
+        <v>570280</v>
+      </c>
+      <c r="H1701" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1701" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1701" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1701" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1701" t="inlineStr"/>
+    </row>
+    <row r="1702">
+      <c r="A1702" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B1702" t="n">
+        <v>2024.699951171875</v>
+      </c>
+      <c r="C1702" t="n">
+        <v>2086</v>
+      </c>
+      <c r="D1702" t="n">
+        <v>2012.099975585938</v>
+      </c>
+      <c r="E1702" t="n">
+        <v>2064.050048828125</v>
+      </c>
+      <c r="F1702" t="n">
+        <v>2064.050048828125</v>
+      </c>
+      <c r="G1702" t="n">
+        <v>1634070</v>
+      </c>
+      <c r="H1702" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1702" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1702" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1702" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1702" t="inlineStr"/>
+    </row>
+    <row r="1703">
+      <c r="A1703" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="B1703" t="n">
+        <v>2070</v>
+      </c>
+      <c r="C1703" t="n">
+        <v>2070.050048828125</v>
+      </c>
+      <c r="D1703" t="n">
+        <v>2046.650024414062</v>
+      </c>
+      <c r="E1703" t="n">
+        <v>2059.89990234375</v>
+      </c>
+      <c r="F1703" t="n">
+        <v>2059.89990234375</v>
+      </c>
+      <c r="G1703" t="n">
+        <v>624633</v>
+      </c>
+      <c r="H1703" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1703" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1703" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1703" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1703" t="inlineStr"/>
+    </row>
+    <row r="1704">
+      <c r="A1704" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="B1704" t="n">
+        <v>2060</v>
+      </c>
+      <c r="C1704" t="n">
+        <v>2091</v>
+      </c>
+      <c r="D1704" t="n">
+        <v>2049.75</v>
+      </c>
+      <c r="E1704" t="n">
+        <v>2083.199951171875</v>
+      </c>
+      <c r="F1704" t="n">
+        <v>2083.199951171875</v>
+      </c>
+      <c r="G1704" t="n">
+        <v>923088</v>
+      </c>
+      <c r="H1704" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1704" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1704" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1704" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1704" t="inlineStr"/>
+    </row>
+    <row r="1705">
+      <c r="A1705" s="2" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B1705" t="n">
+        <v>2089.449951171875</v>
+      </c>
+      <c r="C1705" t="n">
+        <v>2119.300048828125</v>
+      </c>
+      <c r="D1705" t="n">
+        <v>2085.10009765625</v>
+      </c>
+      <c r="E1705" t="n">
+        <v>2096.800048828125</v>
+      </c>
+      <c r="F1705" t="n">
+        <v>2096.800048828125</v>
+      </c>
+      <c r="G1705" t="n">
+        <v>703139</v>
+      </c>
+      <c r="H1705" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1705" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1705" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1705" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1705" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ICICIGI.NS.xlsx
+++ b/stock_historical_data/1d/ICICIGI.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1705"/>
+  <dimension ref="A1:R1710"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7974,7 +7974,7 @@
         <v>1</v>
       </c>
       <c r="R134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -10550,7 +10550,7 @@
         <v>2</v>
       </c>
       <c r="R180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -11334,7 +11334,7 @@
         <v>2</v>
       </c>
       <c r="R194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -13854,7 +13854,7 @@
         <v>1</v>
       </c>
       <c r="R239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -15254,7 +15254,7 @@
         <v>1</v>
       </c>
       <c r="R264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -17270,7 +17270,7 @@
         <v>1</v>
       </c>
       <c r="R300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
@@ -17886,7 +17886,7 @@
         <v>0</v>
       </c>
       <c r="R311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312">
@@ -18390,7 +18390,7 @@
         <v>1</v>
       </c>
       <c r="R320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="R410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411">
@@ -25782,7 +25782,7 @@
         <v>0</v>
       </c>
       <c r="R452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
@@ -27350,7 +27350,7 @@
         <v>0</v>
       </c>
       <c r="R480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481">
@@ -28190,7 +28190,7 @@
         <v>1</v>
       </c>
       <c r="R495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496">
@@ -28470,7 +28470,7 @@
         <v>2</v>
       </c>
       <c r="R500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501">
@@ -29814,7 +29814,7 @@
         <v>2</v>
       </c>
       <c r="R524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525">
@@ -33510,7 +33510,7 @@
         <v>0</v>
       </c>
       <c r="R590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591">
@@ -33734,7 +33734,7 @@
         <v>0</v>
       </c>
       <c r="R594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595">
@@ -40622,7 +40622,7 @@
         <v>2</v>
       </c>
       <c r="R717" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718">
@@ -42022,7 +42022,7 @@
         <v>2</v>
       </c>
       <c r="R742" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743">
@@ -46446,7 +46446,7 @@
         <v>2</v>
       </c>
       <c r="R821" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822">
@@ -47398,7 +47398,7 @@
         <v>1</v>
       </c>
       <c r="R838" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839">
@@ -48070,7 +48070,7 @@
         <v>2</v>
       </c>
       <c r="R850" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851">
@@ -48798,7 +48798,7 @@
         <v>0</v>
       </c>
       <c r="R863" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="864">
@@ -49918,7 +49918,7 @@
         <v>0</v>
       </c>
       <c r="R883" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="884">
@@ -55518,7 +55518,7 @@
         <v>2</v>
       </c>
       <c r="R983" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="984">
@@ -56246,7 +56246,7 @@
         <v>2</v>
       </c>
       <c r="R996" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997">
@@ -58318,7 +58318,7 @@
         <v>2</v>
       </c>
       <c r="R1033" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1034">
@@ -60446,7 +60446,7 @@
         <v>2</v>
       </c>
       <c r="R1071" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1072">
@@ -62574,7 +62574,7 @@
         <v>0</v>
       </c>
       <c r="R1109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1110">
@@ -64254,7 +64254,7 @@
         <v>2</v>
       </c>
       <c r="R1139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1140">
@@ -72150,7 +72150,7 @@
         <v>0</v>
       </c>
       <c r="R1280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1281">
@@ -73662,7 +73662,7 @@
         <v>0</v>
       </c>
       <c r="R1307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1308">
@@ -76910,7 +76910,7 @@
         <v>1</v>
       </c>
       <c r="R1365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1366">
@@ -78142,7 +78142,7 @@
         <v>0</v>
       </c>
       <c r="R1387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1388">
@@ -82286,7 +82286,7 @@
         <v>0</v>
       </c>
       <c r="R1461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1462">
@@ -83238,7 +83238,7 @@
         <v>1</v>
       </c>
       <c r="R1478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1479">
@@ -83350,7 +83350,7 @@
         <v>0</v>
       </c>
       <c r="R1480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1481">
@@ -84302,7 +84302,7 @@
         <v>1</v>
       </c>
       <c r="R1497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1498">
@@ -86654,7 +86654,7 @@
         <v>2</v>
       </c>
       <c r="R1539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1540">
@@ -91638,7 +91638,7 @@
         <v>0</v>
       </c>
       <c r="R1628" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1629">
@@ -91750,7 +91750,7 @@
         <v>0</v>
       </c>
       <c r="R1630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1631">
@@ -92310,7 +92310,7 @@
         <v>0</v>
       </c>
       <c r="R1640" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1641">
@@ -95725,7 +95725,9 @@
       <c r="Q1701" t="n">
         <v>0</v>
       </c>
-      <c r="R1701" t="inlineStr"/>
+      <c r="R1701" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1702">
       <c r="A1702" s="2" t="n">
@@ -95779,7 +95781,9 @@
       <c r="Q1702" t="n">
         <v>0</v>
       </c>
-      <c r="R1702" t="inlineStr"/>
+      <c r="R1702" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1703">
       <c r="A1703" s="2" t="n">
@@ -95833,7 +95837,9 @@
       <c r="Q1703" t="n">
         <v>0</v>
       </c>
-      <c r="R1703" t="inlineStr"/>
+      <c r="R1703" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1704">
       <c r="A1704" s="2" t="n">
@@ -95887,7 +95893,9 @@
       <c r="Q1704" t="n">
         <v>0</v>
       </c>
-      <c r="R1704" t="inlineStr"/>
+      <c r="R1704" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1705">
       <c r="A1705" s="2" t="n">
@@ -95941,7 +95949,279 @@
       <c r="Q1705" t="n">
         <v>0</v>
       </c>
-      <c r="R1705" t="inlineStr"/>
+      <c r="R1705" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1706">
+      <c r="A1706" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1706" t="n">
+        <v>2108</v>
+      </c>
+      <c r="C1706" t="n">
+        <v>2127.699951171875</v>
+      </c>
+      <c r="D1706" t="n">
+        <v>2080.199951171875</v>
+      </c>
+      <c r="E1706" t="n">
+        <v>2122.25</v>
+      </c>
+      <c r="F1706" t="n">
+        <v>2122.25</v>
+      </c>
+      <c r="G1706" t="n">
+        <v>995347</v>
+      </c>
+      <c r="H1706" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1706" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1706" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1706" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1706" t="inlineStr"/>
+    </row>
+    <row r="1707">
+      <c r="A1707" s="2" t="n">
+        <v>45531</v>
+      </c>
+      <c r="B1707" t="n">
+        <v>2124</v>
+      </c>
+      <c r="C1707" t="n">
+        <v>2160</v>
+      </c>
+      <c r="D1707" t="n">
+        <v>2101.5</v>
+      </c>
+      <c r="E1707" t="n">
+        <v>2153.35009765625</v>
+      </c>
+      <c r="F1707" t="n">
+        <v>2153.35009765625</v>
+      </c>
+      <c r="G1707" t="n">
+        <v>1057812</v>
+      </c>
+      <c r="H1707" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1707" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1707" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1707" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1707" t="inlineStr"/>
+    </row>
+    <row r="1708">
+      <c r="A1708" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="B1708" t="n">
+        <v>2163.949951171875</v>
+      </c>
+      <c r="C1708" t="n">
+        <v>2170.949951171875</v>
+      </c>
+      <c r="D1708" t="n">
+        <v>2133.25</v>
+      </c>
+      <c r="E1708" t="n">
+        <v>2141.89990234375</v>
+      </c>
+      <c r="F1708" t="n">
+        <v>2141.89990234375</v>
+      </c>
+      <c r="G1708" t="n">
+        <v>618057</v>
+      </c>
+      <c r="H1708" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1708" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1708" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1708" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1708" t="inlineStr"/>
+    </row>
+    <row r="1709">
+      <c r="A1709" s="2" t="n">
+        <v>45533</v>
+      </c>
+      <c r="B1709" t="n">
+        <v>2140</v>
+      </c>
+      <c r="C1709" t="n">
+        <v>2147.35009765625</v>
+      </c>
+      <c r="D1709" t="n">
+        <v>2111</v>
+      </c>
+      <c r="E1709" t="n">
+        <v>2138.35009765625</v>
+      </c>
+      <c r="F1709" t="n">
+        <v>2138.35009765625</v>
+      </c>
+      <c r="G1709" t="n">
+        <v>611596</v>
+      </c>
+      <c r="H1709" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1709" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1709" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1709" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1709" t="inlineStr"/>
+    </row>
+    <row r="1710">
+      <c r="A1710" s="2" t="n">
+        <v>45534</v>
+      </c>
+      <c r="B1710" t="n">
+        <v>2149.39990234375</v>
+      </c>
+      <c r="C1710" t="n">
+        <v>2183</v>
+      </c>
+      <c r="D1710" t="n">
+        <v>2127.10009765625</v>
+      </c>
+      <c r="E1710" t="n">
+        <v>2141.75</v>
+      </c>
+      <c r="F1710" t="n">
+        <v>2141.75</v>
+      </c>
+      <c r="G1710" t="n">
+        <v>2815352</v>
+      </c>
+      <c r="H1710" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1710" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1710" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1710" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1710" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ICICIGI.NS.xlsx
+++ b/stock_historical_data/1d/ICICIGI.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1710"/>
+  <dimension ref="A1:R1715"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96005,7 +96005,9 @@
       <c r="Q1706" t="n">
         <v>0</v>
       </c>
-      <c r="R1706" t="inlineStr"/>
+      <c r="R1706" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1707">
       <c r="A1707" s="2" t="n">
@@ -96059,7 +96061,9 @@
       <c r="Q1707" t="n">
         <v>0</v>
       </c>
-      <c r="R1707" t="inlineStr"/>
+      <c r="R1707" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1708">
       <c r="A1708" s="2" t="n">
@@ -96113,7 +96117,9 @@
       <c r="Q1708" t="n">
         <v>0</v>
       </c>
-      <c r="R1708" t="inlineStr"/>
+      <c r="R1708" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1709">
       <c r="A1709" s="2" t="n">
@@ -96167,7 +96173,9 @@
       <c r="Q1709" t="n">
         <v>0</v>
       </c>
-      <c r="R1709" t="inlineStr"/>
+      <c r="R1709" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1710">
       <c r="A1710" s="2" t="n">
@@ -96221,7 +96229,279 @@
       <c r="Q1710" t="n">
         <v>0</v>
       </c>
-      <c r="R1710" t="inlineStr"/>
+      <c r="R1710" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="A1711" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1711" t="n">
+        <v>2142</v>
+      </c>
+      <c r="C1711" t="n">
+        <v>2207.699951171875</v>
+      </c>
+      <c r="D1711" t="n">
+        <v>2142</v>
+      </c>
+      <c r="E1711" t="n">
+        <v>2185.64990234375</v>
+      </c>
+      <c r="F1711" t="n">
+        <v>2185.64990234375</v>
+      </c>
+      <c r="G1711" t="n">
+        <v>746937</v>
+      </c>
+      <c r="H1711" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1711" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1711" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1711" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1711" t="inlineStr"/>
+    </row>
+    <row r="1712">
+      <c r="A1712" s="2" t="n">
+        <v>45538</v>
+      </c>
+      <c r="B1712" t="n">
+        <v>2194.800048828125</v>
+      </c>
+      <c r="C1712" t="n">
+        <v>2216.60009765625</v>
+      </c>
+      <c r="D1712" t="n">
+        <v>2148.25</v>
+      </c>
+      <c r="E1712" t="n">
+        <v>2208.10009765625</v>
+      </c>
+      <c r="F1712" t="n">
+        <v>2208.10009765625</v>
+      </c>
+      <c r="G1712" t="n">
+        <v>798222</v>
+      </c>
+      <c r="H1712" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1712" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1712" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1712" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1712" t="inlineStr"/>
+    </row>
+    <row r="1713">
+      <c r="A1713" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="B1713" t="n">
+        <v>2202.64990234375</v>
+      </c>
+      <c r="C1713" t="n">
+        <v>2263</v>
+      </c>
+      <c r="D1713" t="n">
+        <v>2190.050048828125</v>
+      </c>
+      <c r="E1713" t="n">
+        <v>2250.699951171875</v>
+      </c>
+      <c r="F1713" t="n">
+        <v>2250.699951171875</v>
+      </c>
+      <c r="G1713" t="n">
+        <v>1189741</v>
+      </c>
+      <c r="H1713" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1713" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1713" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1713" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1713" t="inlineStr"/>
+    </row>
+    <row r="1714">
+      <c r="A1714" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="B1714" t="n">
+        <v>2255</v>
+      </c>
+      <c r="C1714" t="n">
+        <v>2284</v>
+      </c>
+      <c r="D1714" t="n">
+        <v>2244.449951171875</v>
+      </c>
+      <c r="E1714" t="n">
+        <v>2255.449951171875</v>
+      </c>
+      <c r="F1714" t="n">
+        <v>2255.449951171875</v>
+      </c>
+      <c r="G1714" t="n">
+        <v>1041552</v>
+      </c>
+      <c r="H1714" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1714" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1714" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1714" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1714" t="inlineStr"/>
+    </row>
+    <row r="1715">
+      <c r="A1715" s="2" t="n">
+        <v>45541</v>
+      </c>
+      <c r="B1715" t="n">
+        <v>2259</v>
+      </c>
+      <c r="C1715" t="n">
+        <v>2285</v>
+      </c>
+      <c r="D1715" t="n">
+        <v>2247.449951171875</v>
+      </c>
+      <c r="E1715" t="n">
+        <v>2261.699951171875</v>
+      </c>
+      <c r="F1715" t="n">
+        <v>2261.699951171875</v>
+      </c>
+      <c r="G1715" t="n">
+        <v>827756</v>
+      </c>
+      <c r="H1715" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1715" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1715" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1715" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1715" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ICICIGI.NS.xlsx
+++ b/stock_historical_data/1d/ICICIGI.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1715"/>
+  <dimension ref="A1:R1720"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96285,7 +96285,9 @@
       <c r="Q1711" t="n">
         <v>0</v>
       </c>
-      <c r="R1711" t="inlineStr"/>
+      <c r="R1711" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1712">
       <c r="A1712" s="2" t="n">
@@ -96339,7 +96341,9 @@
       <c r="Q1712" t="n">
         <v>0</v>
       </c>
-      <c r="R1712" t="inlineStr"/>
+      <c r="R1712" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1713">
       <c r="A1713" s="2" t="n">
@@ -96393,7 +96397,9 @@
       <c r="Q1713" t="n">
         <v>0</v>
       </c>
-      <c r="R1713" t="inlineStr"/>
+      <c r="R1713" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1714">
       <c r="A1714" s="2" t="n">
@@ -96447,7 +96453,9 @@
       <c r="Q1714" t="n">
         <v>0</v>
       </c>
-      <c r="R1714" t="inlineStr"/>
+      <c r="R1714" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1715">
       <c r="A1715" s="2" t="n">
@@ -96501,7 +96509,279 @@
       <c r="Q1715" t="n">
         <v>0</v>
       </c>
-      <c r="R1715" t="inlineStr"/>
+      <c r="R1715" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1716" t="n">
+        <v>2261.550048828125</v>
+      </c>
+      <c r="C1716" t="n">
+        <v>2273.449951171875</v>
+      </c>
+      <c r="D1716" t="n">
+        <v>2182</v>
+      </c>
+      <c r="E1716" t="n">
+        <v>2232.39990234375</v>
+      </c>
+      <c r="F1716" t="n">
+        <v>2232.39990234375</v>
+      </c>
+      <c r="G1716" t="n">
+        <v>604737</v>
+      </c>
+      <c r="H1716" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1716" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1716" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1716" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1716" t="inlineStr"/>
+    </row>
+    <row r="1717">
+      <c r="A1717" s="2" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B1717" t="n">
+        <v>2228.60009765625</v>
+      </c>
+      <c r="C1717" t="n">
+        <v>2243.449951171875</v>
+      </c>
+      <c r="D1717" t="n">
+        <v>2145.39990234375</v>
+      </c>
+      <c r="E1717" t="n">
+        <v>2161.10009765625</v>
+      </c>
+      <c r="F1717" t="n">
+        <v>2161.10009765625</v>
+      </c>
+      <c r="G1717" t="n">
+        <v>1525808</v>
+      </c>
+      <c r="H1717" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1717" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1717" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1717" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1717" t="inlineStr"/>
+    </row>
+    <row r="1718">
+      <c r="A1718" s="2" t="n">
+        <v>45546</v>
+      </c>
+      <c r="B1718" t="n">
+        <v>2171.60009765625</v>
+      </c>
+      <c r="C1718" t="n">
+        <v>2179.75</v>
+      </c>
+      <c r="D1718" t="n">
+        <v>2125.85009765625</v>
+      </c>
+      <c r="E1718" t="n">
+        <v>2129.949951171875</v>
+      </c>
+      <c r="F1718" t="n">
+        <v>2129.949951171875</v>
+      </c>
+      <c r="G1718" t="n">
+        <v>492325</v>
+      </c>
+      <c r="H1718" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1718" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1718" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1718" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1718" t="inlineStr"/>
+    </row>
+    <row r="1719">
+      <c r="A1719" s="2" t="n">
+        <v>45547</v>
+      </c>
+      <c r="B1719" t="n">
+        <v>2141.949951171875</v>
+      </c>
+      <c r="C1719" t="n">
+        <v>2157</v>
+      </c>
+      <c r="D1719" t="n">
+        <v>2112</v>
+      </c>
+      <c r="E1719" t="n">
+        <v>2122.449951171875</v>
+      </c>
+      <c r="F1719" t="n">
+        <v>2122.449951171875</v>
+      </c>
+      <c r="G1719" t="n">
+        <v>766593</v>
+      </c>
+      <c r="H1719" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1719" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1719" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1719" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1719" t="inlineStr"/>
+    </row>
+    <row r="1720">
+      <c r="A1720" s="2" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B1720" t="n">
+        <v>2124.89990234375</v>
+      </c>
+      <c r="C1720" t="n">
+        <v>2141.300048828125</v>
+      </c>
+      <c r="D1720" t="n">
+        <v>2105.050048828125</v>
+      </c>
+      <c r="E1720" t="n">
+        <v>2109.25</v>
+      </c>
+      <c r="F1720" t="n">
+        <v>2109.25</v>
+      </c>
+      <c r="G1720" t="n">
+        <v>341671</v>
+      </c>
+      <c r="H1720" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1720" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1720" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1720" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1720" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ICICIGI.NS.xlsx
+++ b/stock_historical_data/1d/ICICIGI.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1720"/>
+  <dimension ref="A1:R1725"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96501,7 +96501,7 @@
         <v>36</v>
       </c>
       <c r="O1715" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1715" t="n">
         <v>0</v>
@@ -96565,7 +96565,9 @@
       <c r="Q1716" t="n">
         <v>0</v>
       </c>
-      <c r="R1716" t="inlineStr"/>
+      <c r="R1716" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1717">
       <c r="A1717" s="2" t="n">
@@ -96619,7 +96621,9 @@
       <c r="Q1717" t="n">
         <v>0</v>
       </c>
-      <c r="R1717" t="inlineStr"/>
+      <c r="R1717" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1718">
       <c r="A1718" s="2" t="n">
@@ -96673,7 +96677,9 @@
       <c r="Q1718" t="n">
         <v>0</v>
       </c>
-      <c r="R1718" t="inlineStr"/>
+      <c r="R1718" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1719">
       <c r="A1719" s="2" t="n">
@@ -96727,7 +96733,9 @@
       <c r="Q1719" t="n">
         <v>0</v>
       </c>
-      <c r="R1719" t="inlineStr"/>
+      <c r="R1719" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1720">
       <c r="A1720" s="2" t="n">
@@ -96781,7 +96789,279 @@
       <c r="Q1720" t="n">
         <v>0</v>
       </c>
-      <c r="R1720" t="inlineStr"/>
+      <c r="R1720" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1721">
+      <c r="A1721" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1721" t="n">
+        <v>2114</v>
+      </c>
+      <c r="C1721" t="n">
+        <v>2116.050048828125</v>
+      </c>
+      <c r="D1721" t="n">
+        <v>2087</v>
+      </c>
+      <c r="E1721" t="n">
+        <v>2094.89990234375</v>
+      </c>
+      <c r="F1721" t="n">
+        <v>2094.89990234375</v>
+      </c>
+      <c r="G1721" t="n">
+        <v>294160</v>
+      </c>
+      <c r="H1721" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1721" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1721" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1721" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1721" t="inlineStr"/>
+    </row>
+    <row r="1722">
+      <c r="A1722" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="B1722" t="n">
+        <v>2094.89990234375</v>
+      </c>
+      <c r="C1722" t="n">
+        <v>2113.300048828125</v>
+      </c>
+      <c r="D1722" t="n">
+        <v>2076.5</v>
+      </c>
+      <c r="E1722" t="n">
+        <v>2103</v>
+      </c>
+      <c r="F1722" t="n">
+        <v>2103</v>
+      </c>
+      <c r="G1722" t="n">
+        <v>542676</v>
+      </c>
+      <c r="H1722" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1722" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1722" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1722" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1722" t="inlineStr"/>
+    </row>
+    <row r="1723">
+      <c r="A1723" s="2" t="n">
+        <v>45553</v>
+      </c>
+      <c r="B1723" t="n">
+        <v>2107</v>
+      </c>
+      <c r="C1723" t="n">
+        <v>2146.949951171875</v>
+      </c>
+      <c r="D1723" t="n">
+        <v>2090.75</v>
+      </c>
+      <c r="E1723" t="n">
+        <v>2140.449951171875</v>
+      </c>
+      <c r="F1723" t="n">
+        <v>2140.449951171875</v>
+      </c>
+      <c r="G1723" t="n">
+        <v>602154</v>
+      </c>
+      <c r="H1723" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1723" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1723" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1723" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1723" t="inlineStr"/>
+    </row>
+    <row r="1724">
+      <c r="A1724" s="2" t="n">
+        <v>45554</v>
+      </c>
+      <c r="B1724" t="n">
+        <v>2150</v>
+      </c>
+      <c r="C1724" t="n">
+        <v>2220</v>
+      </c>
+      <c r="D1724" t="n">
+        <v>2148.050048828125</v>
+      </c>
+      <c r="E1724" t="n">
+        <v>2200</v>
+      </c>
+      <c r="F1724" t="n">
+        <v>2200</v>
+      </c>
+      <c r="G1724" t="n">
+        <v>2268811</v>
+      </c>
+      <c r="H1724" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1724" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1724" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1724" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1724" t="inlineStr"/>
+    </row>
+    <row r="1725">
+      <c r="A1725" s="2" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B1725" t="n">
+        <v>2220</v>
+      </c>
+      <c r="C1725" t="n">
+        <v>2254.5</v>
+      </c>
+      <c r="D1725" t="n">
+        <v>2202.64990234375</v>
+      </c>
+      <c r="E1725" t="n">
+        <v>2234.050048828125</v>
+      </c>
+      <c r="F1725" t="n">
+        <v>2234.050048828125</v>
+      </c>
+      <c r="G1725" t="n">
+        <v>1451896</v>
+      </c>
+      <c r="H1725" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1725" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1725" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1725" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1725" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ICICIGI.NS.xlsx
+++ b/stock_historical_data/1d/ICICIGI.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1725"/>
+  <dimension ref="A1:R1730"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96845,7 +96845,9 @@
       <c r="Q1721" t="n">
         <v>0</v>
       </c>
-      <c r="R1721" t="inlineStr"/>
+      <c r="R1721" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1722">
       <c r="A1722" s="2" t="n">
@@ -96899,7 +96901,9 @@
       <c r="Q1722" t="n">
         <v>0</v>
       </c>
-      <c r="R1722" t="inlineStr"/>
+      <c r="R1722" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1723">
       <c r="A1723" s="2" t="n">
@@ -96953,7 +96957,9 @@
       <c r="Q1723" t="n">
         <v>0</v>
       </c>
-      <c r="R1723" t="inlineStr"/>
+      <c r="R1723" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1724">
       <c r="A1724" s="2" t="n">
@@ -97007,7 +97013,9 @@
       <c r="Q1724" t="n">
         <v>0</v>
       </c>
-      <c r="R1724" t="inlineStr"/>
+      <c r="R1724" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1725">
       <c r="A1725" s="2" t="n">
@@ -97061,7 +97069,279 @@
       <c r="Q1725" t="n">
         <v>0</v>
       </c>
-      <c r="R1725" t="inlineStr"/>
+      <c r="R1725" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1726">
+      <c r="A1726" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1726" t="n">
+        <v>2240</v>
+      </c>
+      <c r="C1726" t="n">
+        <v>2301.89990234375</v>
+      </c>
+      <c r="D1726" t="n">
+        <v>2235.60009765625</v>
+      </c>
+      <c r="E1726" t="n">
+        <v>2275.199951171875</v>
+      </c>
+      <c r="F1726" t="n">
+        <v>2275.199951171875</v>
+      </c>
+      <c r="G1726" t="n">
+        <v>458636</v>
+      </c>
+      <c r="H1726" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1726" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1726" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1726" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1726" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1726" t="inlineStr"/>
+    </row>
+    <row r="1727">
+      <c r="A1727" s="2" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B1727" t="n">
+        <v>2270</v>
+      </c>
+      <c r="C1727" t="n">
+        <v>2291.85009765625</v>
+      </c>
+      <c r="D1727" t="n">
+        <v>2216</v>
+      </c>
+      <c r="E1727" t="n">
+        <v>2226</v>
+      </c>
+      <c r="F1727" t="n">
+        <v>2226</v>
+      </c>
+      <c r="G1727" t="n">
+        <v>714781</v>
+      </c>
+      <c r="H1727" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1727" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1727" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1727" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1727" t="inlineStr"/>
+    </row>
+    <row r="1728">
+      <c r="A1728" s="2" t="n">
+        <v>45560</v>
+      </c>
+      <c r="B1728" t="n">
+        <v>2230.949951171875</v>
+      </c>
+      <c r="C1728" t="n">
+        <v>2274.75</v>
+      </c>
+      <c r="D1728" t="n">
+        <v>2215.800048828125</v>
+      </c>
+      <c r="E1728" t="n">
+        <v>2268</v>
+      </c>
+      <c r="F1728" t="n">
+        <v>2268</v>
+      </c>
+      <c r="G1728" t="n">
+        <v>383695</v>
+      </c>
+      <c r="H1728" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1728" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1728" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1728" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1728" t="inlineStr"/>
+    </row>
+    <row r="1729">
+      <c r="A1729" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="B1729" t="n">
+        <v>2274.949951171875</v>
+      </c>
+      <c r="C1729" t="n">
+        <v>2278.800048828125</v>
+      </c>
+      <c r="D1729" t="n">
+        <v>2237.14990234375</v>
+      </c>
+      <c r="E1729" t="n">
+        <v>2257.5</v>
+      </c>
+      <c r="F1729" t="n">
+        <v>2257.5</v>
+      </c>
+      <c r="G1729" t="n">
+        <v>385086</v>
+      </c>
+      <c r="H1729" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1729" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1729" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1729" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1729" t="inlineStr"/>
+    </row>
+    <row r="1730">
+      <c r="A1730" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B1730" t="n">
+        <v>2257.5</v>
+      </c>
+      <c r="C1730" t="n">
+        <v>2259</v>
+      </c>
+      <c r="D1730" t="n">
+        <v>2200.14990234375</v>
+      </c>
+      <c r="E1730" t="n">
+        <v>2238.14990234375</v>
+      </c>
+      <c r="F1730" t="n">
+        <v>2238.14990234375</v>
+      </c>
+      <c r="G1730" t="n">
+        <v>1640821</v>
+      </c>
+      <c r="H1730" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1730" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1730" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1730" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1730" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ICICIGI.NS.xlsx
+++ b/stock_historical_data/1d/ICICIGI.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1730"/>
+  <dimension ref="A1:R1732"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7974,7 +7974,7 @@
         <v>1</v>
       </c>
       <c r="R134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -10550,7 +10550,7 @@
         <v>2</v>
       </c>
       <c r="R180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181">
@@ -11334,7 +11334,7 @@
         <v>2</v>
       </c>
       <c r="R194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195">
@@ -13854,7 +13854,7 @@
         <v>1</v>
       </c>
       <c r="R239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -15254,7 +15254,7 @@
         <v>1</v>
       </c>
       <c r="R264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -17270,7 +17270,7 @@
         <v>1</v>
       </c>
       <c r="R300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
@@ -17886,7 +17886,7 @@
         <v>0</v>
       </c>
       <c r="R311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
@@ -18390,7 +18390,7 @@
         <v>1</v>
       </c>
       <c r="R320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="R410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
@@ -25782,7 +25782,7 @@
         <v>0</v>
       </c>
       <c r="R452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453">
@@ -27350,7 +27350,7 @@
         <v>0</v>
       </c>
       <c r="R480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481">
@@ -28190,7 +28190,7 @@
         <v>1</v>
       </c>
       <c r="R495" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496">
@@ -28470,7 +28470,7 @@
         <v>2</v>
       </c>
       <c r="R500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501">
@@ -29814,7 +29814,7 @@
         <v>2</v>
       </c>
       <c r="R524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525">
@@ -33510,7 +33510,7 @@
         <v>0</v>
       </c>
       <c r="R590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591">
@@ -33734,7 +33734,7 @@
         <v>0</v>
       </c>
       <c r="R594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595">
@@ -40622,7 +40622,7 @@
         <v>2</v>
       </c>
       <c r="R717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718">
@@ -42022,7 +42022,7 @@
         <v>2</v>
       </c>
       <c r="R742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="743">
@@ -46446,7 +46446,7 @@
         <v>2</v>
       </c>
       <c r="R821" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="822">
@@ -47398,7 +47398,7 @@
         <v>1</v>
       </c>
       <c r="R838" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="839">
@@ -48070,7 +48070,7 @@
         <v>2</v>
       </c>
       <c r="R850" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="851">
@@ -48798,7 +48798,7 @@
         <v>0</v>
       </c>
       <c r="R863" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864">
@@ -49918,7 +49918,7 @@
         <v>0</v>
       </c>
       <c r="R883" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884">
@@ -55518,7 +55518,7 @@
         <v>2</v>
       </c>
       <c r="R983" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="984">
@@ -56246,7 +56246,7 @@
         <v>2</v>
       </c>
       <c r="R996" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="997">
@@ -58318,7 +58318,7 @@
         <v>2</v>
       </c>
       <c r="R1033" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1034">
@@ -60446,7 +60446,7 @@
         <v>2</v>
       </c>
       <c r="R1071" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1072">
@@ -62574,7 +62574,7 @@
         <v>0</v>
       </c>
       <c r="R1109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1110">
@@ -64254,7 +64254,7 @@
         <v>2</v>
       </c>
       <c r="R1139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1140">
@@ -72150,7 +72150,7 @@
         <v>0</v>
       </c>
       <c r="R1280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1281">
@@ -73662,7 +73662,7 @@
         <v>0</v>
       </c>
       <c r="R1307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1308">
@@ -76910,7 +76910,7 @@
         <v>1</v>
       </c>
       <c r="R1365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1366">
@@ -78142,7 +78142,7 @@
         <v>0</v>
       </c>
       <c r="R1387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1388">
@@ -82286,7 +82286,7 @@
         <v>0</v>
       </c>
       <c r="R1461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1462">
@@ -83238,7 +83238,7 @@
         <v>1</v>
       </c>
       <c r="R1478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1479">
@@ -83350,7 +83350,7 @@
         <v>0</v>
       </c>
       <c r="R1480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1481">
@@ -84302,7 +84302,7 @@
         <v>1</v>
       </c>
       <c r="R1497" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1498">
@@ -86654,7 +86654,7 @@
         <v>2</v>
       </c>
       <c r="R1539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1540">
@@ -91638,7 +91638,7 @@
         <v>0</v>
       </c>
       <c r="R1628" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1629">
@@ -91750,7 +91750,7 @@
         <v>0</v>
       </c>
       <c r="R1630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1631">
@@ -92310,7 +92310,7 @@
         <v>0</v>
       </c>
       <c r="R1640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1641">
@@ -96893,7 +96893,7 @@
         <v>38</v>
       </c>
       <c r="O1722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1722" t="n">
         <v>0</v>
@@ -97125,7 +97125,9 @@
       <c r="Q1726" t="n">
         <v>0</v>
       </c>
-      <c r="R1726" t="inlineStr"/>
+      <c r="R1726" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1727">
       <c r="A1727" s="2" t="n">
@@ -97179,7 +97181,9 @@
       <c r="Q1727" t="n">
         <v>0</v>
       </c>
-      <c r="R1727" t="inlineStr"/>
+      <c r="R1727" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1728">
       <c r="A1728" s="2" t="n">
@@ -97233,7 +97237,9 @@
       <c r="Q1728" t="n">
         <v>0</v>
       </c>
-      <c r="R1728" t="inlineStr"/>
+      <c r="R1728" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1729">
       <c r="A1729" s="2" t="n">
@@ -97287,7 +97293,9 @@
       <c r="Q1729" t="n">
         <v>0</v>
       </c>
-      <c r="R1729" t="inlineStr"/>
+      <c r="R1729" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1730">
       <c r="A1730" s="2" t="n">
@@ -97341,7 +97349,117 @@
       <c r="Q1730" t="n">
         <v>0</v>
       </c>
-      <c r="R1730" t="inlineStr"/>
+      <c r="R1730" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1731">
+      <c r="A1731" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1731" t="n">
+        <v>2236.5</v>
+      </c>
+      <c r="C1731" t="n">
+        <v>2239.800048828125</v>
+      </c>
+      <c r="D1731" t="n">
+        <v>2157.5</v>
+      </c>
+      <c r="E1731" t="n">
+        <v>2174.39990234375</v>
+      </c>
+      <c r="F1731" t="n">
+        <v>2174.39990234375</v>
+      </c>
+      <c r="G1731" t="n">
+        <v>1521922</v>
+      </c>
+      <c r="H1731" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1731" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1731" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1731" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1731" t="inlineStr"/>
+    </row>
+    <row r="1732">
+      <c r="A1732" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B1732" t="n">
+        <v>2168.050048828125</v>
+      </c>
+      <c r="C1732" t="n">
+        <v>2214.25</v>
+      </c>
+      <c r="D1732" t="n">
+        <v>2145</v>
+      </c>
+      <c r="E1732" t="n">
+        <v>2153.89990234375</v>
+      </c>
+      <c r="F1732" t="n">
+        <v>2153.89990234375</v>
+      </c>
+      <c r="G1732" t="n">
+        <v>381603</v>
+      </c>
+      <c r="H1732" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1732" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1732" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1732" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1732" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ICICIGI.NS.xlsx
+++ b/stock_historical_data/1d/ICICIGI.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1732"/>
+  <dimension ref="A1:R1736"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7974,7 +7974,7 @@
         <v>1</v>
       </c>
       <c r="R134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -10550,7 +10550,7 @@
         <v>2</v>
       </c>
       <c r="R180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -11334,7 +11334,7 @@
         <v>2</v>
       </c>
       <c r="R194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -13854,7 +13854,7 @@
         <v>1</v>
       </c>
       <c r="R239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -15254,7 +15254,7 @@
         <v>1</v>
       </c>
       <c r="R264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -17270,7 +17270,7 @@
         <v>1</v>
       </c>
       <c r="R300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
@@ -17886,7 +17886,7 @@
         <v>0</v>
       </c>
       <c r="R311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312">
@@ -18390,7 +18390,7 @@
         <v>1</v>
       </c>
       <c r="R320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="R410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411">
@@ -25782,7 +25782,7 @@
         <v>0</v>
       </c>
       <c r="R452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
@@ -27350,7 +27350,7 @@
         <v>0</v>
       </c>
       <c r="R480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481">
@@ -28190,7 +28190,7 @@
         <v>1</v>
       </c>
       <c r="R495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496">
@@ -28470,7 +28470,7 @@
         <v>2</v>
       </c>
       <c r="R500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501">
@@ -29814,7 +29814,7 @@
         <v>2</v>
       </c>
       <c r="R524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525">
@@ -33510,7 +33510,7 @@
         <v>0</v>
       </c>
       <c r="R590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591">
@@ -33734,7 +33734,7 @@
         <v>0</v>
       </c>
       <c r="R594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595">
@@ -40622,7 +40622,7 @@
         <v>2</v>
       </c>
       <c r="R717" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718">
@@ -42022,7 +42022,7 @@
         <v>2</v>
       </c>
       <c r="R742" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743">
@@ -46446,7 +46446,7 @@
         <v>2</v>
       </c>
       <c r="R821" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822">
@@ -47398,7 +47398,7 @@
         <v>1</v>
       </c>
       <c r="R838" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839">
@@ -48070,7 +48070,7 @@
         <v>2</v>
       </c>
       <c r="R850" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851">
@@ -48798,7 +48798,7 @@
         <v>0</v>
       </c>
       <c r="R863" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="864">
@@ -49918,7 +49918,7 @@
         <v>0</v>
       </c>
       <c r="R883" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="884">
@@ -55518,7 +55518,7 @@
         <v>2</v>
       </c>
       <c r="R983" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="984">
@@ -56246,7 +56246,7 @@
         <v>2</v>
       </c>
       <c r="R996" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997">
@@ -58318,7 +58318,7 @@
         <v>2</v>
       </c>
       <c r="R1033" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1034">
@@ -60446,7 +60446,7 @@
         <v>2</v>
       </c>
       <c r="R1071" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1072">
@@ -62574,7 +62574,7 @@
         <v>0</v>
       </c>
       <c r="R1109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1110">
@@ -64254,7 +64254,7 @@
         <v>2</v>
       </c>
       <c r="R1139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1140">
@@ -72150,7 +72150,7 @@
         <v>0</v>
       </c>
       <c r="R1280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1281">
@@ -73662,7 +73662,7 @@
         <v>0</v>
       </c>
       <c r="R1307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1308">
@@ -76910,7 +76910,7 @@
         <v>1</v>
       </c>
       <c r="R1365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1366">
@@ -78142,7 +78142,7 @@
         <v>0</v>
       </c>
       <c r="R1387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1388">
@@ -82286,7 +82286,7 @@
         <v>0</v>
       </c>
       <c r="R1461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1462">
@@ -83238,7 +83238,7 @@
         <v>1</v>
       </c>
       <c r="R1478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1479">
@@ -83350,7 +83350,7 @@
         <v>0</v>
       </c>
       <c r="R1480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1481">
@@ -84302,7 +84302,7 @@
         <v>1</v>
       </c>
       <c r="R1497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1498">
@@ -86654,7 +86654,7 @@
         <v>2</v>
       </c>
       <c r="R1539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1540">
@@ -91638,7 +91638,7 @@
         <v>0</v>
       </c>
       <c r="R1628" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1629">
@@ -91750,7 +91750,7 @@
         <v>0</v>
       </c>
       <c r="R1630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1631">
@@ -92310,7 +92310,7 @@
         <v>0</v>
       </c>
       <c r="R1640" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1641">
@@ -97117,7 +97117,7 @@
         <v>39</v>
       </c>
       <c r="O1726" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1726" t="n">
         <v>2</v>
@@ -97126,7 +97126,7 @@
         <v>0</v>
       </c>
       <c r="R1726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1727">
@@ -97405,7 +97405,9 @@
       <c r="Q1731" t="n">
         <v>0</v>
       </c>
-      <c r="R1731" t="inlineStr"/>
+      <c r="R1731" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1732">
       <c r="A1732" s="2" t="n">
@@ -97459,7 +97461,225 @@
       <c r="Q1732" t="n">
         <v>0</v>
       </c>
-      <c r="R1732" t="inlineStr"/>
+      <c r="R1732" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1733">
+      <c r="A1733" s="2" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B1733" t="n">
+        <v>2139.85009765625</v>
+      </c>
+      <c r="C1733" t="n">
+        <v>2173.949951171875</v>
+      </c>
+      <c r="D1733" t="n">
+        <v>2129.550048828125</v>
+      </c>
+      <c r="E1733" t="n">
+        <v>2135.199951171875</v>
+      </c>
+      <c r="F1733" t="n">
+        <v>2135.199951171875</v>
+      </c>
+      <c r="G1733" t="n">
+        <v>444205</v>
+      </c>
+      <c r="H1733" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1733" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1733" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1733" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1733" t="inlineStr"/>
+    </row>
+    <row r="1734">
+      <c r="A1734" s="2" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B1734" t="n">
+        <v>2140</v>
+      </c>
+      <c r="C1734" t="n">
+        <v>2159.949951171875</v>
+      </c>
+      <c r="D1734" t="n">
+        <v>2116.89990234375</v>
+      </c>
+      <c r="E1734" t="n">
+        <v>2126.60009765625</v>
+      </c>
+      <c r="F1734" t="n">
+        <v>2126.60009765625</v>
+      </c>
+      <c r="G1734" t="n">
+        <v>470353</v>
+      </c>
+      <c r="H1734" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1734" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1734" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1734" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1734" t="inlineStr"/>
+    </row>
+    <row r="1735">
+      <c r="A1735" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1735" t="n">
+        <v>2150</v>
+      </c>
+      <c r="C1735" t="n">
+        <v>2165.800048828125</v>
+      </c>
+      <c r="D1735" t="n">
+        <v>2080.5</v>
+      </c>
+      <c r="E1735" t="n">
+        <v>2100.800048828125</v>
+      </c>
+      <c r="F1735" t="n">
+        <v>2100.800048828125</v>
+      </c>
+      <c r="G1735" t="n">
+        <v>448450</v>
+      </c>
+      <c r="H1735" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1735" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1735" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1735" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1735" t="inlineStr"/>
+    </row>
+    <row r="1736">
+      <c r="A1736" s="2" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B1736" t="n">
+        <v>2100.800048828125</v>
+      </c>
+      <c r="C1736" t="n">
+        <v>2118.39990234375</v>
+      </c>
+      <c r="D1736" t="n">
+        <v>2060</v>
+      </c>
+      <c r="E1736" t="n">
+        <v>2100.14990234375</v>
+      </c>
+      <c r="F1736" t="n">
+        <v>2100.14990234375</v>
+      </c>
+      <c r="G1736" t="n">
+        <v>1041455</v>
+      </c>
+      <c r="H1736" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1736" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1736" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1736" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1736" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ICICIGI.NS.xlsx
+++ b/stock_historical_data/1d/ICICIGI.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1736"/>
+  <dimension ref="A1:R1744"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97517,7 +97517,9 @@
       <c r="Q1733" t="n">
         <v>0</v>
       </c>
-      <c r="R1733" t="inlineStr"/>
+      <c r="R1733" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1734">
       <c r="A1734" s="2" t="n">
@@ -97571,7 +97573,9 @@
       <c r="Q1734" t="n">
         <v>0</v>
       </c>
-      <c r="R1734" t="inlineStr"/>
+      <c r="R1734" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1735">
       <c r="A1735" s="2" t="n">
@@ -97625,7 +97629,9 @@
       <c r="Q1735" t="n">
         <v>0</v>
       </c>
-      <c r="R1735" t="inlineStr"/>
+      <c r="R1735" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1736">
       <c r="A1736" s="2" t="n">
@@ -97679,7 +97685,441 @@
       <c r="Q1736" t="n">
         <v>0</v>
       </c>
-      <c r="R1736" t="inlineStr"/>
+      <c r="R1736" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1737">
+      <c r="A1737" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B1737" t="n">
+        <v>2114</v>
+      </c>
+      <c r="C1737" t="n">
+        <v>2118.75</v>
+      </c>
+      <c r="D1737" t="n">
+        <v>2070</v>
+      </c>
+      <c r="E1737" t="n">
+        <v>2083.75</v>
+      </c>
+      <c r="F1737" t="n">
+        <v>2083.75</v>
+      </c>
+      <c r="G1737" t="n">
+        <v>411516</v>
+      </c>
+      <c r="H1737" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1737" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1737" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1737" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1737" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1737" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1737" t="inlineStr"/>
+    </row>
+    <row r="1738">
+      <c r="A1738" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="B1738" t="n">
+        <v>2098</v>
+      </c>
+      <c r="C1738" t="n">
+        <v>2115</v>
+      </c>
+      <c r="D1738" t="n">
+        <v>2075.199951171875</v>
+      </c>
+      <c r="E1738" t="n">
+        <v>2080</v>
+      </c>
+      <c r="F1738" t="n">
+        <v>2080</v>
+      </c>
+      <c r="G1738" t="n">
+        <v>236249</v>
+      </c>
+      <c r="H1738" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1738" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1738" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1738" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1738" t="inlineStr"/>
+    </row>
+    <row r="1739">
+      <c r="A1739" s="2" t="n">
+        <v>45576</v>
+      </c>
+      <c r="B1739" t="n">
+        <v>2094</v>
+      </c>
+      <c r="C1739" t="n">
+        <v>2094</v>
+      </c>
+      <c r="D1739" t="n">
+        <v>2061.10009765625</v>
+      </c>
+      <c r="E1739" t="n">
+        <v>2067.35009765625</v>
+      </c>
+      <c r="F1739" t="n">
+        <v>2067.35009765625</v>
+      </c>
+      <c r="G1739" t="n">
+        <v>449392</v>
+      </c>
+      <c r="H1739" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1739" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1739" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1739" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1739" t="inlineStr"/>
+    </row>
+    <row r="1740">
+      <c r="A1740" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1740" t="n">
+        <v>2065</v>
+      </c>
+      <c r="C1740" t="n">
+        <v>2096.5</v>
+      </c>
+      <c r="D1740" t="n">
+        <v>2050.5</v>
+      </c>
+      <c r="E1740" t="n">
+        <v>2089.35009765625</v>
+      </c>
+      <c r="F1740" t="n">
+        <v>2089.35009765625</v>
+      </c>
+      <c r="G1740" t="n">
+        <v>325426</v>
+      </c>
+      <c r="H1740" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1740" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1740" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1740" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1740" t="inlineStr"/>
+    </row>
+    <row r="1741">
+      <c r="A1741" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="B1741" t="n">
+        <v>2099</v>
+      </c>
+      <c r="C1741" t="n">
+        <v>2134.25</v>
+      </c>
+      <c r="D1741" t="n">
+        <v>2083.050048828125</v>
+      </c>
+      <c r="E1741" t="n">
+        <v>2103.199951171875</v>
+      </c>
+      <c r="F1741" t="n">
+        <v>2103.199951171875</v>
+      </c>
+      <c r="G1741" t="n">
+        <v>719252</v>
+      </c>
+      <c r="H1741" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1741" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1741" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1741" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1741" t="inlineStr"/>
+    </row>
+    <row r="1742">
+      <c r="A1742" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="B1742" t="n">
+        <v>2111.85009765625</v>
+      </c>
+      <c r="C1742" t="n">
+        <v>2145</v>
+      </c>
+      <c r="D1742" t="n">
+        <v>2064.449951171875</v>
+      </c>
+      <c r="E1742" t="n">
+        <v>2075.60009765625</v>
+      </c>
+      <c r="F1742" t="n">
+        <v>2075.60009765625</v>
+      </c>
+      <c r="G1742" t="n">
+        <v>585502</v>
+      </c>
+      <c r="H1742" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1742" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1742" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1742" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1742" t="inlineStr"/>
+    </row>
+    <row r="1743">
+      <c r="A1743" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="B1743" t="n">
+        <v>2084.5</v>
+      </c>
+      <c r="C1743" t="n">
+        <v>2084.5</v>
+      </c>
+      <c r="D1743" t="n">
+        <v>2032.800048828125</v>
+      </c>
+      <c r="E1743" t="n">
+        <v>2040.449951171875</v>
+      </c>
+      <c r="F1743" t="n">
+        <v>2040.449951171875</v>
+      </c>
+      <c r="G1743" t="n">
+        <v>665718</v>
+      </c>
+      <c r="H1743" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1743" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1743" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1743" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1743" t="inlineStr"/>
+    </row>
+    <row r="1744">
+      <c r="A1744" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="B1744" t="n">
+        <v>2043</v>
+      </c>
+      <c r="C1744" t="n">
+        <v>2043</v>
+      </c>
+      <c r="D1744" t="n">
+        <v>1988.550048828125</v>
+      </c>
+      <c r="E1744" t="n">
+        <v>2020.949951171875</v>
+      </c>
+      <c r="F1744" t="n">
+        <v>2020.949951171875</v>
+      </c>
+      <c r="G1744" t="n">
+        <v>508422</v>
+      </c>
+      <c r="H1744" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1744" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1744" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1744" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1744" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ICICIGI.NS.xlsx
+++ b/stock_historical_data/1d/ICICIGI.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1744"/>
+  <dimension ref="A1:R1749"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97741,7 +97741,9 @@
       <c r="Q1737" t="n">
         <v>2</v>
       </c>
-      <c r="R1737" t="inlineStr"/>
+      <c r="R1737" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1738">
       <c r="A1738" s="2" t="n">
@@ -97795,7 +97797,9 @@
       <c r="Q1738" t="n">
         <v>0</v>
       </c>
-      <c r="R1738" t="inlineStr"/>
+      <c r="R1738" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1739">
       <c r="A1739" s="2" t="n">
@@ -97849,7 +97853,9 @@
       <c r="Q1739" t="n">
         <v>0</v>
       </c>
-      <c r="R1739" t="inlineStr"/>
+      <c r="R1739" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1740">
       <c r="A1740" s="2" t="n">
@@ -97903,7 +97909,9 @@
       <c r="Q1740" t="n">
         <v>0</v>
       </c>
-      <c r="R1740" t="inlineStr"/>
+      <c r="R1740" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1741">
       <c r="A1741" s="2" t="n">
@@ -97957,7 +97965,9 @@
       <c r="Q1741" t="n">
         <v>0</v>
       </c>
-      <c r="R1741" t="inlineStr"/>
+      <c r="R1741" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1742">
       <c r="A1742" s="2" t="n">
@@ -98011,7 +98021,9 @@
       <c r="Q1742" t="n">
         <v>0</v>
       </c>
-      <c r="R1742" t="inlineStr"/>
+      <c r="R1742" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1743">
       <c r="A1743" s="2" t="n">
@@ -98065,7 +98077,9 @@
       <c r="Q1743" t="n">
         <v>0</v>
       </c>
-      <c r="R1743" t="inlineStr"/>
+      <c r="R1743" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1744">
       <c r="A1744" s="2" t="n">
@@ -98119,7 +98133,279 @@
       <c r="Q1744" t="n">
         <v>0</v>
       </c>
-      <c r="R1744" t="inlineStr"/>
+      <c r="R1744" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1745">
+      <c r="A1745" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1745" t="n">
+        <v>2034</v>
+      </c>
+      <c r="C1745" t="n">
+        <v>2094.35009765625</v>
+      </c>
+      <c r="D1745" t="n">
+        <v>2008.050048828125</v>
+      </c>
+      <c r="E1745" t="n">
+        <v>2024.349975585938</v>
+      </c>
+      <c r="F1745" t="n">
+        <v>2024.349975585938</v>
+      </c>
+      <c r="G1745" t="n">
+        <v>1651160</v>
+      </c>
+      <c r="H1745" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1745" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1745" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1745" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1745" t="inlineStr"/>
+    </row>
+    <row r="1746">
+      <c r="A1746" s="2" t="n">
+        <v>45587</v>
+      </c>
+      <c r="B1746" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C1746" t="n">
+        <v>2043.550048828125</v>
+      </c>
+      <c r="D1746" t="n">
+        <v>1975.900024414062</v>
+      </c>
+      <c r="E1746" t="n">
+        <v>1986.25</v>
+      </c>
+      <c r="F1746" t="n">
+        <v>1986.25</v>
+      </c>
+      <c r="G1746" t="n">
+        <v>1256193</v>
+      </c>
+      <c r="H1746" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1746" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1746" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1746" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1746" t="inlineStr"/>
+    </row>
+    <row r="1747">
+      <c r="A1747" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B1747" t="n">
+        <v>1986.650024414062</v>
+      </c>
+      <c r="C1747" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D1747" t="n">
+        <v>1950.599975585938</v>
+      </c>
+      <c r="E1747" t="n">
+        <v>1958.949951171875</v>
+      </c>
+      <c r="F1747" t="n">
+        <v>1958.949951171875</v>
+      </c>
+      <c r="G1747" t="n">
+        <v>456048</v>
+      </c>
+      <c r="H1747" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1747" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1747" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1747" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1747" t="inlineStr"/>
+    </row>
+    <row r="1748">
+      <c r="A1748" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="B1748" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C1748" t="n">
+        <v>1980</v>
+      </c>
+      <c r="D1748" t="n">
+        <v>1946.849975585938</v>
+      </c>
+      <c r="E1748" t="n">
+        <v>1955.75</v>
+      </c>
+      <c r="F1748" t="n">
+        <v>1955.75</v>
+      </c>
+      <c r="G1748" t="n">
+        <v>708334</v>
+      </c>
+      <c r="H1748" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1748" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1748" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1748" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1748" t="inlineStr"/>
+    </row>
+    <row r="1749">
+      <c r="A1749" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="B1749" t="n">
+        <v>1955.800048828125</v>
+      </c>
+      <c r="C1749" t="n">
+        <v>1957.25</v>
+      </c>
+      <c r="D1749" t="n">
+        <v>1916.949951171875</v>
+      </c>
+      <c r="E1749" t="n">
+        <v>1929.150024414062</v>
+      </c>
+      <c r="F1749" t="n">
+        <v>1929.150024414062</v>
+      </c>
+      <c r="G1749" t="n">
+        <v>468681</v>
+      </c>
+      <c r="H1749" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1749" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1749" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1749" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1749" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ICICIGI.NS.xlsx
+++ b/stock_historical_data/1d/ICICIGI.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1749"/>
+  <dimension ref="A1:R1753"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98189,7 +98189,9 @@
       <c r="Q1745" t="n">
         <v>0</v>
       </c>
-      <c r="R1745" t="inlineStr"/>
+      <c r="R1745" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1746">
       <c r="A1746" s="2" t="n">
@@ -98243,7 +98245,9 @@
       <c r="Q1746" t="n">
         <v>0</v>
       </c>
-      <c r="R1746" t="inlineStr"/>
+      <c r="R1746" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1747">
       <c r="A1747" s="2" t="n">
@@ -98297,7 +98301,9 @@
       <c r="Q1747" t="n">
         <v>0</v>
       </c>
-      <c r="R1747" t="inlineStr"/>
+      <c r="R1747" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1748">
       <c r="A1748" s="2" t="n">
@@ -98351,7 +98357,9 @@
       <c r="Q1748" t="n">
         <v>0</v>
       </c>
-      <c r="R1748" t="inlineStr"/>
+      <c r="R1748" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1749">
       <c r="A1749" s="2" t="n">
@@ -98405,7 +98413,225 @@
       <c r="Q1749" t="n">
         <v>0</v>
       </c>
-      <c r="R1749" t="inlineStr"/>
+      <c r="R1749" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1750">
+      <c r="A1750" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1750" t="n">
+        <v>1911.599975585938</v>
+      </c>
+      <c r="C1750" t="n">
+        <v>1928.699951171875</v>
+      </c>
+      <c r="D1750" t="n">
+        <v>1878</v>
+      </c>
+      <c r="E1750" t="n">
+        <v>1896</v>
+      </c>
+      <c r="F1750" t="n">
+        <v>1896</v>
+      </c>
+      <c r="G1750" t="n">
+        <v>691000</v>
+      </c>
+      <c r="H1750" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1750" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1750" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1750" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1750" t="inlineStr"/>
+    </row>
+    <row r="1751">
+      <c r="A1751" s="2" t="n">
+        <v>45594</v>
+      </c>
+      <c r="B1751" t="n">
+        <v>1899.800048828125</v>
+      </c>
+      <c r="C1751" t="n">
+        <v>1925</v>
+      </c>
+      <c r="D1751" t="n">
+        <v>1870.599975585938</v>
+      </c>
+      <c r="E1751" t="n">
+        <v>1913.300048828125</v>
+      </c>
+      <c r="F1751" t="n">
+        <v>1913.300048828125</v>
+      </c>
+      <c r="G1751" t="n">
+        <v>1098306</v>
+      </c>
+      <c r="H1751" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1751" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1751" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1751" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1751" t="inlineStr"/>
+    </row>
+    <row r="1752">
+      <c r="A1752" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B1752" t="n">
+        <v>1913.349975585938</v>
+      </c>
+      <c r="C1752" t="n">
+        <v>1956.199951171875</v>
+      </c>
+      <c r="D1752" t="n">
+        <v>1901.900024414062</v>
+      </c>
+      <c r="E1752" t="n">
+        <v>1927.900024414062</v>
+      </c>
+      <c r="F1752" t="n">
+        <v>1927.900024414062</v>
+      </c>
+      <c r="G1752" t="n">
+        <v>911491</v>
+      </c>
+      <c r="H1752" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1752" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1752" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1752" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1752" t="inlineStr"/>
+    </row>
+    <row r="1753">
+      <c r="A1753" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B1753" t="n">
+        <v>1934.800048828125</v>
+      </c>
+      <c r="C1753" t="n">
+        <v>1954.099975585938</v>
+      </c>
+      <c r="D1753" t="n">
+        <v>1880.050048828125</v>
+      </c>
+      <c r="E1753" t="n">
+        <v>1917.349975585938</v>
+      </c>
+      <c r="F1753" t="n">
+        <v>1917.349975585938</v>
+      </c>
+      <c r="G1753" t="n">
+        <v>992543</v>
+      </c>
+      <c r="H1753" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1753" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1753" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1753" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1753" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ICICIGI.NS.xlsx
+++ b/stock_historical_data/1d/ICICIGI.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1753"/>
+  <dimension ref="A1:R1759"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98469,7 +98469,9 @@
       <c r="Q1750" t="n">
         <v>0</v>
       </c>
-      <c r="R1750" t="inlineStr"/>
+      <c r="R1750" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1751">
       <c r="A1751" s="2" t="n">
@@ -98523,7 +98525,9 @@
       <c r="Q1751" t="n">
         <v>0</v>
       </c>
-      <c r="R1751" t="inlineStr"/>
+      <c r="R1751" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1752">
       <c r="A1752" s="2" t="n">
@@ -98577,7 +98581,9 @@
       <c r="Q1752" t="n">
         <v>0</v>
       </c>
-      <c r="R1752" t="inlineStr"/>
+      <c r="R1752" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1753">
       <c r="A1753" s="2" t="n">
@@ -98631,7 +98637,333 @@
       <c r="Q1753" t="n">
         <v>0</v>
       </c>
-      <c r="R1753" t="inlineStr"/>
+      <c r="R1753" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1754">
+      <c r="A1754" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B1754" t="n">
+        <v>1934</v>
+      </c>
+      <c r="C1754" t="n">
+        <v>1946</v>
+      </c>
+      <c r="D1754" t="n">
+        <v>1905.449951171875</v>
+      </c>
+      <c r="E1754" t="n">
+        <v>1916.300048828125</v>
+      </c>
+      <c r="F1754" t="n">
+        <v>1916.300048828125</v>
+      </c>
+      <c r="G1754" t="n">
+        <v>35076</v>
+      </c>
+      <c r="H1754" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1754" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1754" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1754" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1754" t="inlineStr"/>
+    </row>
+    <row r="1755">
+      <c r="A1755" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1755" t="n">
+        <v>1908.5</v>
+      </c>
+      <c r="C1755" t="n">
+        <v>1912</v>
+      </c>
+      <c r="D1755" t="n">
+        <v>1858.050048828125</v>
+      </c>
+      <c r="E1755" t="n">
+        <v>1870.849975585938</v>
+      </c>
+      <c r="F1755" t="n">
+        <v>1870.849975585938</v>
+      </c>
+      <c r="G1755" t="n">
+        <v>674361</v>
+      </c>
+      <c r="H1755" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1755" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1755" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1755" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1755" t="inlineStr"/>
+    </row>
+    <row r="1756">
+      <c r="A1756" s="2" t="n">
+        <v>45601</v>
+      </c>
+      <c r="B1756" t="n">
+        <v>1870</v>
+      </c>
+      <c r="C1756" t="n">
+        <v>1941</v>
+      </c>
+      <c r="D1756" t="n">
+        <v>1843.849975585938</v>
+      </c>
+      <c r="E1756" t="n">
+        <v>1916.050048828125</v>
+      </c>
+      <c r="F1756" t="n">
+        <v>1916.050048828125</v>
+      </c>
+      <c r="G1756" t="n">
+        <v>902841</v>
+      </c>
+      <c r="H1756" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1756" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1756" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1756" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1756" t="inlineStr"/>
+    </row>
+    <row r="1757">
+      <c r="A1757" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="B1757" t="n">
+        <v>1930</v>
+      </c>
+      <c r="C1757" t="n">
+        <v>1950.800048828125</v>
+      </c>
+      <c r="D1757" t="n">
+        <v>1918.599975585938</v>
+      </c>
+      <c r="E1757" t="n">
+        <v>1933.699951171875</v>
+      </c>
+      <c r="F1757" t="n">
+        <v>1933.699951171875</v>
+      </c>
+      <c r="G1757" t="n">
+        <v>374768</v>
+      </c>
+      <c r="H1757" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1757" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1757" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1757" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1757" t="inlineStr"/>
+    </row>
+    <row r="1758">
+      <c r="A1758" s="2" t="n">
+        <v>45603</v>
+      </c>
+      <c r="B1758" t="n">
+        <v>1943.900024414062</v>
+      </c>
+      <c r="C1758" t="n">
+        <v>2003.75</v>
+      </c>
+      <c r="D1758" t="n">
+        <v>1905.150024414062</v>
+      </c>
+      <c r="E1758" t="n">
+        <v>1916.5</v>
+      </c>
+      <c r="F1758" t="n">
+        <v>1916.5</v>
+      </c>
+      <c r="G1758" t="n">
+        <v>238211</v>
+      </c>
+      <c r="H1758" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1758" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1758" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1758" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1758" t="inlineStr"/>
+    </row>
+    <row r="1759">
+      <c r="A1759" s="2" t="n">
+        <v>45604</v>
+      </c>
+      <c r="B1759" t="n">
+        <v>1913.150024414062</v>
+      </c>
+      <c r="C1759" t="n">
+        <v>1923.5</v>
+      </c>
+      <c r="D1759" t="n">
+        <v>1897.949951171875</v>
+      </c>
+      <c r="E1759" t="n">
+        <v>1910.150024414062</v>
+      </c>
+      <c r="F1759" t="n">
+        <v>1910.150024414062</v>
+      </c>
+      <c r="G1759" t="n">
+        <v>243145</v>
+      </c>
+      <c r="H1759" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1759" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1759" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1759" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1759" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ICICIGI.NS.xlsx
+++ b/stock_historical_data/1d/ICICIGI.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1759"/>
+  <dimension ref="A1:R1763"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98693,7 +98693,9 @@
       <c r="Q1754" t="n">
         <v>0</v>
       </c>
-      <c r="R1754" t="inlineStr"/>
+      <c r="R1754" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1755">
       <c r="A1755" s="2" t="n">
@@ -98747,7 +98749,9 @@
       <c r="Q1755" t="n">
         <v>0</v>
       </c>
-      <c r="R1755" t="inlineStr"/>
+      <c r="R1755" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1756">
       <c r="A1756" s="2" t="n">
@@ -98801,7 +98805,9 @@
       <c r="Q1756" t="n">
         <v>0</v>
       </c>
-      <c r="R1756" t="inlineStr"/>
+      <c r="R1756" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1757">
       <c r="A1757" s="2" t="n">
@@ -98855,7 +98861,9 @@
       <c r="Q1757" t="n">
         <v>0</v>
       </c>
-      <c r="R1757" t="inlineStr"/>
+      <c r="R1757" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1758">
       <c r="A1758" s="2" t="n">
@@ -98909,7 +98917,9 @@
       <c r="Q1758" t="n">
         <v>0</v>
       </c>
-      <c r="R1758" t="inlineStr"/>
+      <c r="R1758" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1759">
       <c r="A1759" s="2" t="n">
@@ -98963,7 +98973,225 @@
       <c r="Q1759" t="n">
         <v>0</v>
       </c>
-      <c r="R1759" t="inlineStr"/>
+      <c r="R1759" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1760">
+      <c r="A1760" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1760" t="n">
+        <v>1893</v>
+      </c>
+      <c r="C1760" t="n">
+        <v>1932</v>
+      </c>
+      <c r="D1760" t="n">
+        <v>1881</v>
+      </c>
+      <c r="E1760" t="n">
+        <v>1921.099975585938</v>
+      </c>
+      <c r="F1760" t="n">
+        <v>1921.099975585938</v>
+      </c>
+      <c r="G1760" t="n">
+        <v>259334</v>
+      </c>
+      <c r="H1760" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1760" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1760" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1760" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1760" t="inlineStr"/>
+    </row>
+    <row r="1761">
+      <c r="A1761" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B1761" t="n">
+        <v>1931.199951171875</v>
+      </c>
+      <c r="C1761" t="n">
+        <v>1933.099975585938</v>
+      </c>
+      <c r="D1761" t="n">
+        <v>1875</v>
+      </c>
+      <c r="E1761" t="n">
+        <v>1892.25</v>
+      </c>
+      <c r="F1761" t="n">
+        <v>1892.25</v>
+      </c>
+      <c r="G1761" t="n">
+        <v>859956</v>
+      </c>
+      <c r="H1761" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1761" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1761" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1761" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1761" t="inlineStr"/>
+    </row>
+    <row r="1762">
+      <c r="A1762" s="2" t="n">
+        <v>45609</v>
+      </c>
+      <c r="B1762" t="n">
+        <v>1876</v>
+      </c>
+      <c r="C1762" t="n">
+        <v>1892.5</v>
+      </c>
+      <c r="D1762" t="n">
+        <v>1864</v>
+      </c>
+      <c r="E1762" t="n">
+        <v>1868.199951171875</v>
+      </c>
+      <c r="F1762" t="n">
+        <v>1868.199951171875</v>
+      </c>
+      <c r="G1762" t="n">
+        <v>257151</v>
+      </c>
+      <c r="H1762" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1762" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1762" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1762" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1762" t="inlineStr"/>
+    </row>
+    <row r="1763">
+      <c r="A1763" s="2" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B1763" t="n">
+        <v>1850.050048828125</v>
+      </c>
+      <c r="C1763" t="n">
+        <v>1894.349975585938</v>
+      </c>
+      <c r="D1763" t="n">
+        <v>1849.849975585938</v>
+      </c>
+      <c r="E1763" t="n">
+        <v>1863.400024414062</v>
+      </c>
+      <c r="F1763" t="n">
+        <v>1863.400024414062</v>
+      </c>
+      <c r="G1763" t="n">
+        <v>308495</v>
+      </c>
+      <c r="H1763" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1763" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1763" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1763" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1763" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ICICIGI.NS.xlsx
+++ b/stock_historical_data/1d/ICICIGI.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1763"/>
+  <dimension ref="A1:R1767"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99029,7 +99029,9 @@
       <c r="Q1760" t="n">
         <v>0</v>
       </c>
-      <c r="R1760" t="inlineStr"/>
+      <c r="R1760" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1761">
       <c r="A1761" s="2" t="n">
@@ -99083,7 +99085,9 @@
       <c r="Q1761" t="n">
         <v>0</v>
       </c>
-      <c r="R1761" t="inlineStr"/>
+      <c r="R1761" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1762">
       <c r="A1762" s="2" t="n">
@@ -99137,7 +99141,9 @@
       <c r="Q1762" t="n">
         <v>0</v>
       </c>
-      <c r="R1762" t="inlineStr"/>
+      <c r="R1762" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1763">
       <c r="A1763" s="2" t="n">
@@ -99191,7 +99197,225 @@
       <c r="Q1763" t="n">
         <v>0</v>
       </c>
-      <c r="R1763" t="inlineStr"/>
+      <c r="R1763" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1764">
+      <c r="A1764" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1764" t="n">
+        <v>1870.050048828125</v>
+      </c>
+      <c r="C1764" t="n">
+        <v>1873.199951171875</v>
+      </c>
+      <c r="D1764" t="n">
+        <v>1834.550048828125</v>
+      </c>
+      <c r="E1764" t="n">
+        <v>1839.449951171875</v>
+      </c>
+      <c r="F1764" t="n">
+        <v>1839.449951171875</v>
+      </c>
+      <c r="G1764" t="n">
+        <v>631045</v>
+      </c>
+      <c r="H1764" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1764" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1764" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1764" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1764" t="inlineStr"/>
+    </row>
+    <row r="1765">
+      <c r="A1765" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B1765" t="n">
+        <v>1843.900024414062</v>
+      </c>
+      <c r="C1765" t="n">
+        <v>1848.900024414062</v>
+      </c>
+      <c r="D1765" t="n">
+        <v>1789.050048828125</v>
+      </c>
+      <c r="E1765" t="n">
+        <v>1840.900024414062</v>
+      </c>
+      <c r="F1765" t="n">
+        <v>1840.900024414062</v>
+      </c>
+      <c r="G1765" t="n">
+        <v>1196590</v>
+      </c>
+      <c r="H1765" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1765" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1765" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1765" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1765" t="inlineStr"/>
+    </row>
+    <row r="1766">
+      <c r="A1766" s="2" t="n">
+        <v>45617</v>
+      </c>
+      <c r="B1766" t="n">
+        <v>1840.949951171875</v>
+      </c>
+      <c r="C1766" t="n">
+        <v>1846.699951171875</v>
+      </c>
+      <c r="D1766" t="n">
+        <v>1801</v>
+      </c>
+      <c r="E1766" t="n">
+        <v>1804.699951171875</v>
+      </c>
+      <c r="F1766" t="n">
+        <v>1804.699951171875</v>
+      </c>
+      <c r="G1766" t="n">
+        <v>425435</v>
+      </c>
+      <c r="H1766" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1766" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1766" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1766" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1766" t="inlineStr"/>
+    </row>
+    <row r="1767">
+      <c r="A1767" s="2" t="n">
+        <v>45618</v>
+      </c>
+      <c r="B1767" t="n">
+        <v>1804.699951171875</v>
+      </c>
+      <c r="C1767" t="n">
+        <v>1967.099975585938</v>
+      </c>
+      <c r="D1767" t="n">
+        <v>1800</v>
+      </c>
+      <c r="E1767" t="n">
+        <v>1837.5</v>
+      </c>
+      <c r="F1767" t="n">
+        <v>1837.5</v>
+      </c>
+      <c r="G1767" t="n">
+        <v>502554</v>
+      </c>
+      <c r="H1767" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1767" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1767" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1767" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1767" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ICICIGI.NS.xlsx
+++ b/stock_historical_data/1d/ICICIGI.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1767"/>
+  <dimension ref="A1:R1768"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98909,7 +98909,7 @@
         <v>45</v>
       </c>
       <c r="O1758" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1758" t="n">
         <v>0</v>
@@ -99253,7 +99253,9 @@
       <c r="Q1764" t="n">
         <v>0</v>
       </c>
-      <c r="R1764" t="inlineStr"/>
+      <c r="R1764" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1765">
       <c r="A1765" s="2" t="n">
@@ -99307,7 +99309,9 @@
       <c r="Q1765" t="n">
         <v>0</v>
       </c>
-      <c r="R1765" t="inlineStr"/>
+      <c r="R1765" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1766">
       <c r="A1766" s="2" t="n">
@@ -99361,7 +99365,9 @@
       <c r="Q1766" t="n">
         <v>0</v>
       </c>
-      <c r="R1766" t="inlineStr"/>
+      <c r="R1766" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1767">
       <c r="A1767" s="2" t="n">
@@ -99415,7 +99421,63 @@
       <c r="Q1767" t="n">
         <v>0</v>
       </c>
-      <c r="R1767" t="inlineStr"/>
+      <c r="R1767" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1768">
+      <c r="A1768" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1768" t="n">
+        <v>1851.949951171875</v>
+      </c>
+      <c r="C1768" t="n">
+        <v>1864.800048828125</v>
+      </c>
+      <c r="D1768" t="n">
+        <v>1826.150024414062</v>
+      </c>
+      <c r="E1768" t="n">
+        <v>1836.900024414062</v>
+      </c>
+      <c r="F1768" t="n">
+        <v>1836.900024414062</v>
+      </c>
+      <c r="G1768" t="n">
+        <v>1161029</v>
+      </c>
+      <c r="H1768" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1768" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1768" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1768" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1768" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ICICIGI.NS.xlsx
+++ b/stock_historical_data/1d/ICICIGI.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1768"/>
+  <dimension ref="A1:R1777"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99301,7 +99301,7 @@
         <v>47</v>
       </c>
       <c r="O1765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1765" t="n">
         <v>0</v>
@@ -99477,7 +99477,495 @@
       <c r="Q1768" t="n">
         <v>0</v>
       </c>
-      <c r="R1768" t="inlineStr"/>
+      <c r="R1768" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1769">
+      <c r="A1769" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B1769" t="n">
+        <v>1840</v>
+      </c>
+      <c r="C1769" t="n">
+        <v>1872.150024414062</v>
+      </c>
+      <c r="D1769" t="n">
+        <v>1834.75</v>
+      </c>
+      <c r="E1769" t="n">
+        <v>1854.449951171875</v>
+      </c>
+      <c r="F1769" t="n">
+        <v>1854.449951171875</v>
+      </c>
+      <c r="G1769" t="n">
+        <v>651862</v>
+      </c>
+      <c r="H1769" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1769" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1769" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1769" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1769" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1769" t="inlineStr"/>
+    </row>
+    <row r="1770">
+      <c r="A1770" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="B1770" t="n">
+        <v>1855</v>
+      </c>
+      <c r="C1770" t="n">
+        <v>1871.599975585938</v>
+      </c>
+      <c r="D1770" t="n">
+        <v>1832.099975585938</v>
+      </c>
+      <c r="E1770" t="n">
+        <v>1863.75</v>
+      </c>
+      <c r="F1770" t="n">
+        <v>1863.75</v>
+      </c>
+      <c r="G1770" t="n">
+        <v>290072</v>
+      </c>
+      <c r="H1770" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1770" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1770" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1770" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1770" t="inlineStr"/>
+    </row>
+    <row r="1771">
+      <c r="A1771" s="2" t="n">
+        <v>45624</v>
+      </c>
+      <c r="B1771" t="n">
+        <v>1871</v>
+      </c>
+      <c r="C1771" t="n">
+        <v>1888.800048828125</v>
+      </c>
+      <c r="D1771" t="n">
+        <v>1849.5</v>
+      </c>
+      <c r="E1771" t="n">
+        <v>1871.099975585938</v>
+      </c>
+      <c r="F1771" t="n">
+        <v>1871.099975585938</v>
+      </c>
+      <c r="G1771" t="n">
+        <v>548196</v>
+      </c>
+      <c r="H1771" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1771" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1771" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1771" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1771" t="inlineStr"/>
+    </row>
+    <row r="1772">
+      <c r="A1772" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B1772" t="n">
+        <v>1880</v>
+      </c>
+      <c r="C1772" t="n">
+        <v>1888.800048828125</v>
+      </c>
+      <c r="D1772" t="n">
+        <v>1846.050048828125</v>
+      </c>
+      <c r="E1772" t="n">
+        <v>1861.849975585938</v>
+      </c>
+      <c r="F1772" t="n">
+        <v>1861.849975585938</v>
+      </c>
+      <c r="G1772" t="n">
+        <v>519925</v>
+      </c>
+      <c r="H1772" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1772" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1772" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1772" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1772" t="inlineStr"/>
+    </row>
+    <row r="1773">
+      <c r="A1773" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1773" t="n">
+        <v>1869.75</v>
+      </c>
+      <c r="C1773" t="n">
+        <v>1889.849975585938</v>
+      </c>
+      <c r="D1773" t="n">
+        <v>1822.699951171875</v>
+      </c>
+      <c r="E1773" t="n">
+        <v>1834.099975585938</v>
+      </c>
+      <c r="F1773" t="n">
+        <v>1834.099975585938</v>
+      </c>
+      <c r="G1773" t="n">
+        <v>345387</v>
+      </c>
+      <c r="H1773" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1773" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1773" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1773" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1773" t="inlineStr"/>
+    </row>
+    <row r="1774">
+      <c r="A1774" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B1774" t="n">
+        <v>1850.099975585938</v>
+      </c>
+      <c r="C1774" t="n">
+        <v>1900</v>
+      </c>
+      <c r="D1774" t="n">
+        <v>1834.099975585938</v>
+      </c>
+      <c r="E1774" t="n">
+        <v>1896.349975585938</v>
+      </c>
+      <c r="F1774" t="n">
+        <v>1896.349975585938</v>
+      </c>
+      <c r="G1774" t="n">
+        <v>579822</v>
+      </c>
+      <c r="H1774" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1774" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1774" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1774" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1774" t="inlineStr"/>
+    </row>
+    <row r="1775">
+      <c r="A1775" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B1775" t="n">
+        <v>1896.349975585938</v>
+      </c>
+      <c r="C1775" t="n">
+        <v>1954.150024414062</v>
+      </c>
+      <c r="D1775" t="n">
+        <v>1882.849975585938</v>
+      </c>
+      <c r="E1775" t="n">
+        <v>1950.849975585938</v>
+      </c>
+      <c r="F1775" t="n">
+        <v>1950.849975585938</v>
+      </c>
+      <c r="G1775" t="n">
+        <v>1024603</v>
+      </c>
+      <c r="H1775" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1775" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1775" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1775" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1775" t="inlineStr"/>
+    </row>
+    <row r="1776">
+      <c r="A1776" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B1776" t="n">
+        <v>1950.800048828125</v>
+      </c>
+      <c r="C1776" t="n">
+        <v>1954.849975585938</v>
+      </c>
+      <c r="D1776" t="n">
+        <v>1921.349975585938</v>
+      </c>
+      <c r="E1776" t="n">
+        <v>1932.699951171875</v>
+      </c>
+      <c r="F1776" t="n">
+        <v>1932.699951171875</v>
+      </c>
+      <c r="G1776" t="n">
+        <v>569643</v>
+      </c>
+      <c r="H1776" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1776" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1776" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1776" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1776" t="inlineStr"/>
+    </row>
+    <row r="1777">
+      <c r="A1777" s="2" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B1777" t="n">
+        <v>1940</v>
+      </c>
+      <c r="C1777" t="n">
+        <v>1957.800048828125</v>
+      </c>
+      <c r="D1777" t="n">
+        <v>1930.599975585938</v>
+      </c>
+      <c r="E1777" t="n">
+        <v>1949.900024414062</v>
+      </c>
+      <c r="F1777" t="n">
+        <v>1949.900024414062</v>
+      </c>
+      <c r="G1777" t="n">
+        <v>696961</v>
+      </c>
+      <c r="H1777" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1777" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1777" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1777" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1777" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ICICIGI.NS.xlsx
+++ b/stock_historical_data/1d/ICICIGI.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1777"/>
+  <dimension ref="A1:R1787"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99533,7 +99533,9 @@
       <c r="Q1769" t="n">
         <v>0</v>
       </c>
-      <c r="R1769" t="inlineStr"/>
+      <c r="R1769" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1770">
       <c r="A1770" s="2" t="n">
@@ -99587,7 +99589,9 @@
       <c r="Q1770" t="n">
         <v>0</v>
       </c>
-      <c r="R1770" t="inlineStr"/>
+      <c r="R1770" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1771">
       <c r="A1771" s="2" t="n">
@@ -99641,7 +99645,9 @@
       <c r="Q1771" t="n">
         <v>0</v>
       </c>
-      <c r="R1771" t="inlineStr"/>
+      <c r="R1771" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1772">
       <c r="A1772" s="2" t="n">
@@ -99695,7 +99701,9 @@
       <c r="Q1772" t="n">
         <v>0</v>
       </c>
-      <c r="R1772" t="inlineStr"/>
+      <c r="R1772" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1773">
       <c r="A1773" s="2" t="n">
@@ -99749,7 +99757,9 @@
       <c r="Q1773" t="n">
         <v>0</v>
       </c>
-      <c r="R1773" t="inlineStr"/>
+      <c r="R1773" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1774">
       <c r="A1774" s="2" t="n">
@@ -99803,7 +99813,9 @@
       <c r="Q1774" t="n">
         <v>0</v>
       </c>
-      <c r="R1774" t="inlineStr"/>
+      <c r="R1774" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1775">
       <c r="A1775" s="2" t="n">
@@ -99857,7 +99869,9 @@
       <c r="Q1775" t="n">
         <v>0</v>
       </c>
-      <c r="R1775" t="inlineStr"/>
+      <c r="R1775" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1776">
       <c r="A1776" s="2" t="n">
@@ -99911,7 +99925,9 @@
       <c r="Q1776" t="n">
         <v>0</v>
       </c>
-      <c r="R1776" t="inlineStr"/>
+      <c r="R1776" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1777">
       <c r="A1777" s="2" t="n">
@@ -99965,7 +99981,529 @@
       <c r="Q1777" t="n">
         <v>0</v>
       </c>
-      <c r="R1777" t="inlineStr"/>
+      <c r="R1777" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1778">
+      <c r="A1778" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1778" t="n">
+        <v>1945</v>
+      </c>
+      <c r="C1778" t="n">
+        <v>1975</v>
+      </c>
+      <c r="D1778" t="n">
+        <v>1935.400024414062</v>
+      </c>
+      <c r="E1778" t="n">
+        <v>1962.199951171875</v>
+      </c>
+      <c r="F1778" t="inlineStr"/>
+      <c r="G1778" t="n">
+        <v>454299</v>
+      </c>
+      <c r="H1778" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1778" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1778" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1778" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1778" t="inlineStr"/>
+    </row>
+    <row r="1779">
+      <c r="A1779" s="2" t="n">
+        <v>45636</v>
+      </c>
+      <c r="B1779" t="n">
+        <v>1969</v>
+      </c>
+      <c r="C1779" t="n">
+        <v>1969</v>
+      </c>
+      <c r="D1779" t="n">
+        <v>1927.199951171875</v>
+      </c>
+      <c r="E1779" t="n">
+        <v>1945.800048828125</v>
+      </c>
+      <c r="F1779" t="inlineStr"/>
+      <c r="G1779" t="n">
+        <v>347391</v>
+      </c>
+      <c r="H1779" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1779" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1779" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1779" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1779" t="inlineStr"/>
+    </row>
+    <row r="1780">
+      <c r="A1780" s="2" t="n">
+        <v>45637</v>
+      </c>
+      <c r="B1780" t="n">
+        <v>1940</v>
+      </c>
+      <c r="C1780" t="n">
+        <v>1958.900024414062</v>
+      </c>
+      <c r="D1780" t="n">
+        <v>1930.550048828125</v>
+      </c>
+      <c r="E1780" t="n">
+        <v>1948.650024414062</v>
+      </c>
+      <c r="F1780" t="inlineStr"/>
+      <c r="G1780" t="n">
+        <v>299853</v>
+      </c>
+      <c r="H1780" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1780" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1780" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1780" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1780" t="inlineStr"/>
+    </row>
+    <row r="1781">
+      <c r="A1781" s="2" t="n">
+        <v>45638</v>
+      </c>
+      <c r="B1781" t="n">
+        <v>1948.900024414062</v>
+      </c>
+      <c r="C1781" t="n">
+        <v>1971.650024414062</v>
+      </c>
+      <c r="D1781" t="n">
+        <v>1934</v>
+      </c>
+      <c r="E1781" t="n">
+        <v>1961.349975585938</v>
+      </c>
+      <c r="F1781" t="inlineStr"/>
+      <c r="G1781" t="n">
+        <v>321119</v>
+      </c>
+      <c r="H1781" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1781" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1781" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1781" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1781" t="inlineStr"/>
+    </row>
+    <row r="1782">
+      <c r="A1782" s="2" t="n">
+        <v>45639</v>
+      </c>
+      <c r="B1782" t="n">
+        <v>1968</v>
+      </c>
+      <c r="C1782" t="n">
+        <v>1991.949951171875</v>
+      </c>
+      <c r="D1782" t="n">
+        <v>1947.349975585938</v>
+      </c>
+      <c r="E1782" t="n">
+        <v>1983.349975585938</v>
+      </c>
+      <c r="F1782" t="inlineStr"/>
+      <c r="G1782" t="n">
+        <v>467454</v>
+      </c>
+      <c r="H1782" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1782" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1782" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1782" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1782" t="inlineStr"/>
+    </row>
+    <row r="1783">
+      <c r="A1783" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1783" t="n">
+        <v>1989.199951171875</v>
+      </c>
+      <c r="C1783" t="n">
+        <v>1998.5</v>
+      </c>
+      <c r="D1783" t="n">
+        <v>1953.849975585938</v>
+      </c>
+      <c r="E1783" t="n">
+        <v>1963.800048828125</v>
+      </c>
+      <c r="F1783" t="inlineStr"/>
+      <c r="G1783" t="n">
+        <v>509005</v>
+      </c>
+      <c r="H1783" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1783" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1783" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1783" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1783" t="inlineStr"/>
+    </row>
+    <row r="1784">
+      <c r="A1784" s="2" t="n">
+        <v>45643</v>
+      </c>
+      <c r="B1784" t="n">
+        <v>1964</v>
+      </c>
+      <c r="C1784" t="n">
+        <v>1965</v>
+      </c>
+      <c r="D1784" t="n">
+        <v>1903</v>
+      </c>
+      <c r="E1784" t="n">
+        <v>1917.300048828125</v>
+      </c>
+      <c r="F1784" t="inlineStr"/>
+      <c r="G1784" t="n">
+        <v>298909</v>
+      </c>
+      <c r="H1784" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1784" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1784" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1784" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1784" t="inlineStr"/>
+    </row>
+    <row r="1785">
+      <c r="A1785" s="2" t="n">
+        <v>45644</v>
+      </c>
+      <c r="B1785" t="n">
+        <v>1915</v>
+      </c>
+      <c r="C1785" t="n">
+        <v>1932</v>
+      </c>
+      <c r="D1785" t="n">
+        <v>1868</v>
+      </c>
+      <c r="E1785" t="n">
+        <v>1874.699951171875</v>
+      </c>
+      <c r="F1785" t="inlineStr"/>
+      <c r="G1785" t="n">
+        <v>389120</v>
+      </c>
+      <c r="H1785" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1785" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1785" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1785" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1785" t="inlineStr"/>
+    </row>
+    <row r="1786">
+      <c r="A1786" s="2" t="n">
+        <v>45645</v>
+      </c>
+      <c r="B1786" t="n">
+        <v>1861</v>
+      </c>
+      <c r="C1786" t="n">
+        <v>1905</v>
+      </c>
+      <c r="D1786" t="n">
+        <v>1840.550048828125</v>
+      </c>
+      <c r="E1786" t="n">
+        <v>1898</v>
+      </c>
+      <c r="F1786" t="inlineStr"/>
+      <c r="G1786" t="n">
+        <v>1083512</v>
+      </c>
+      <c r="H1786" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1786" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1786" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1786" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1786" t="inlineStr"/>
+    </row>
+    <row r="1787">
+      <c r="A1787" s="2" t="n">
+        <v>45646</v>
+      </c>
+      <c r="B1787" t="n">
+        <v>1893</v>
+      </c>
+      <c r="C1787" t="n">
+        <v>1925</v>
+      </c>
+      <c r="D1787" t="n">
+        <v>1884.900024414062</v>
+      </c>
+      <c r="E1787" t="n">
+        <v>1902.150024414062</v>
+      </c>
+      <c r="F1787" t="inlineStr"/>
+      <c r="G1787" t="n">
+        <v>398566</v>
+      </c>
+      <c r="H1787" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1787" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1787" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1787" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1787" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ICICIGI.NS.xlsx
+++ b/stock_historical_data/1d/ICICIGI.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1787"/>
+  <dimension ref="A1:R1791"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100035,7 +100035,9 @@
       <c r="Q1778" t="n">
         <v>0</v>
       </c>
-      <c r="R1778" t="inlineStr"/>
+      <c r="R1778" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1779">
       <c r="A1779" s="2" t="n">
@@ -100087,7 +100089,9 @@
       <c r="Q1779" t="n">
         <v>0</v>
       </c>
-      <c r="R1779" t="inlineStr"/>
+      <c r="R1779" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1780">
       <c r="A1780" s="2" t="n">
@@ -100139,7 +100143,9 @@
       <c r="Q1780" t="n">
         <v>0</v>
       </c>
-      <c r="R1780" t="inlineStr"/>
+      <c r="R1780" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1781">
       <c r="A1781" s="2" t="n">
@@ -100191,7 +100197,9 @@
       <c r="Q1781" t="n">
         <v>0</v>
       </c>
-      <c r="R1781" t="inlineStr"/>
+      <c r="R1781" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1782">
       <c r="A1782" s="2" t="n">
@@ -100243,7 +100251,9 @@
       <c r="Q1782" t="n">
         <v>0</v>
       </c>
-      <c r="R1782" t="inlineStr"/>
+      <c r="R1782" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1783">
       <c r="A1783" s="2" t="n">
@@ -100295,7 +100305,9 @@
       <c r="Q1783" t="n">
         <v>0</v>
       </c>
-      <c r="R1783" t="inlineStr"/>
+      <c r="R1783" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1784">
       <c r="A1784" s="2" t="n">
@@ -100347,7 +100359,9 @@
       <c r="Q1784" t="n">
         <v>0</v>
       </c>
-      <c r="R1784" t="inlineStr"/>
+      <c r="R1784" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1785">
       <c r="A1785" s="2" t="n">
@@ -100399,7 +100413,9 @@
       <c r="Q1785" t="n">
         <v>0</v>
       </c>
-      <c r="R1785" t="inlineStr"/>
+      <c r="R1785" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1786">
       <c r="A1786" s="2" t="n">
@@ -100451,7 +100467,9 @@
       <c r="Q1786" t="n">
         <v>0</v>
       </c>
-      <c r="R1786" t="inlineStr"/>
+      <c r="R1786" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1787">
       <c r="A1787" s="2" t="n">
@@ -100503,7 +100521,217 @@
       <c r="Q1787" t="n">
         <v>0</v>
       </c>
-      <c r="R1787" t="inlineStr"/>
+      <c r="R1787" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1788">
+      <c r="A1788" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1788" t="n">
+        <v>1895.150024414062</v>
+      </c>
+      <c r="C1788" t="n">
+        <v>1899</v>
+      </c>
+      <c r="D1788" t="n">
+        <v>1854.5</v>
+      </c>
+      <c r="E1788" t="n">
+        <v>1862.050048828125</v>
+      </c>
+      <c r="F1788" t="inlineStr"/>
+      <c r="G1788" t="n">
+        <v>1415336</v>
+      </c>
+      <c r="H1788" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1788" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1788" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1788" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1788" t="inlineStr"/>
+    </row>
+    <row r="1789">
+      <c r="A1789" s="2" t="n">
+        <v>45650</v>
+      </c>
+      <c r="B1789" t="n">
+        <v>1862</v>
+      </c>
+      <c r="C1789" t="n">
+        <v>1885.050048828125</v>
+      </c>
+      <c r="D1789" t="n">
+        <v>1834.550048828125</v>
+      </c>
+      <c r="E1789" t="n">
+        <v>1868.949951171875</v>
+      </c>
+      <c r="F1789" t="inlineStr"/>
+      <c r="G1789" t="n">
+        <v>896972</v>
+      </c>
+      <c r="H1789" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1789" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1789" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1789" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1789" t="inlineStr"/>
+    </row>
+    <row r="1790">
+      <c r="A1790" s="2" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B1790" t="n">
+        <v>1869.949951171875</v>
+      </c>
+      <c r="C1790" t="n">
+        <v>1884.449951171875</v>
+      </c>
+      <c r="D1790" t="n">
+        <v>1850.150024414062</v>
+      </c>
+      <c r="E1790" t="n">
+        <v>1861.150024414062</v>
+      </c>
+      <c r="F1790" t="inlineStr"/>
+      <c r="G1790" t="n">
+        <v>118252</v>
+      </c>
+      <c r="H1790" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1790" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1790" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1790" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1790" t="inlineStr"/>
+    </row>
+    <row r="1791">
+      <c r="A1791" s="2" t="n">
+        <v>45653</v>
+      </c>
+      <c r="B1791" t="n">
+        <v>1865</v>
+      </c>
+      <c r="C1791" t="n">
+        <v>1872</v>
+      </c>
+      <c r="D1791" t="n">
+        <v>1822.099975585938</v>
+      </c>
+      <c r="E1791" t="n">
+        <v>1832.449951171875</v>
+      </c>
+      <c r="F1791" t="inlineStr"/>
+      <c r="G1791" t="n">
+        <v>475999</v>
+      </c>
+      <c r="H1791" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1791" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1791" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1791" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1791" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ICICIGI.NS.xlsx
+++ b/stock_historical_data/1d/ICICIGI.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1791"/>
+  <dimension ref="A1:R1793"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100297,7 +100297,7 @@
         <v>51</v>
       </c>
       <c r="O1783" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1783" t="n">
         <v>0</v>
@@ -100575,7 +100575,9 @@
       <c r="Q1788" t="n">
         <v>0</v>
       </c>
-      <c r="R1788" t="inlineStr"/>
+      <c r="R1788" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1789">
       <c r="A1789" s="2" t="n">
@@ -100627,7 +100629,9 @@
       <c r="Q1789" t="n">
         <v>0</v>
       </c>
-      <c r="R1789" t="inlineStr"/>
+      <c r="R1789" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1790">
       <c r="A1790" s="2" t="n">
@@ -100679,7 +100683,9 @@
       <c r="Q1790" t="n">
         <v>0</v>
       </c>
-      <c r="R1790" t="inlineStr"/>
+      <c r="R1790" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1791">
       <c r="A1791" s="2" t="n">
@@ -100731,7 +100737,113 @@
       <c r="Q1791" t="n">
         <v>0</v>
       </c>
-      <c r="R1791" t="inlineStr"/>
+      <c r="R1791" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1792">
+      <c r="A1792" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1792" t="n">
+        <v>1832.449951171875</v>
+      </c>
+      <c r="C1792" t="n">
+        <v>1832.449951171875</v>
+      </c>
+      <c r="D1792" t="n">
+        <v>1791</v>
+      </c>
+      <c r="E1792" t="n">
+        <v>1806.800048828125</v>
+      </c>
+      <c r="F1792" t="inlineStr"/>
+      <c r="G1792" t="n">
+        <v>1866664</v>
+      </c>
+      <c r="H1792" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1792" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1792" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1792" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1792" t="inlineStr"/>
+    </row>
+    <row r="1793">
+      <c r="A1793" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B1793" t="n">
+        <v>1815</v>
+      </c>
+      <c r="C1793" t="n">
+        <v>1818.150024414062</v>
+      </c>
+      <c r="D1793" t="n">
+        <v>1739.800048828125</v>
+      </c>
+      <c r="E1793" t="n">
+        <v>1787.75</v>
+      </c>
+      <c r="F1793" t="inlineStr"/>
+      <c r="G1793" t="n">
+        <v>508192</v>
+      </c>
+      <c r="H1793" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1793" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1793" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1793" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1793" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ICICIGI.NS.xlsx
+++ b/stock_historical_data/1d/ICICIGI.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1793"/>
+  <dimension ref="A1:R1801"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100791,7 +100791,9 @@
       <c r="Q1792" t="n">
         <v>0</v>
       </c>
-      <c r="R1792" t="inlineStr"/>
+      <c r="R1792" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1793">
       <c r="A1793" s="2" t="n">
@@ -100843,7 +100845,425 @@
       <c r="Q1793" t="n">
         <v>0</v>
       </c>
-      <c r="R1793" t="inlineStr"/>
+      <c r="R1793" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1794">
+      <c r="A1794" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B1794" t="n">
+        <v>1783.800048828125</v>
+      </c>
+      <c r="C1794" t="n">
+        <v>1813.550048828125</v>
+      </c>
+      <c r="D1794" t="n">
+        <v>1763.75</v>
+      </c>
+      <c r="E1794" t="n">
+        <v>1809.449951171875</v>
+      </c>
+      <c r="F1794" t="inlineStr"/>
+      <c r="G1794" t="n">
+        <v>325526</v>
+      </c>
+      <c r="H1794" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1794" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1794" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1794" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1794" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1794" t="inlineStr"/>
+    </row>
+    <row r="1795">
+      <c r="A1795" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B1795" t="n">
+        <v>1809.449951171875</v>
+      </c>
+      <c r="C1795" t="n">
+        <v>1840.800048828125</v>
+      </c>
+      <c r="D1795" t="n">
+        <v>1786.5</v>
+      </c>
+      <c r="E1795" t="n">
+        <v>1832.900024414062</v>
+      </c>
+      <c r="F1795" t="inlineStr"/>
+      <c r="G1795" t="n">
+        <v>791676</v>
+      </c>
+      <c r="H1795" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1795" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1795" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1795" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1795" t="inlineStr"/>
+    </row>
+    <row r="1796">
+      <c r="A1796" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="B1796" t="n">
+        <v>1842.5</v>
+      </c>
+      <c r="C1796" t="n">
+        <v>1843.900024414062</v>
+      </c>
+      <c r="D1796" t="n">
+        <v>1803.75</v>
+      </c>
+      <c r="E1796" t="n">
+        <v>1838.199951171875</v>
+      </c>
+      <c r="F1796" t="inlineStr"/>
+      <c r="G1796" t="n">
+        <v>900919</v>
+      </c>
+      <c r="H1796" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1796" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1796" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1796" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1796" t="inlineStr"/>
+    </row>
+    <row r="1797">
+      <c r="A1797" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1797" t="n">
+        <v>1844.699951171875</v>
+      </c>
+      <c r="C1797" t="n">
+        <v>1846.449951171875</v>
+      </c>
+      <c r="D1797" t="n">
+        <v>1799.699951171875</v>
+      </c>
+      <c r="E1797" t="n">
+        <v>1812.75</v>
+      </c>
+      <c r="F1797" t="inlineStr"/>
+      <c r="G1797" t="n">
+        <v>788231</v>
+      </c>
+      <c r="H1797" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1797" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1797" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1797" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1797" t="inlineStr"/>
+    </row>
+    <row r="1798">
+      <c r="A1798" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B1798" t="n">
+        <v>1805.5</v>
+      </c>
+      <c r="C1798" t="n">
+        <v>1891.099975585938</v>
+      </c>
+      <c r="D1798" t="n">
+        <v>1805.150024414062</v>
+      </c>
+      <c r="E1798" t="n">
+        <v>1883.699951171875</v>
+      </c>
+      <c r="F1798" t="inlineStr"/>
+      <c r="G1798" t="n">
+        <v>1142167</v>
+      </c>
+      <c r="H1798" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1798" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1798" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1798" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1798" t="inlineStr"/>
+    </row>
+    <row r="1799">
+      <c r="A1799" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="B1799" t="n">
+        <v>1874.150024414062</v>
+      </c>
+      <c r="C1799" t="n">
+        <v>1885.949951171875</v>
+      </c>
+      <c r="D1799" t="n">
+        <v>1846.900024414062</v>
+      </c>
+      <c r="E1799" t="n">
+        <v>1859.199951171875</v>
+      </c>
+      <c r="F1799" t="inlineStr"/>
+      <c r="G1799" t="n">
+        <v>648480</v>
+      </c>
+      <c r="H1799" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1799" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1799" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1799" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1799" t="inlineStr"/>
+    </row>
+    <row r="1800">
+      <c r="A1800" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="B1800" t="n">
+        <v>1858.650024414062</v>
+      </c>
+      <c r="C1800" t="n">
+        <v>1901.699951171875</v>
+      </c>
+      <c r="D1800" t="n">
+        <v>1850.050048828125</v>
+      </c>
+      <c r="E1800" t="n">
+        <v>1888.25</v>
+      </c>
+      <c r="F1800" t="inlineStr"/>
+      <c r="G1800" t="n">
+        <v>498197</v>
+      </c>
+      <c r="H1800" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1800" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1800" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1800" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1800" t="inlineStr"/>
+    </row>
+    <row r="1801">
+      <c r="A1801" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B1801" t="n">
+        <v>1894.050048828125</v>
+      </c>
+      <c r="C1801" t="n">
+        <v>1900</v>
+      </c>
+      <c r="D1801" t="n">
+        <v>1855.550048828125</v>
+      </c>
+      <c r="E1801" t="n">
+        <v>1877.599975585938</v>
+      </c>
+      <c r="F1801" t="inlineStr"/>
+      <c r="G1801" t="n">
+        <v>501351</v>
+      </c>
+      <c r="H1801" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1801" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1801" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1801" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1801" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ICICIGI.NS.xlsx
+++ b/stock_historical_data/1d/ICICIGI.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1801"/>
+  <dimension ref="A1:R1803"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100837,7 +100837,7 @@
         <v>1</v>
       </c>
       <c r="O1793" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1793" t="n">
         <v>0</v>
@@ -100899,7 +100899,9 @@
       <c r="Q1794" t="n">
         <v>0</v>
       </c>
-      <c r="R1794" t="inlineStr"/>
+      <c r="R1794" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1795">
       <c r="A1795" s="2" t="n">
@@ -100951,7 +100953,9 @@
       <c r="Q1795" t="n">
         <v>0</v>
       </c>
-      <c r="R1795" t="inlineStr"/>
+      <c r="R1795" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1796">
       <c r="A1796" s="2" t="n">
@@ -101003,7 +101007,9 @@
       <c r="Q1796" t="n">
         <v>0</v>
       </c>
-      <c r="R1796" t="inlineStr"/>
+      <c r="R1796" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1797">
       <c r="A1797" s="2" t="n">
@@ -101055,7 +101061,9 @@
       <c r="Q1797" t="n">
         <v>0</v>
       </c>
-      <c r="R1797" t="inlineStr"/>
+      <c r="R1797" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1798">
       <c r="A1798" s="2" t="n">
@@ -101107,7 +101115,9 @@
       <c r="Q1798" t="n">
         <v>0</v>
       </c>
-      <c r="R1798" t="inlineStr"/>
+      <c r="R1798" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1799">
       <c r="A1799" s="2" t="n">
@@ -101159,7 +101169,9 @@
       <c r="Q1799" t="n">
         <v>0</v>
       </c>
-      <c r="R1799" t="inlineStr"/>
+      <c r="R1799" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1800">
       <c r="A1800" s="2" t="n">
@@ -101211,7 +101223,9 @@
       <c r="Q1800" t="n">
         <v>0</v>
       </c>
-      <c r="R1800" t="inlineStr"/>
+      <c r="R1800" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1801">
       <c r="A1801" s="2" t="n">
@@ -101263,7 +101277,113 @@
       <c r="Q1801" t="n">
         <v>0</v>
       </c>
-      <c r="R1801" t="inlineStr"/>
+      <c r="R1801" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1802">
+      <c r="A1802" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1802" t="n">
+        <v>1874.900024414062</v>
+      </c>
+      <c r="C1802" t="n">
+        <v>1887.949951171875</v>
+      </c>
+      <c r="D1802" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E1802" t="n">
+        <v>1836.949951171875</v>
+      </c>
+      <c r="F1802" t="inlineStr"/>
+      <c r="G1802" t="n">
+        <v>993052</v>
+      </c>
+      <c r="H1802" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1802" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1802" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1802" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1802" t="inlineStr"/>
+    </row>
+    <row r="1803">
+      <c r="A1803" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B1803" t="n">
+        <v>1835.699951171875</v>
+      </c>
+      <c r="C1803" t="n">
+        <v>1872.599975585938</v>
+      </c>
+      <c r="D1803" t="n">
+        <v>1818.099975585938</v>
+      </c>
+      <c r="E1803" t="n">
+        <v>1831.199951171875</v>
+      </c>
+      <c r="F1803" t="inlineStr"/>
+      <c r="G1803" t="n">
+        <v>322102</v>
+      </c>
+      <c r="H1803" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1803" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1803" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1803" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1803" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ICICIGI.NS.xlsx
+++ b/stock_historical_data/1d/ICICIGI.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1803"/>
+  <dimension ref="A1:R1811"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101331,7 +101331,9 @@
       <c r="Q1802" t="n">
         <v>0</v>
       </c>
-      <c r="R1802" t="inlineStr"/>
+      <c r="R1802" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1803">
       <c r="A1803" s="2" t="n">
@@ -101383,7 +101385,425 @@
       <c r="Q1803" t="n">
         <v>0</v>
       </c>
-      <c r="R1803" t="inlineStr"/>
+      <c r="R1803" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1804">
+      <c r="A1804" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="B1804" t="n">
+        <v>1840.400024414062</v>
+      </c>
+      <c r="C1804" t="n">
+        <v>1908</v>
+      </c>
+      <c r="D1804" t="n">
+        <v>1800</v>
+      </c>
+      <c r="E1804" t="n">
+        <v>1894.550048828125</v>
+      </c>
+      <c r="F1804" t="inlineStr"/>
+      <c r="G1804" t="n">
+        <v>528556</v>
+      </c>
+      <c r="H1804" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1804" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1804" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1804" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1804" t="inlineStr"/>
+    </row>
+    <row r="1805">
+      <c r="A1805" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B1805" t="n">
+        <v>1899.900024414062</v>
+      </c>
+      <c r="C1805" t="n">
+        <v>1930</v>
+      </c>
+      <c r="D1805" t="n">
+        <v>1867.349975585938</v>
+      </c>
+      <c r="E1805" t="n">
+        <v>1907.900024414062</v>
+      </c>
+      <c r="F1805" t="inlineStr"/>
+      <c r="G1805" t="n">
+        <v>546624</v>
+      </c>
+      <c r="H1805" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1805" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1805" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1805" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1805" t="inlineStr"/>
+    </row>
+    <row r="1806">
+      <c r="A1806" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B1806" t="n">
+        <v>1907.900024414062</v>
+      </c>
+      <c r="C1806" t="n">
+        <v>1966</v>
+      </c>
+      <c r="D1806" t="n">
+        <v>1907.900024414062</v>
+      </c>
+      <c r="E1806" t="n">
+        <v>1948.75</v>
+      </c>
+      <c r="F1806" t="inlineStr"/>
+      <c r="G1806" t="n">
+        <v>830712</v>
+      </c>
+      <c r="H1806" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1806" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1806" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1806" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1806" t="inlineStr"/>
+    </row>
+    <row r="1807">
+      <c r="A1807" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1807" t="n">
+        <v>1980</v>
+      </c>
+      <c r="C1807" t="n">
+        <v>2014.949951171875</v>
+      </c>
+      <c r="D1807" t="n">
+        <v>1910</v>
+      </c>
+      <c r="E1807" t="n">
+        <v>1922.699951171875</v>
+      </c>
+      <c r="F1807" t="inlineStr"/>
+      <c r="G1807" t="n">
+        <v>1491930</v>
+      </c>
+      <c r="H1807" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1807" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1807" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1807" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1807" t="inlineStr"/>
+    </row>
+    <row r="1808">
+      <c r="A1808" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B1808" t="n">
+        <v>1928</v>
+      </c>
+      <c r="C1808" t="n">
+        <v>1952.900024414062</v>
+      </c>
+      <c r="D1808" t="n">
+        <v>1893.900024414062</v>
+      </c>
+      <c r="E1808" t="n">
+        <v>1902.5</v>
+      </c>
+      <c r="F1808" t="inlineStr"/>
+      <c r="G1808" t="n">
+        <v>1132137</v>
+      </c>
+      <c r="H1808" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1808" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1808" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1808" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1808" t="inlineStr"/>
+    </row>
+    <row r="1809">
+      <c r="A1809" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B1809" t="n">
+        <v>1909.050048828125</v>
+      </c>
+      <c r="C1809" t="n">
+        <v>1918.849975585938</v>
+      </c>
+      <c r="D1809" t="n">
+        <v>1842.349975585938</v>
+      </c>
+      <c r="E1809" t="n">
+        <v>1849.900024414062</v>
+      </c>
+      <c r="F1809" t="inlineStr"/>
+      <c r="G1809" t="n">
+        <v>485715</v>
+      </c>
+      <c r="H1809" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1809" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1809" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1809" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1809" t="inlineStr"/>
+    </row>
+    <row r="1810">
+      <c r="A1810" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="B1810" t="n">
+        <v>1849.900024414062</v>
+      </c>
+      <c r="C1810" t="n">
+        <v>1853</v>
+      </c>
+      <c r="D1810" t="n">
+        <v>1819.150024414062</v>
+      </c>
+      <c r="E1810" t="n">
+        <v>1834.099975585938</v>
+      </c>
+      <c r="F1810" t="inlineStr"/>
+      <c r="G1810" t="n">
+        <v>747789</v>
+      </c>
+      <c r="H1810" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1810" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1810" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1810" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1810" t="inlineStr"/>
+    </row>
+    <row r="1811">
+      <c r="A1811" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="B1811" t="n">
+        <v>1839</v>
+      </c>
+      <c r="C1811" t="n">
+        <v>1841.849975585938</v>
+      </c>
+      <c r="D1811" t="n">
+        <v>1805</v>
+      </c>
+      <c r="E1811" t="n">
+        <v>1815.650024414062</v>
+      </c>
+      <c r="F1811" t="inlineStr"/>
+      <c r="G1811" t="n">
+        <v>429452</v>
+      </c>
+      <c r="H1811" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1811" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1811" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1811" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1811" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ICICIGI.NS.xlsx
+++ b/stock_historical_data/1d/ICICIGI.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1811"/>
+  <dimension ref="A1:R1815"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101439,7 +101439,9 @@
       <c r="Q1804" t="n">
         <v>0</v>
       </c>
-      <c r="R1804" t="inlineStr"/>
+      <c r="R1804" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1805">
       <c r="A1805" s="2" t="n">
@@ -101491,7 +101493,9 @@
       <c r="Q1805" t="n">
         <v>0</v>
       </c>
-      <c r="R1805" t="inlineStr"/>
+      <c r="R1805" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1806">
       <c r="A1806" s="2" t="n">
@@ -101543,7 +101547,9 @@
       <c r="Q1806" t="n">
         <v>0</v>
       </c>
-      <c r="R1806" t="inlineStr"/>
+      <c r="R1806" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1807">
       <c r="A1807" s="2" t="n">
@@ -101595,7 +101601,9 @@
       <c r="Q1807" t="n">
         <v>0</v>
       </c>
-      <c r="R1807" t="inlineStr"/>
+      <c r="R1807" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1808">
       <c r="A1808" s="2" t="n">
@@ -101647,7 +101655,9 @@
       <c r="Q1808" t="n">
         <v>0</v>
       </c>
-      <c r="R1808" t="inlineStr"/>
+      <c r="R1808" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1809">
       <c r="A1809" s="2" t="n">
@@ -101699,7 +101709,9 @@
       <c r="Q1809" t="n">
         <v>0</v>
       </c>
-      <c r="R1809" t="inlineStr"/>
+      <c r="R1809" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1810">
       <c r="A1810" s="2" t="n">
@@ -101751,7 +101763,9 @@
       <c r="Q1810" t="n">
         <v>0</v>
       </c>
-      <c r="R1810" t="inlineStr"/>
+      <c r="R1810" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1811">
       <c r="A1811" s="2" t="n">
@@ -101803,7 +101817,217 @@
       <c r="Q1811" t="n">
         <v>0</v>
       </c>
-      <c r="R1811" t="inlineStr"/>
+      <c r="R1811" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1812">
+      <c r="A1812" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1812" t="n">
+        <v>1790.449951171875</v>
+      </c>
+      <c r="C1812" t="n">
+        <v>1812.150024414062</v>
+      </c>
+      <c r="D1812" t="n">
+        <v>1771.300048828125</v>
+      </c>
+      <c r="E1812" t="n">
+        <v>1778.699951171875</v>
+      </c>
+      <c r="F1812" t="inlineStr"/>
+      <c r="G1812" t="n">
+        <v>416775</v>
+      </c>
+      <c r="H1812" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1812" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1812" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1812" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1812" t="inlineStr"/>
+    </row>
+    <row r="1813">
+      <c r="A1813" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B1813" t="n">
+        <v>1779.949951171875</v>
+      </c>
+      <c r="C1813" t="n">
+        <v>1796</v>
+      </c>
+      <c r="D1813" t="n">
+        <v>1745.099975585938</v>
+      </c>
+      <c r="E1813" t="n">
+        <v>1774.699951171875</v>
+      </c>
+      <c r="F1813" t="inlineStr"/>
+      <c r="G1813" t="n">
+        <v>910568</v>
+      </c>
+      <c r="H1813" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1813" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1813" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1813" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1813" t="inlineStr"/>
+    </row>
+    <row r="1814">
+      <c r="A1814" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B1814" t="n">
+        <v>1775</v>
+      </c>
+      <c r="C1814" t="n">
+        <v>1850</v>
+      </c>
+      <c r="D1814" t="n">
+        <v>1757.25</v>
+      </c>
+      <c r="E1814" t="n">
+        <v>1841.5</v>
+      </c>
+      <c r="F1814" t="inlineStr"/>
+      <c r="G1814" t="n">
+        <v>792094</v>
+      </c>
+      <c r="H1814" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1814" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1814" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1814" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1814" t="inlineStr"/>
+    </row>
+    <row r="1815">
+      <c r="A1815" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B1815" t="n">
+        <v>1840</v>
+      </c>
+      <c r="C1815" t="n">
+        <v>1880.099975585938</v>
+      </c>
+      <c r="D1815" t="n">
+        <v>1835.050048828125</v>
+      </c>
+      <c r="E1815" t="n">
+        <v>1858.5</v>
+      </c>
+      <c r="F1815" t="inlineStr"/>
+      <c r="G1815" t="n">
+        <v>524180</v>
+      </c>
+      <c r="H1815" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1815" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1815" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1815" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1815" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ICICIGI.NS.xlsx
+++ b/stock_historical_data/1d/ICICIGI.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1815"/>
+  <dimension ref="A1:R1821"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101593,7 +101593,7 @@
         <v>4</v>
       </c>
       <c r="O1807" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1807" t="n">
         <v>0</v>
@@ -101871,7 +101871,9 @@
       <c r="Q1812" t="n">
         <v>0</v>
       </c>
-      <c r="R1812" t="inlineStr"/>
+      <c r="R1812" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1813">
       <c r="A1813" s="2" t="n">
@@ -101923,7 +101925,9 @@
       <c r="Q1813" t="n">
         <v>0</v>
       </c>
-      <c r="R1813" t="inlineStr"/>
+      <c r="R1813" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1814">
       <c r="A1814" s="2" t="n">
@@ -101975,27 +101979,29 @@
       <c r="Q1814" t="n">
         <v>0</v>
       </c>
-      <c r="R1814" t="inlineStr"/>
+      <c r="R1814" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1815">
       <c r="A1815" s="2" t="n">
-        <v>45688</v>
+        <v>45687</v>
       </c>
       <c r="B1815" t="n">
-        <v>1840</v>
+        <v>1835.25</v>
       </c>
       <c r="C1815" t="n">
-        <v>1880.099975585938</v>
+        <v>1871</v>
       </c>
       <c r="D1815" t="n">
-        <v>1835.050048828125</v>
+        <v>1826.650024414062</v>
       </c>
       <c r="E1815" t="n">
-        <v>1858.5</v>
+        <v>1845.5</v>
       </c>
       <c r="F1815" t="inlineStr"/>
       <c r="G1815" t="n">
-        <v>524180</v>
+        <v>318201</v>
       </c>
       <c r="H1815" t="n">
         <v>2025</v>
@@ -102004,7 +102010,7 @@
         <v>1</v>
       </c>
       <c r="J1815" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K1815" t="n">
         <v>0</v>
@@ -102028,6 +102034,320 @@
         <v>0</v>
       </c>
       <c r="R1815" t="inlineStr"/>
+    </row>
+    <row r="1816">
+      <c r="A1816" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B1816" t="n">
+        <v>1840</v>
+      </c>
+      <c r="C1816" t="n">
+        <v>1880.099975585938</v>
+      </c>
+      <c r="D1816" t="n">
+        <v>1835.050048828125</v>
+      </c>
+      <c r="E1816" t="n">
+        <v>1858.5</v>
+      </c>
+      <c r="F1816" t="inlineStr"/>
+      <c r="G1816" t="n">
+        <v>524180</v>
+      </c>
+      <c r="H1816" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1816" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1816" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1816" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1816" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1817">
+      <c r="A1817" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1817" t="n">
+        <v>1894</v>
+      </c>
+      <c r="C1817" t="n">
+        <v>1900</v>
+      </c>
+      <c r="D1817" t="n">
+        <v>1847</v>
+      </c>
+      <c r="E1817" t="n">
+        <v>1885.349975585938</v>
+      </c>
+      <c r="F1817" t="inlineStr"/>
+      <c r="G1817" t="n">
+        <v>707120</v>
+      </c>
+      <c r="H1817" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1817" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1817" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1817" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1817" t="inlineStr"/>
+    </row>
+    <row r="1818">
+      <c r="A1818" s="2" t="n">
+        <v>45692</v>
+      </c>
+      <c r="B1818" t="n">
+        <v>1895</v>
+      </c>
+      <c r="C1818" t="n">
+        <v>1898.949951171875</v>
+      </c>
+      <c r="D1818" t="n">
+        <v>1863.25</v>
+      </c>
+      <c r="E1818" t="n">
+        <v>1874.400024414062</v>
+      </c>
+      <c r="F1818" t="inlineStr"/>
+      <c r="G1818" t="n">
+        <v>255868</v>
+      </c>
+      <c r="H1818" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1818" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1818" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1818" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1818" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1818" t="inlineStr"/>
+    </row>
+    <row r="1819">
+      <c r="A1819" s="2" t="n">
+        <v>45693</v>
+      </c>
+      <c r="B1819" t="n">
+        <v>1883.150024414062</v>
+      </c>
+      <c r="C1819" t="n">
+        <v>1894</v>
+      </c>
+      <c r="D1819" t="n">
+        <v>1847.099975585938</v>
+      </c>
+      <c r="E1819" t="n">
+        <v>1854.650024414062</v>
+      </c>
+      <c r="F1819" t="inlineStr"/>
+      <c r="G1819" t="n">
+        <v>559179</v>
+      </c>
+      <c r="H1819" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1819" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1819" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1819" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1819" t="inlineStr"/>
+    </row>
+    <row r="1820">
+      <c r="A1820" s="2" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B1820" t="n">
+        <v>1861</v>
+      </c>
+      <c r="C1820" t="n">
+        <v>1869.900024414062</v>
+      </c>
+      <c r="D1820" t="n">
+        <v>1823.150024414062</v>
+      </c>
+      <c r="E1820" t="n">
+        <v>1827.900024414062</v>
+      </c>
+      <c r="F1820" t="inlineStr"/>
+      <c r="G1820" t="n">
+        <v>228070</v>
+      </c>
+      <c r="H1820" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1820" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1820" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1820" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1820" t="inlineStr"/>
+    </row>
+    <row r="1821">
+      <c r="A1821" s="2" t="n">
+        <v>45695</v>
+      </c>
+      <c r="B1821" t="n">
+        <v>1839</v>
+      </c>
+      <c r="C1821" t="n">
+        <v>1851.199951171875</v>
+      </c>
+      <c r="D1821" t="n">
+        <v>1810.849975585938</v>
+      </c>
+      <c r="E1821" t="n">
+        <v>1826.949951171875</v>
+      </c>
+      <c r="F1821" t="inlineStr"/>
+      <c r="G1821" t="n">
+        <v>352126</v>
+      </c>
+      <c r="H1821" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1821" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1821" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1821" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1821" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ICICIGI.NS.xlsx
+++ b/stock_historical_data/1d/ICICIGI.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1821"/>
+  <dimension ref="A1:R1822"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102033,7 +102033,9 @@
       <c r="Q1815" t="n">
         <v>0</v>
       </c>
-      <c r="R1815" t="inlineStr"/>
+      <c r="R1815" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1816">
       <c r="A1816" s="2" t="n">
@@ -102139,7 +102141,9 @@
       <c r="Q1817" t="n">
         <v>0</v>
       </c>
-      <c r="R1817" t="inlineStr"/>
+      <c r="R1817" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1818">
       <c r="A1818" s="2" t="n">
@@ -102191,7 +102195,9 @@
       <c r="Q1818" t="n">
         <v>0</v>
       </c>
-      <c r="R1818" t="inlineStr"/>
+      <c r="R1818" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1819">
       <c r="A1819" s="2" t="n">
@@ -102243,7 +102249,9 @@
       <c r="Q1819" t="n">
         <v>0</v>
       </c>
-      <c r="R1819" t="inlineStr"/>
+      <c r="R1819" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1820">
       <c r="A1820" s="2" t="n">
@@ -102295,7 +102303,9 @@
       <c r="Q1820" t="n">
         <v>0</v>
       </c>
-      <c r="R1820" t="inlineStr"/>
+      <c r="R1820" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1821">
       <c r="A1821" s="2" t="n">
@@ -102347,7 +102357,61 @@
       <c r="Q1821" t="n">
         <v>0</v>
       </c>
-      <c r="R1821" t="inlineStr"/>
+      <c r="R1821" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1822">
+      <c r="A1822" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1822" t="n">
+        <v>1809</v>
+      </c>
+      <c r="C1822" t="n">
+        <v>1890.900024414062</v>
+      </c>
+      <c r="D1822" t="n">
+        <v>1809</v>
+      </c>
+      <c r="E1822" t="n">
+        <v>1828.449951171875</v>
+      </c>
+      <c r="F1822" t="inlineStr"/>
+      <c r="G1822" t="n">
+        <v>378452</v>
+      </c>
+      <c r="H1822" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1822" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1822" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1822" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1822" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ICICIGI.NS.xlsx
+++ b/stock_historical_data/1d/ICICIGI.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1822"/>
+  <dimension ref="A1:R1831"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101917,7 +101917,7 @@
         <v>5</v>
       </c>
       <c r="O1813" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1813" t="n">
         <v>0</v>
@@ -102411,7 +102411,477 @@
       <c r="Q1822" t="n">
         <v>0</v>
       </c>
-      <c r="R1822" t="inlineStr"/>
+      <c r="R1822" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1823">
+      <c r="A1823" s="2" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B1823" t="n">
+        <v>1826.849975585938</v>
+      </c>
+      <c r="C1823" t="n">
+        <v>1830.949951171875</v>
+      </c>
+      <c r="D1823" t="n">
+        <v>1773.699951171875</v>
+      </c>
+      <c r="E1823" t="n">
+        <v>1795.099975585938</v>
+      </c>
+      <c r="F1823" t="inlineStr"/>
+      <c r="G1823" t="n">
+        <v>950495</v>
+      </c>
+      <c r="H1823" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1823" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1823" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1823" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1823" t="inlineStr"/>
+    </row>
+    <row r="1824">
+      <c r="A1824" s="2" t="n">
+        <v>45700</v>
+      </c>
+      <c r="B1824" t="n">
+        <v>1784.099975585938</v>
+      </c>
+      <c r="C1824" t="n">
+        <v>1807.949951171875</v>
+      </c>
+      <c r="D1824" t="n">
+        <v>1749.349975585938</v>
+      </c>
+      <c r="E1824" t="n">
+        <v>1764.800048828125</v>
+      </c>
+      <c r="F1824" t="inlineStr"/>
+      <c r="G1824" t="n">
+        <v>905327</v>
+      </c>
+      <c r="H1824" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1824" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1824" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1824" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1824" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1824" t="inlineStr"/>
+    </row>
+    <row r="1825">
+      <c r="A1825" s="2" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B1825" t="n">
+        <v>1779.900024414062</v>
+      </c>
+      <c r="C1825" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D1825" t="n">
+        <v>1756.199951171875</v>
+      </c>
+      <c r="E1825" t="n">
+        <v>1776.849975585938</v>
+      </c>
+      <c r="F1825" t="inlineStr"/>
+      <c r="G1825" t="n">
+        <v>309112</v>
+      </c>
+      <c r="H1825" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1825" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1825" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1825" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1825" t="inlineStr"/>
+    </row>
+    <row r="1826">
+      <c r="A1826" s="2" t="n">
+        <v>45702</v>
+      </c>
+      <c r="B1826" t="n">
+        <v>1779.900024414062</v>
+      </c>
+      <c r="C1826" t="n">
+        <v>1784.150024414062</v>
+      </c>
+      <c r="D1826" t="n">
+        <v>1729.949951171875</v>
+      </c>
+      <c r="E1826" t="n">
+        <v>1737.949951171875</v>
+      </c>
+      <c r="F1826" t="inlineStr"/>
+      <c r="G1826" t="n">
+        <v>439130</v>
+      </c>
+      <c r="H1826" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1826" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1826" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1826" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1826" t="inlineStr"/>
+    </row>
+    <row r="1827">
+      <c r="A1827" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1827" t="n">
+        <v>1732.150024414062</v>
+      </c>
+      <c r="C1827" t="n">
+        <v>1737.550048828125</v>
+      </c>
+      <c r="D1827" t="n">
+        <v>1708.400024414062</v>
+      </c>
+      <c r="E1827" t="n">
+        <v>1725.050048828125</v>
+      </c>
+      <c r="F1827" t="inlineStr"/>
+      <c r="G1827" t="n">
+        <v>335084</v>
+      </c>
+      <c r="H1827" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1827" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1827" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1827" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1827" t="inlineStr"/>
+    </row>
+    <row r="1828">
+      <c r="A1828" s="2" t="n">
+        <v>45706</v>
+      </c>
+      <c r="B1828" t="n">
+        <v>1736</v>
+      </c>
+      <c r="C1828" t="n">
+        <v>1749.849975585938</v>
+      </c>
+      <c r="D1828" t="n">
+        <v>1709.050048828125</v>
+      </c>
+      <c r="E1828" t="n">
+        <v>1738.400024414062</v>
+      </c>
+      <c r="F1828" t="inlineStr"/>
+      <c r="G1828" t="n">
+        <v>336707</v>
+      </c>
+      <c r="H1828" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1828" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1828" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1828" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1828" t="inlineStr"/>
+    </row>
+    <row r="1829">
+      <c r="A1829" s="2" t="n">
+        <v>45707</v>
+      </c>
+      <c r="B1829" t="n">
+        <v>1739</v>
+      </c>
+      <c r="C1829" t="n">
+        <v>1750.5</v>
+      </c>
+      <c r="D1829" t="n">
+        <v>1717.199951171875</v>
+      </c>
+      <c r="E1829" t="n">
+        <v>1728.949951171875</v>
+      </c>
+      <c r="F1829" t="inlineStr"/>
+      <c r="G1829" t="n">
+        <v>545419</v>
+      </c>
+      <c r="H1829" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1829" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1829" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1829" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1829" t="inlineStr"/>
+    </row>
+    <row r="1830">
+      <c r="A1830" s="2" t="n">
+        <v>45708</v>
+      </c>
+      <c r="B1830" t="n">
+        <v>1730</v>
+      </c>
+      <c r="C1830" t="n">
+        <v>1748</v>
+      </c>
+      <c r="D1830" t="n">
+        <v>1721.949951171875</v>
+      </c>
+      <c r="E1830" t="n">
+        <v>1727.300048828125</v>
+      </c>
+      <c r="F1830" t="inlineStr"/>
+      <c r="G1830" t="n">
+        <v>501605</v>
+      </c>
+      <c r="H1830" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1830" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1830" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1830" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1830" t="inlineStr"/>
+    </row>
+    <row r="1831">
+      <c r="A1831" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B1831" t="n">
+        <v>1730</v>
+      </c>
+      <c r="C1831" t="n">
+        <v>1742.449951171875</v>
+      </c>
+      <c r="D1831" t="n">
+        <v>1715</v>
+      </c>
+      <c r="E1831" t="n">
+        <v>1733.099975585938</v>
+      </c>
+      <c r="F1831" t="inlineStr"/>
+      <c r="G1831" t="n">
+        <v>974367</v>
+      </c>
+      <c r="H1831" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1831" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1831" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1831" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1831" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ICICIGI.NS.xlsx
+++ b/stock_historical_data/1d/ICICIGI.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1831"/>
+  <dimension ref="A1:R1841"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102093,23 +102093,23 @@
     </row>
     <row r="1817">
       <c r="A1817" s="2" t="n">
-        <v>45691</v>
+        <v>45689</v>
       </c>
       <c r="B1817" t="n">
-        <v>1894</v>
+        <v>1874</v>
       </c>
       <c r="C1817" t="n">
-        <v>1900</v>
+        <v>1908</v>
       </c>
       <c r="D1817" t="n">
-        <v>1847</v>
+        <v>1802.150024414062</v>
       </c>
       <c r="E1817" t="n">
-        <v>1885.349975585938</v>
+        <v>1879.949951171875</v>
       </c>
       <c r="F1817" t="inlineStr"/>
       <c r="G1817" t="n">
-        <v>707120</v>
+        <v>307383</v>
       </c>
       <c r="H1817" t="n">
         <v>2025</v>
@@ -102118,7 +102118,7 @@
         <v>2</v>
       </c>
       <c r="J1817" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K1817" t="n">
         <v>0</v>
@@ -102130,7 +102130,7 @@
         <v>0</v>
       </c>
       <c r="N1817" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O1817" t="n">
         <v>0</v>
@@ -102141,29 +102141,27 @@
       <c r="Q1817" t="n">
         <v>0</v>
       </c>
-      <c r="R1817" t="n">
-        <v>0</v>
-      </c>
+      <c r="R1817" t="inlineStr"/>
     </row>
     <row r="1818">
       <c r="A1818" s="2" t="n">
-        <v>45692</v>
+        <v>45691</v>
       </c>
       <c r="B1818" t="n">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="C1818" t="n">
-        <v>1898.949951171875</v>
+        <v>1900</v>
       </c>
       <c r="D1818" t="n">
-        <v>1863.25</v>
+        <v>1847</v>
       </c>
       <c r="E1818" t="n">
-        <v>1874.400024414062</v>
+        <v>1885.349975585938</v>
       </c>
       <c r="F1818" t="inlineStr"/>
       <c r="G1818" t="n">
-        <v>255868</v>
+        <v>707120</v>
       </c>
       <c r="H1818" t="n">
         <v>2025</v>
@@ -102172,7 +102170,7 @@
         <v>2</v>
       </c>
       <c r="J1818" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K1818" t="n">
         <v>0</v>
@@ -102196,28 +102194,28 @@
         <v>0</v>
       </c>
       <c r="R1818" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1819">
       <c r="A1819" s="2" t="n">
-        <v>45693</v>
+        <v>45692</v>
       </c>
       <c r="B1819" t="n">
-        <v>1883.150024414062</v>
+        <v>1895</v>
       </c>
       <c r="C1819" t="n">
-        <v>1894</v>
+        <v>1898.949951171875</v>
       </c>
       <c r="D1819" t="n">
-        <v>1847.099975585938</v>
+        <v>1863.25</v>
       </c>
       <c r="E1819" t="n">
-        <v>1854.650024414062</v>
+        <v>1874.400024414062</v>
       </c>
       <c r="F1819" t="inlineStr"/>
       <c r="G1819" t="n">
-        <v>559179</v>
+        <v>255868</v>
       </c>
       <c r="H1819" t="n">
         <v>2025</v>
@@ -102226,7 +102224,7 @@
         <v>2</v>
       </c>
       <c r="J1819" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K1819" t="n">
         <v>0</v>
@@ -102250,28 +102248,28 @@
         <v>0</v>
       </c>
       <c r="R1819" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1820">
       <c r="A1820" s="2" t="n">
-        <v>45694</v>
+        <v>45693</v>
       </c>
       <c r="B1820" t="n">
-        <v>1861</v>
+        <v>1883.150024414062</v>
       </c>
       <c r="C1820" t="n">
-        <v>1869.900024414062</v>
+        <v>1894</v>
       </c>
       <c r="D1820" t="n">
-        <v>1823.150024414062</v>
+        <v>1847.099975585938</v>
       </c>
       <c r="E1820" t="n">
-        <v>1827.900024414062</v>
+        <v>1854.650024414062</v>
       </c>
       <c r="F1820" t="inlineStr"/>
       <c r="G1820" t="n">
-        <v>228070</v>
+        <v>559179</v>
       </c>
       <c r="H1820" t="n">
         <v>2025</v>
@@ -102280,7 +102278,7 @@
         <v>2</v>
       </c>
       <c r="J1820" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K1820" t="n">
         <v>0</v>
@@ -102309,23 +102307,23 @@
     </row>
     <row r="1821">
       <c r="A1821" s="2" t="n">
-        <v>45695</v>
+        <v>45694</v>
       </c>
       <c r="B1821" t="n">
-        <v>1839</v>
+        <v>1861</v>
       </c>
       <c r="C1821" t="n">
-        <v>1851.199951171875</v>
+        <v>1869.900024414062</v>
       </c>
       <c r="D1821" t="n">
-        <v>1810.849975585938</v>
+        <v>1823.150024414062</v>
       </c>
       <c r="E1821" t="n">
-        <v>1826.949951171875</v>
+        <v>1827.900024414062</v>
       </c>
       <c r="F1821" t="inlineStr"/>
       <c r="G1821" t="n">
-        <v>352126</v>
+        <v>228070</v>
       </c>
       <c r="H1821" t="n">
         <v>2025</v>
@@ -102334,7 +102332,7 @@
         <v>2</v>
       </c>
       <c r="J1821" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K1821" t="n">
         <v>0</v>
@@ -102363,23 +102361,23 @@
     </row>
     <row r="1822">
       <c r="A1822" s="2" t="n">
-        <v>45698</v>
+        <v>45695</v>
       </c>
       <c r="B1822" t="n">
-        <v>1809</v>
+        <v>1839</v>
       </c>
       <c r="C1822" t="n">
-        <v>1890.900024414062</v>
+        <v>1851.199951171875</v>
       </c>
       <c r="D1822" t="n">
-        <v>1809</v>
+        <v>1810.849975585938</v>
       </c>
       <c r="E1822" t="n">
-        <v>1828.449951171875</v>
+        <v>1826.949951171875</v>
       </c>
       <c r="F1822" t="inlineStr"/>
       <c r="G1822" t="n">
-        <v>378452</v>
+        <v>352126</v>
       </c>
       <c r="H1822" t="n">
         <v>2025</v>
@@ -102388,7 +102386,7 @@
         <v>2</v>
       </c>
       <c r="J1822" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K1822" t="n">
         <v>0</v>
@@ -102400,7 +102398,7 @@
         <v>0</v>
       </c>
       <c r="N1822" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O1822" t="n">
         <v>0</v>
@@ -102417,23 +102415,23 @@
     </row>
     <row r="1823">
       <c r="A1823" s="2" t="n">
-        <v>45699</v>
+        <v>45698</v>
       </c>
       <c r="B1823" t="n">
-        <v>1826.849975585938</v>
+        <v>1809</v>
       </c>
       <c r="C1823" t="n">
-        <v>1830.949951171875</v>
+        <v>1890.900024414062</v>
       </c>
       <c r="D1823" t="n">
-        <v>1773.699951171875</v>
+        <v>1809</v>
       </c>
       <c r="E1823" t="n">
-        <v>1795.099975585938</v>
+        <v>1828.449951171875</v>
       </c>
       <c r="F1823" t="inlineStr"/>
       <c r="G1823" t="n">
-        <v>950495</v>
+        <v>378452</v>
       </c>
       <c r="H1823" t="n">
         <v>2025</v>
@@ -102442,7 +102440,7 @@
         <v>2</v>
       </c>
       <c r="J1823" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K1823" t="n">
         <v>0</v>
@@ -102465,27 +102463,29 @@
       <c r="Q1823" t="n">
         <v>0</v>
       </c>
-      <c r="R1823" t="inlineStr"/>
+      <c r="R1823" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1824">
       <c r="A1824" s="2" t="n">
-        <v>45700</v>
+        <v>45699</v>
       </c>
       <c r="B1824" t="n">
-        <v>1784.099975585938</v>
+        <v>1826.849975585938</v>
       </c>
       <c r="C1824" t="n">
-        <v>1807.949951171875</v>
+        <v>1830.949951171875</v>
       </c>
       <c r="D1824" t="n">
-        <v>1749.349975585938</v>
+        <v>1773.699951171875</v>
       </c>
       <c r="E1824" t="n">
-        <v>1764.800048828125</v>
+        <v>1795.099975585938</v>
       </c>
       <c r="F1824" t="inlineStr"/>
       <c r="G1824" t="n">
-        <v>905327</v>
+        <v>950495</v>
       </c>
       <c r="H1824" t="n">
         <v>2025</v>
@@ -102494,7 +102494,7 @@
         <v>2</v>
       </c>
       <c r="J1824" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K1824" t="n">
         <v>0</v>
@@ -102517,27 +102517,29 @@
       <c r="Q1824" t="n">
         <v>0</v>
       </c>
-      <c r="R1824" t="inlineStr"/>
+      <c r="R1824" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1825">
       <c r="A1825" s="2" t="n">
-        <v>45701</v>
+        <v>45700</v>
       </c>
       <c r="B1825" t="n">
-        <v>1779.900024414062</v>
+        <v>1784.099975585938</v>
       </c>
       <c r="C1825" t="n">
-        <v>1800</v>
+        <v>1807.949951171875</v>
       </c>
       <c r="D1825" t="n">
-        <v>1756.199951171875</v>
+        <v>1749.349975585938</v>
       </c>
       <c r="E1825" t="n">
-        <v>1776.849975585938</v>
+        <v>1764.800048828125</v>
       </c>
       <c r="F1825" t="inlineStr"/>
       <c r="G1825" t="n">
-        <v>309112</v>
+        <v>905327</v>
       </c>
       <c r="H1825" t="n">
         <v>2025</v>
@@ -102546,7 +102548,7 @@
         <v>2</v>
       </c>
       <c r="J1825" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K1825" t="n">
         <v>0</v>
@@ -102569,27 +102571,29 @@
       <c r="Q1825" t="n">
         <v>0</v>
       </c>
-      <c r="R1825" t="inlineStr"/>
+      <c r="R1825" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1826">
       <c r="A1826" s="2" t="n">
-        <v>45702</v>
+        <v>45701</v>
       </c>
       <c r="B1826" t="n">
         <v>1779.900024414062</v>
       </c>
       <c r="C1826" t="n">
-        <v>1784.150024414062</v>
+        <v>1800</v>
       </c>
       <c r="D1826" t="n">
-        <v>1729.949951171875</v>
+        <v>1756.199951171875</v>
       </c>
       <c r="E1826" t="n">
-        <v>1737.949951171875</v>
+        <v>1776.849975585938</v>
       </c>
       <c r="F1826" t="inlineStr"/>
       <c r="G1826" t="n">
-        <v>439130</v>
+        <v>309112</v>
       </c>
       <c r="H1826" t="n">
         <v>2025</v>
@@ -102598,7 +102602,7 @@
         <v>2</v>
       </c>
       <c r="J1826" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K1826" t="n">
         <v>0</v>
@@ -102621,27 +102625,29 @@
       <c r="Q1826" t="n">
         <v>0</v>
       </c>
-      <c r="R1826" t="inlineStr"/>
+      <c r="R1826" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1827">
       <c r="A1827" s="2" t="n">
-        <v>45705</v>
+        <v>45702</v>
       </c>
       <c r="B1827" t="n">
-        <v>1732.150024414062</v>
+        <v>1779.900024414062</v>
       </c>
       <c r="C1827" t="n">
-        <v>1737.550048828125</v>
+        <v>1784.150024414062</v>
       </c>
       <c r="D1827" t="n">
-        <v>1708.400024414062</v>
+        <v>1729.949951171875</v>
       </c>
       <c r="E1827" t="n">
-        <v>1725.050048828125</v>
+        <v>1737.949951171875</v>
       </c>
       <c r="F1827" t="inlineStr"/>
       <c r="G1827" t="n">
-        <v>335084</v>
+        <v>439130</v>
       </c>
       <c r="H1827" t="n">
         <v>2025</v>
@@ -102650,7 +102656,7 @@
         <v>2</v>
       </c>
       <c r="J1827" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K1827" t="n">
         <v>0</v>
@@ -102662,7 +102668,7 @@
         <v>0</v>
       </c>
       <c r="N1827" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O1827" t="n">
         <v>0</v>
@@ -102673,27 +102679,29 @@
       <c r="Q1827" t="n">
         <v>0</v>
       </c>
-      <c r="R1827" t="inlineStr"/>
+      <c r="R1827" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1828">
       <c r="A1828" s="2" t="n">
-        <v>45706</v>
+        <v>45705</v>
       </c>
       <c r="B1828" t="n">
-        <v>1736</v>
+        <v>1732.150024414062</v>
       </c>
       <c r="C1828" t="n">
-        <v>1749.849975585938</v>
+        <v>1737.550048828125</v>
       </c>
       <c r="D1828" t="n">
-        <v>1709.050048828125</v>
+        <v>1708.400024414062</v>
       </c>
       <c r="E1828" t="n">
-        <v>1738.400024414062</v>
+        <v>1725.050048828125</v>
       </c>
       <c r="F1828" t="inlineStr"/>
       <c r="G1828" t="n">
-        <v>336707</v>
+        <v>335084</v>
       </c>
       <c r="H1828" t="n">
         <v>2025</v>
@@ -102702,7 +102710,7 @@
         <v>2</v>
       </c>
       <c r="J1828" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K1828" t="n">
         <v>0</v>
@@ -102725,27 +102733,29 @@
       <c r="Q1828" t="n">
         <v>0</v>
       </c>
-      <c r="R1828" t="inlineStr"/>
+      <c r="R1828" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1829">
       <c r="A1829" s="2" t="n">
-        <v>45707</v>
+        <v>45706</v>
       </c>
       <c r="B1829" t="n">
-        <v>1739</v>
+        <v>1736</v>
       </c>
       <c r="C1829" t="n">
-        <v>1750.5</v>
+        <v>1749.849975585938</v>
       </c>
       <c r="D1829" t="n">
-        <v>1717.199951171875</v>
+        <v>1709.050048828125</v>
       </c>
       <c r="E1829" t="n">
-        <v>1728.949951171875</v>
+        <v>1738.400024414062</v>
       </c>
       <c r="F1829" t="inlineStr"/>
       <c r="G1829" t="n">
-        <v>545419</v>
+        <v>336707</v>
       </c>
       <c r="H1829" t="n">
         <v>2025</v>
@@ -102754,7 +102764,7 @@
         <v>2</v>
       </c>
       <c r="J1829" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K1829" t="n">
         <v>0</v>
@@ -102777,27 +102787,29 @@
       <c r="Q1829" t="n">
         <v>0</v>
       </c>
-      <c r="R1829" t="inlineStr"/>
+      <c r="R1829" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1830">
       <c r="A1830" s="2" t="n">
-        <v>45708</v>
+        <v>45707</v>
       </c>
       <c r="B1830" t="n">
-        <v>1730</v>
+        <v>1739</v>
       </c>
       <c r="C1830" t="n">
-        <v>1748</v>
+        <v>1750.5</v>
       </c>
       <c r="D1830" t="n">
-        <v>1721.949951171875</v>
+        <v>1717.199951171875</v>
       </c>
       <c r="E1830" t="n">
-        <v>1727.300048828125</v>
+        <v>1728.949951171875</v>
       </c>
       <c r="F1830" t="inlineStr"/>
       <c r="G1830" t="n">
-        <v>501605</v>
+        <v>545419</v>
       </c>
       <c r="H1830" t="n">
         <v>2025</v>
@@ -102806,7 +102818,7 @@
         <v>2</v>
       </c>
       <c r="J1830" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K1830" t="n">
         <v>0</v>
@@ -102829,27 +102841,29 @@
       <c r="Q1830" t="n">
         <v>0</v>
       </c>
-      <c r="R1830" t="inlineStr"/>
+      <c r="R1830" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1831">
       <c r="A1831" s="2" t="n">
-        <v>45709</v>
+        <v>45708</v>
       </c>
       <c r="B1831" t="n">
         <v>1730</v>
       </c>
       <c r="C1831" t="n">
-        <v>1742.449951171875</v>
+        <v>1748</v>
       </c>
       <c r="D1831" t="n">
-        <v>1715</v>
+        <v>1721.949951171875</v>
       </c>
       <c r="E1831" t="n">
-        <v>1733.099975585938</v>
+        <v>1727.300048828125</v>
       </c>
       <c r="F1831" t="inlineStr"/>
       <c r="G1831" t="n">
-        <v>974367</v>
+        <v>501605</v>
       </c>
       <c r="H1831" t="n">
         <v>2025</v>
@@ -102858,7 +102872,7 @@
         <v>2</v>
       </c>
       <c r="J1831" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K1831" t="n">
         <v>0</v>
@@ -102881,7 +102895,531 @@
       <c r="Q1831" t="n">
         <v>0</v>
       </c>
-      <c r="R1831" t="inlineStr"/>
+      <c r="R1831" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1832">
+      <c r="A1832" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B1832" t="n">
+        <v>1730</v>
+      </c>
+      <c r="C1832" t="n">
+        <v>1742.449951171875</v>
+      </c>
+      <c r="D1832" t="n">
+        <v>1715</v>
+      </c>
+      <c r="E1832" t="n">
+        <v>1733.099975585938</v>
+      </c>
+      <c r="F1832" t="inlineStr"/>
+      <c r="G1832" t="n">
+        <v>974367</v>
+      </c>
+      <c r="H1832" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1832" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1832" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1832" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1832" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1833">
+      <c r="A1833" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1833" t="n">
+        <v>1729</v>
+      </c>
+      <c r="C1833" t="n">
+        <v>1729</v>
+      </c>
+      <c r="D1833" t="n">
+        <v>1705</v>
+      </c>
+      <c r="E1833" t="n">
+        <v>1710.849975585938</v>
+      </c>
+      <c r="F1833" t="inlineStr"/>
+      <c r="G1833" t="n">
+        <v>557421</v>
+      </c>
+      <c r="H1833" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1833" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1833" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1833" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1833" t="inlineStr"/>
+    </row>
+    <row r="1834">
+      <c r="A1834" s="2" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B1834" t="n">
+        <v>1715.550048828125</v>
+      </c>
+      <c r="C1834" t="n">
+        <v>1732.75</v>
+      </c>
+      <c r="D1834" t="n">
+        <v>1677.900024414062</v>
+      </c>
+      <c r="E1834" t="n">
+        <v>1687.75</v>
+      </c>
+      <c r="F1834" t="inlineStr"/>
+      <c r="G1834" t="n">
+        <v>1489542</v>
+      </c>
+      <c r="H1834" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1834" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1834" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1834" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1834" t="inlineStr"/>
+    </row>
+    <row r="1835">
+      <c r="A1835" s="2" t="n">
+        <v>45715</v>
+      </c>
+      <c r="B1835" t="n">
+        <v>1682.199951171875</v>
+      </c>
+      <c r="C1835" t="n">
+        <v>1735</v>
+      </c>
+      <c r="D1835" t="n">
+        <v>1676.25</v>
+      </c>
+      <c r="E1835" t="n">
+        <v>1701.199951171875</v>
+      </c>
+      <c r="F1835" t="inlineStr"/>
+      <c r="G1835" t="n">
+        <v>963101</v>
+      </c>
+      <c r="H1835" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1835" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1835" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1835" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1835" t="inlineStr"/>
+    </row>
+    <row r="1836">
+      <c r="A1836" s="2" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B1836" t="n">
+        <v>1701.199951171875</v>
+      </c>
+      <c r="C1836" t="n">
+        <v>1709.099975585938</v>
+      </c>
+      <c r="D1836" t="n">
+        <v>1667</v>
+      </c>
+      <c r="E1836" t="n">
+        <v>1690.949951171875</v>
+      </c>
+      <c r="F1836" t="inlineStr"/>
+      <c r="G1836" t="n">
+        <v>1224364</v>
+      </c>
+      <c r="H1836" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1836" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1836" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1836" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1836" t="inlineStr"/>
+    </row>
+    <row r="1837">
+      <c r="A1837" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1837" t="n">
+        <v>1690</v>
+      </c>
+      <c r="C1837" t="n">
+        <v>1690</v>
+      </c>
+      <c r="D1837" t="n">
+        <v>1657.300048828125</v>
+      </c>
+      <c r="E1837" t="n">
+        <v>1663.5</v>
+      </c>
+      <c r="F1837" t="inlineStr"/>
+      <c r="G1837" t="n">
+        <v>836343</v>
+      </c>
+      <c r="H1837" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1837" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1837" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1837" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1837" t="inlineStr"/>
+    </row>
+    <row r="1838">
+      <c r="A1838" s="2" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B1838" t="n">
+        <v>1661.849975585938</v>
+      </c>
+      <c r="C1838" t="n">
+        <v>1661.849975585938</v>
+      </c>
+      <c r="D1838" t="n">
+        <v>1613.699951171875</v>
+      </c>
+      <c r="E1838" t="n">
+        <v>1639.699951171875</v>
+      </c>
+      <c r="F1838" t="inlineStr"/>
+      <c r="G1838" t="n">
+        <v>1212429</v>
+      </c>
+      <c r="H1838" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1838" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1838" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1838" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1838" t="inlineStr"/>
+    </row>
+    <row r="1839">
+      <c r="A1839" s="2" t="n">
+        <v>45721</v>
+      </c>
+      <c r="B1839" t="n">
+        <v>1639.699951171875</v>
+      </c>
+      <c r="C1839" t="n">
+        <v>1687.349975585938</v>
+      </c>
+      <c r="D1839" t="n">
+        <v>1620.150024414062</v>
+      </c>
+      <c r="E1839" t="n">
+        <v>1676.900024414062</v>
+      </c>
+      <c r="F1839" t="inlineStr"/>
+      <c r="G1839" t="n">
+        <v>1146442</v>
+      </c>
+      <c r="H1839" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1839" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1839" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1839" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1839" t="inlineStr"/>
+    </row>
+    <row r="1840">
+      <c r="A1840" s="2" t="n">
+        <v>45722</v>
+      </c>
+      <c r="B1840" t="n">
+        <v>1673.050048828125</v>
+      </c>
+      <c r="C1840" t="n">
+        <v>1713</v>
+      </c>
+      <c r="D1840" t="n">
+        <v>1667.400024414062</v>
+      </c>
+      <c r="E1840" t="n">
+        <v>1702.300048828125</v>
+      </c>
+      <c r="F1840" t="inlineStr"/>
+      <c r="G1840" t="n">
+        <v>1924774</v>
+      </c>
+      <c r="H1840" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1840" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1840" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1840" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1840" t="inlineStr"/>
+    </row>
+    <row r="1841">
+      <c r="A1841" s="2" t="n">
+        <v>45723</v>
+      </c>
+      <c r="B1841" t="n">
+        <v>1702.949951171875</v>
+      </c>
+      <c r="C1841" t="n">
+        <v>1704.900024414062</v>
+      </c>
+      <c r="D1841" t="n">
+        <v>1665.699951171875</v>
+      </c>
+      <c r="E1841" t="n">
+        <v>1686.949951171875</v>
+      </c>
+      <c r="F1841" t="inlineStr"/>
+      <c r="G1841" t="n">
+        <v>617115</v>
+      </c>
+      <c r="H1841" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1841" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1841" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1841" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1841" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ICICIGI.NS.xlsx
+++ b/stock_historical_data/1d/ICICIGI.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1841"/>
+  <dimension ref="A1:R1850"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102141,7 +102141,9 @@
       <c r="Q1817" t="n">
         <v>0</v>
       </c>
-      <c r="R1817" t="inlineStr"/>
+      <c r="R1817" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1818">
       <c r="A1818" s="2" t="n">
@@ -102194,7 +102196,7 @@
         <v>0</v>
       </c>
       <c r="R1818" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1819">
@@ -102248,7 +102250,7 @@
         <v>0</v>
       </c>
       <c r="R1819" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1820">
@@ -102518,7 +102520,7 @@
         <v>0</v>
       </c>
       <c r="R1824" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1825">
@@ -102572,7 +102574,7 @@
         <v>0</v>
       </c>
       <c r="R1825" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1826">
@@ -103003,7 +103005,9 @@
       <c r="Q1833" t="n">
         <v>0</v>
       </c>
-      <c r="R1833" t="inlineStr"/>
+      <c r="R1833" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1834">
       <c r="A1834" s="2" t="n">
@@ -103055,7 +103059,9 @@
       <c r="Q1834" t="n">
         <v>0</v>
       </c>
-      <c r="R1834" t="inlineStr"/>
+      <c r="R1834" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1835">
       <c r="A1835" s="2" t="n">
@@ -103107,7 +103113,9 @@
       <c r="Q1835" t="n">
         <v>0</v>
       </c>
-      <c r="R1835" t="inlineStr"/>
+      <c r="R1835" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1836">
       <c r="A1836" s="2" t="n">
@@ -103159,7 +103167,9 @@
       <c r="Q1836" t="n">
         <v>0</v>
       </c>
-      <c r="R1836" t="inlineStr"/>
+      <c r="R1836" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1837">
       <c r="A1837" s="2" t="n">
@@ -103211,7 +103221,9 @@
       <c r="Q1837" t="n">
         <v>0</v>
       </c>
-      <c r="R1837" t="inlineStr"/>
+      <c r="R1837" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1838">
       <c r="A1838" s="2" t="n">
@@ -103255,7 +103267,7 @@
         <v>10</v>
       </c>
       <c r="O1838" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1838" t="n">
         <v>0</v>
@@ -103263,7 +103275,9 @@
       <c r="Q1838" t="n">
         <v>0</v>
       </c>
-      <c r="R1838" t="inlineStr"/>
+      <c r="R1838" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1839">
       <c r="A1839" s="2" t="n">
@@ -103315,7 +103329,9 @@
       <c r="Q1839" t="n">
         <v>0</v>
       </c>
-      <c r="R1839" t="inlineStr"/>
+      <c r="R1839" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1840">
       <c r="A1840" s="2" t="n">
@@ -103367,7 +103383,9 @@
       <c r="Q1840" t="n">
         <v>0</v>
       </c>
-      <c r="R1840" t="inlineStr"/>
+      <c r="R1840" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1841">
       <c r="A1841" s="2" t="n">
@@ -103419,7 +103437,477 @@
       <c r="Q1841" t="n">
         <v>0</v>
       </c>
-      <c r="R1841" t="inlineStr"/>
+      <c r="R1841" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1842">
+      <c r="A1842" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1842" t="n">
+        <v>1681.150024414062</v>
+      </c>
+      <c r="C1842" t="n">
+        <v>1715</v>
+      </c>
+      <c r="D1842" t="n">
+        <v>1662.199951171875</v>
+      </c>
+      <c r="E1842" t="n">
+        <v>1699.599975585938</v>
+      </c>
+      <c r="F1842" t="inlineStr"/>
+      <c r="G1842" t="n">
+        <v>976837</v>
+      </c>
+      <c r="H1842" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1842" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1842" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1842" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1842" t="inlineStr"/>
+    </row>
+    <row r="1843">
+      <c r="A1843" s="2" t="n">
+        <v>45727</v>
+      </c>
+      <c r="B1843" t="n">
+        <v>1699.599975585938</v>
+      </c>
+      <c r="C1843" t="n">
+        <v>1714.949951171875</v>
+      </c>
+      <c r="D1843" t="n">
+        <v>1675.050048828125</v>
+      </c>
+      <c r="E1843" t="n">
+        <v>1700.449951171875</v>
+      </c>
+      <c r="F1843" t="inlineStr"/>
+      <c r="G1843" t="n">
+        <v>1114944</v>
+      </c>
+      <c r="H1843" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1843" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1843" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1843" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1843" t="inlineStr"/>
+    </row>
+    <row r="1844">
+      <c r="A1844" s="2" t="n">
+        <v>45728</v>
+      </c>
+      <c r="B1844" t="n">
+        <v>1700.449951171875</v>
+      </c>
+      <c r="C1844" t="n">
+        <v>1701.900024414062</v>
+      </c>
+      <c r="D1844" t="n">
+        <v>1658</v>
+      </c>
+      <c r="E1844" t="n">
+        <v>1665.699951171875</v>
+      </c>
+      <c r="F1844" t="inlineStr"/>
+      <c r="G1844" t="n">
+        <v>883972</v>
+      </c>
+      <c r="H1844" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1844" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1844" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1844" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1844" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1844" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1844" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1844" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1844" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1844" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1844" t="inlineStr"/>
+    </row>
+    <row r="1845">
+      <c r="A1845" s="2" t="n">
+        <v>45729</v>
+      </c>
+      <c r="B1845" t="n">
+        <v>1683</v>
+      </c>
+      <c r="C1845" t="n">
+        <v>1683</v>
+      </c>
+      <c r="D1845" t="n">
+        <v>1659</v>
+      </c>
+      <c r="E1845" t="n">
+        <v>1678.75</v>
+      </c>
+      <c r="F1845" t="inlineStr"/>
+      <c r="G1845" t="n">
+        <v>807125</v>
+      </c>
+      <c r="H1845" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1845" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1845" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1845" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1845" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1845" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1845" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1845" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1845" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1845" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1845" t="inlineStr"/>
+    </row>
+    <row r="1846">
+      <c r="A1846" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1846" t="n">
+        <v>1682</v>
+      </c>
+      <c r="C1846" t="n">
+        <v>1733.449951171875</v>
+      </c>
+      <c r="D1846" t="n">
+        <v>1670.400024414062</v>
+      </c>
+      <c r="E1846" t="n">
+        <v>1725.349975585938</v>
+      </c>
+      <c r="F1846" t="inlineStr"/>
+      <c r="G1846" t="n">
+        <v>878122</v>
+      </c>
+      <c r="H1846" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1846" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1846" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1846" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1846" t="inlineStr"/>
+    </row>
+    <row r="1847">
+      <c r="A1847" s="2" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B1847" t="n">
+        <v>1725.349975585938</v>
+      </c>
+      <c r="C1847" t="n">
+        <v>1725.349975585938</v>
+      </c>
+      <c r="D1847" t="n">
+        <v>1725.349975585938</v>
+      </c>
+      <c r="E1847" t="n">
+        <v>1725.349975585938</v>
+      </c>
+      <c r="F1847" t="inlineStr"/>
+      <c r="G1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1847" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1847" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1847" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1847" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1847" t="inlineStr"/>
+    </row>
+    <row r="1848">
+      <c r="A1848" s="2" t="n">
+        <v>45735</v>
+      </c>
+      <c r="B1848" t="n">
+        <v>1742</v>
+      </c>
+      <c r="C1848" t="n">
+        <v>1760.900024414062</v>
+      </c>
+      <c r="D1848" t="n">
+        <v>1732</v>
+      </c>
+      <c r="E1848" t="n">
+        <v>1756.5</v>
+      </c>
+      <c r="F1848" t="inlineStr"/>
+      <c r="G1848" t="n">
+        <v>519456</v>
+      </c>
+      <c r="H1848" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1848" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1848" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1848" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1848" t="inlineStr"/>
+    </row>
+    <row r="1849">
+      <c r="A1849" s="2" t="n">
+        <v>45736</v>
+      </c>
+      <c r="B1849" t="n">
+        <v>1745.150024414062</v>
+      </c>
+      <c r="C1849" t="n">
+        <v>1766.050048828125</v>
+      </c>
+      <c r="D1849" t="n">
+        <v>1719.449951171875</v>
+      </c>
+      <c r="E1849" t="n">
+        <v>1724.75</v>
+      </c>
+      <c r="F1849" t="inlineStr"/>
+      <c r="G1849" t="n">
+        <v>484811</v>
+      </c>
+      <c r="H1849" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1849" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1849" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1849" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1849" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1849" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1849" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1849" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1849" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1849" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1849" t="inlineStr"/>
+    </row>
+    <row r="1850">
+      <c r="A1850" s="2" t="n">
+        <v>45737</v>
+      </c>
+      <c r="B1850" t="n">
+        <v>1734.5</v>
+      </c>
+      <c r="C1850" t="n">
+        <v>1740</v>
+      </c>
+      <c r="D1850" t="n">
+        <v>1701.300048828125</v>
+      </c>
+      <c r="E1850" t="n">
+        <v>1723.199951171875</v>
+      </c>
+      <c r="F1850" t="inlineStr"/>
+      <c r="G1850" t="n">
+        <v>740178</v>
+      </c>
+      <c r="H1850" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1850" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1850" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1850" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1850" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1850" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1850" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1850" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1850" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1850" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1850" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ICICIGI.NS.xlsx
+++ b/stock_historical_data/1d/ICICIGI.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1850"/>
+  <dimension ref="A1:R1859"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103491,7 +103491,9 @@
       <c r="Q1842" t="n">
         <v>0</v>
       </c>
-      <c r="R1842" t="inlineStr"/>
+      <c r="R1842" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1843">
       <c r="A1843" s="2" t="n">
@@ -103543,7 +103545,9 @@
       <c r="Q1843" t="n">
         <v>0</v>
       </c>
-      <c r="R1843" t="inlineStr"/>
+      <c r="R1843" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1844">
       <c r="A1844" s="2" t="n">
@@ -103595,7 +103599,9 @@
       <c r="Q1844" t="n">
         <v>0</v>
       </c>
-      <c r="R1844" t="inlineStr"/>
+      <c r="R1844" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1845">
       <c r="A1845" s="2" t="n">
@@ -103647,7 +103653,9 @@
       <c r="Q1845" t="n">
         <v>0</v>
       </c>
-      <c r="R1845" t="inlineStr"/>
+      <c r="R1845" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1846">
       <c r="A1846" s="2" t="n">
@@ -103699,7 +103707,9 @@
       <c r="Q1846" t="n">
         <v>0</v>
       </c>
-      <c r="R1846" t="inlineStr"/>
+      <c r="R1846" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1847">
       <c r="A1847" s="2" t="n">
@@ -103751,7 +103761,9 @@
       <c r="Q1847" t="n">
         <v>0</v>
       </c>
-      <c r="R1847" t="inlineStr"/>
+      <c r="R1847" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1848">
       <c r="A1848" s="2" t="n">
@@ -103803,7 +103815,9 @@
       <c r="Q1848" t="n">
         <v>0</v>
       </c>
-      <c r="R1848" t="inlineStr"/>
+      <c r="R1848" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1849">
       <c r="A1849" s="2" t="n">
@@ -103855,7 +103869,9 @@
       <c r="Q1849" t="n">
         <v>0</v>
       </c>
-      <c r="R1849" t="inlineStr"/>
+      <c r="R1849" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1850">
       <c r="A1850" s="2" t="n">
@@ -103907,7 +103923,477 @@
       <c r="Q1850" t="n">
         <v>0</v>
       </c>
-      <c r="R1850" t="inlineStr"/>
+      <c r="R1850" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1851">
+      <c r="A1851" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1851" t="n">
+        <v>1733</v>
+      </c>
+      <c r="C1851" t="n">
+        <v>1796.5</v>
+      </c>
+      <c r="D1851" t="n">
+        <v>1718.050048828125</v>
+      </c>
+      <c r="E1851" t="n">
+        <v>1785.050048828125</v>
+      </c>
+      <c r="F1851" t="inlineStr"/>
+      <c r="G1851" t="n">
+        <v>741272</v>
+      </c>
+      <c r="H1851" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1851" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1851" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1851" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1851" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1851" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1851" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1851" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1851" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1851" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1851" t="inlineStr"/>
+    </row>
+    <row r="1852">
+      <c r="A1852" s="2" t="n">
+        <v>45741</v>
+      </c>
+      <c r="B1852" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C1852" t="n">
+        <v>1849</v>
+      </c>
+      <c r="D1852" t="n">
+        <v>1771.599975585938</v>
+      </c>
+      <c r="E1852" t="n">
+        <v>1779.5</v>
+      </c>
+      <c r="F1852" t="inlineStr"/>
+      <c r="G1852" t="n">
+        <v>768343</v>
+      </c>
+      <c r="H1852" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1852" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1852" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1852" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1852" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1852" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1852" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1852" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1852" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1852" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1852" t="inlineStr"/>
+    </row>
+    <row r="1853">
+      <c r="A1853" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="B1853" t="n">
+        <v>1780.949951171875</v>
+      </c>
+      <c r="C1853" t="n">
+        <v>1805.849975585938</v>
+      </c>
+      <c r="D1853" t="n">
+        <v>1759.650024414062</v>
+      </c>
+      <c r="E1853" t="n">
+        <v>1772.449951171875</v>
+      </c>
+      <c r="F1853" t="inlineStr"/>
+      <c r="G1853" t="n">
+        <v>381027</v>
+      </c>
+      <c r="H1853" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1853" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1853" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1853" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1853" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1853" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1853" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1853" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1853" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1853" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1853" t="inlineStr"/>
+    </row>
+    <row r="1854">
+      <c r="A1854" s="2" t="n">
+        <v>45743</v>
+      </c>
+      <c r="B1854" t="n">
+        <v>1773</v>
+      </c>
+      <c r="C1854" t="n">
+        <v>1798</v>
+      </c>
+      <c r="D1854" t="n">
+        <v>1761.650024414062</v>
+      </c>
+      <c r="E1854" t="n">
+        <v>1794.25</v>
+      </c>
+      <c r="F1854" t="inlineStr"/>
+      <c r="G1854" t="n">
+        <v>454624</v>
+      </c>
+      <c r="H1854" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1854" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1854" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1854" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1854" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1854" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1854" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1854" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1854" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1854" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1854" t="inlineStr"/>
+    </row>
+    <row r="1855">
+      <c r="A1855" s="2" t="n">
+        <v>45744</v>
+      </c>
+      <c r="B1855" t="n">
+        <v>1799.949951171875</v>
+      </c>
+      <c r="C1855" t="n">
+        <v>1805</v>
+      </c>
+      <c r="D1855" t="n">
+        <v>1773</v>
+      </c>
+      <c r="E1855" t="n">
+        <v>1792.849975585938</v>
+      </c>
+      <c r="F1855" t="inlineStr"/>
+      <c r="G1855" t="n">
+        <v>791304</v>
+      </c>
+      <c r="H1855" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1855" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1855" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1855" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1855" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1855" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1855" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1855" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1855" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1855" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1855" t="inlineStr"/>
+    </row>
+    <row r="1856">
+      <c r="A1856" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B1856" t="n">
+        <v>1772.5</v>
+      </c>
+      <c r="C1856" t="n">
+        <v>1808.699951171875</v>
+      </c>
+      <c r="D1856" t="n">
+        <v>1768.050048828125</v>
+      </c>
+      <c r="E1856" t="n">
+        <v>1791.900024414062</v>
+      </c>
+      <c r="F1856" t="inlineStr"/>
+      <c r="G1856" t="n">
+        <v>535773</v>
+      </c>
+      <c r="H1856" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1856" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1856" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1856" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1856" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1856" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1856" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1856" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1856" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1856" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1856" t="inlineStr"/>
+    </row>
+    <row r="1857">
+      <c r="A1857" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B1857" t="n">
+        <v>1794</v>
+      </c>
+      <c r="C1857" t="n">
+        <v>1832.849975585938</v>
+      </c>
+      <c r="D1857" t="n">
+        <v>1786</v>
+      </c>
+      <c r="E1857" t="n">
+        <v>1829.949951171875</v>
+      </c>
+      <c r="F1857" t="inlineStr"/>
+      <c r="G1857" t="n">
+        <v>368137</v>
+      </c>
+      <c r="H1857" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1857" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1857" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1857" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1857" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1857" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1857" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1857" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1857" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1857" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1857" t="inlineStr"/>
+    </row>
+    <row r="1858">
+      <c r="A1858" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B1858" t="n">
+        <v>1814</v>
+      </c>
+      <c r="C1858" t="n">
+        <v>1837</v>
+      </c>
+      <c r="D1858" t="n">
+        <v>1813.25</v>
+      </c>
+      <c r="E1858" t="n">
+        <v>1831.5</v>
+      </c>
+      <c r="F1858" t="inlineStr"/>
+      <c r="G1858" t="n">
+        <v>205636</v>
+      </c>
+      <c r="H1858" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1858" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1858" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1858" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1858" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1858" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1858" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1858" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1858" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1858" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1858" t="inlineStr"/>
+    </row>
+    <row r="1859">
+      <c r="A1859" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B1859" t="n">
+        <v>1831.5</v>
+      </c>
+      <c r="C1859" t="n">
+        <v>1848.900024414062</v>
+      </c>
+      <c r="D1859" t="n">
+        <v>1811.5</v>
+      </c>
+      <c r="E1859" t="n">
+        <v>1829.550048828125</v>
+      </c>
+      <c r="F1859" t="inlineStr"/>
+      <c r="G1859" t="n">
+        <v>502849</v>
+      </c>
+      <c r="H1859" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1859" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1859" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1859" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1859" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1859" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1859" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1859" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1859" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1859" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1859" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
